--- a/DL-BioMed-Papers.xlsx
+++ b/DL-BioMed-Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\yanll\Workspace\Personal\Projects\what-does-deep-learning-doing-in-biomed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D581A8-C8B2-41F3-BEED-6C7D6A640B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEC34A-4290-4563-8AFA-C3523B2A9D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12555" yWindow="750" windowWidth="25725" windowHeight="19590" xr2:uid="{1E75BEED-BD7A-4FCF-862A-92BB43F7F2FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E75BEED-BD7A-4FCF-862A-92BB43F7F2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="DL-BioMed-Papers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1779">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4236,6 +4236,1845 @@
   </si>
   <si>
     <t>图像分析，面部情绪识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s12859-022-04758-z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joint deep learning for batch effect removal and classification toward MALDI MS based metabolomics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMC bioinformatics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s12859-022-04815-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A hybrid metaheuristic-deep learning technique for the pan-classification of cancer based on DNA methylation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41588-022-01116-w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepLoop robustly maps chromatin interactions from sparse allele-resolved or single-cell Hi-C data at kilobase resolution.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature genetics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41588-022-01102-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A sequence-based global map of regulatory activity for deciphering human genetics.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41562-022-01394-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intuitive physics learning in a deep-learning model inspired by developmental psychology.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nature human behaviour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/bib/bbac266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deep learning method for predicting metabolite-disease associations via graph neural network.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Briefings in bioinformatics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/bib/bbac272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttentionSiteDTI: an interpretable graph-based model for drug-target interaction prediction using NLP sentence-level relation classification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.radonc.2022.06.024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparative evaluation of a prototype deep learning algorithm for autosegmentation of normal tissues in head and neck radiotherapy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiotherapy and oncology : journal of the European Society for Therapeutic Radiology and Oncology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.neunet.2022.06.038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single-layer vision transformers for more accurate early exits with less overhead.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neural networks : the official journal of the International Neural Network Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jcim.2c00484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leveraging Protein Dynamics to Identify Functional Phosphorylation Sites using Deep Learning Models.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of chemical information and modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1021/acs.jctc.2c00501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine Learning of Coupled Cluster (T)-Energy Corrections via Delta (螖)-Learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of chemical theory and computation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1259/bjr.20211136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clinical application of deep learning and radiomics in hepatic disease imaging: a systematic scoping review.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The British journal of radiology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TMI.2022.3189905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Variational manifold learning from incomplete data: application to multi-slice dynamic MRI.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE transactions on medical imaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TMI.2022.3189693</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TranSMS: Transformers for Super-Resolution Calibration in Magnetic Particle Imaging.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TBME.2022.3189617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fetal Electrocardiogram Extraction Using Dual-Path Source Separation of Single-Channel Non-Invasive Abdominal Recordings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1259/dmfr.20220135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Osteoporosis screening support system from panoramic radiographs using deep learning by convolutional neural network.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dento maxillo facial radiology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0271161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluating tubulointerstitial compartments in renal biopsy specimens using a deep learning-based approach for classifying normal and abnormal tubules.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1021/acs.est.1c08682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siamese Network-Based Transfer Learning Model to Predict Geogenic Contaminated Groundwaters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environmental science &amp; technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2022.21343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application of Video-Based Deep Learning for Early Diagnosis of Neurological Disorders.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAMA network open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2022.21325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development and Validation of a Deep Learning Method to Predict Cerebral Palsy From Spontaneous Movements in Infants at High Risk.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1002/mp.15860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intracranial Vessel Wall Segmentation with Deep Learning using a Novel Tiered Loss Function Incorporating Class Inclusion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medical physics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1177/15266028221105840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning-Based Intraoperative Stent Graft Segmentation on Completion Digital Subtraction Angiography During Endovascular Aneurysm Repair.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of endovascular therapy : an official journal of the International Society of Endovascular Specialists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1111/tpj.15900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Genomic regions associate with major axes of variation driven by gas exchange and leaf construction traits in cultivated sunflower (Helianthus annuus L.).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Plant journal : for cell and molecular biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s10796-022-10295-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Graph and Deep Learning-based Text-to-GQL Model for Intelligent Medical Consultation Chatbot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information systems frontiers : a journal of research and innovation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/5707231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnetic Resonance Imaging Data Features to Evaluate the Efficacy of Compound Skin Graft for Diabetic Foot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contrast media &amp; molecular imaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fmed.2022.915243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagnosis of Idiopathic Pulmonary Fibrosis in High-Resolution Computed Tomography Scans Using a Combination of Handcrafted Radiomics and Deep Learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fmed.2022.890720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagnostic Accuracy of Artificial Intelligence (AI) to Detect Early Neoplasia in Barrett's Esophagus: A Non-comparative Systematic Review and Meta-Analysis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fmed.2022.912214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smartphone-Acquired Anterior Segment Images for Deep Learning Prediction of Anterior Chamber Depth: A Proof-of-Concept Study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/6016752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial Intelligence-Based Translation Technology in Translation Teaching.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/1920196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Railway Traffic Emergency Management Relying on Image Recognition Technology in the Context of Big Data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/1817628</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis of Data Interaction Process Based on Data Mining and Neural Network Topology Visualization.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/6044320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management and Analysis of Sports Health Level of the Elderly Based on Deep Learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/2455259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light-Weighted Deep Learning Model to Detect Fault in IoT-Based Industrial Equipment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/3024590</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Hybrid Matching Network for Fault Diagnosis under Different Working Conditions with Limited Data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/3759129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exploring the Development of Chinese Digital Resources under Lightweight Deep Learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/1573562</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research on Sports Health Care Information System Based on Computer Deep Learning Algorithm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/2636877</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation Training Auxiliary Model Based on Neural Network and Virtual Reality Technology.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/6162445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid Rider Optimization with Deep Learning Driven Biomedical Liver Cancer Detection and Classification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/6069881</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis of the Effect of Urban Residents' Sports Consumption on GDP Growth Based on Deep Learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/7643967</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent Deep Learning Enabled Oral Squamous Cell Carcinoma Detection and Classification Using Biomedical Images.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/6347307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning Approaches for Automatic Localization in Medical Images.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/6860842</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study on OBE Teaching Concept in the Context of Deep Learning for the Construction of University Mathematics Microcourses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/2221728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning and Transfer Learning for Malaria Detection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/4921211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent Research Based on Deep Learning Recognition Method in Vehicle-Road Cooperative Information Interaction System.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.jceh.2022.03.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Management of Portal Hypertension.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of clinical and experimental hepatology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fonc.2022.879607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Differential Private Deep Learning Models for Analyzing Breast Cancer Omics Data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontiers in oncology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fonc.2022.893424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning-Based Multi-Omics Integration Robustly Predicts Relapse in Prostate Cancer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fonc.2022.897676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning Radiomics Nomogram to Predict Lung Metastasis in Soft-Tissue Sarcoma: A Multi-Center Study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2022.909439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A CNN-Based Framework for Predicting Public Emotion and Multi-Level Behaviors Based on Network Public Opinion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontiers in psychology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2022.900176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Influence of College Students' Innovation and Entrepreneurship Intention in the Art Field of Art Film and Television Appreciation by Deep Learning Under Entrepreneurial Psychology.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2022.762402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Use of Deep Learning-Based Intelligent Music Signal Identification and Generation Technology in National Music Teaching.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s41782-021-00190-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning Analyses of Brain MRI to Identify Sustained Attention Deficit in Treated Obstructive Sleep Apnea: A Pilot Study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep and vigilance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial intelligence and lymphedema: State of the art.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of clinical and translational research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1117/12.2612745</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Individualized and Generalized Learner Models for Predicting Missed Hepatic Metastases.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of SPIE--the International Society for Optical Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/frobt.2022.799644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network Layer Analysis for a RL-Based Robotic Reaching Task.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontiers in robotics and AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.4103/tjo.tjo_8_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understanding required to consider AI applications to the field of ophthalmology.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan journal of ophthalmology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/2858845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagnosis of Brain Tumor Using Light Weight Deep Learning Model with Fine-Tuning Approach.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computational and mathematical methods in medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/1499420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Assessment of Vocational Education Teaching Reform Based on Deep Learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21037/atm-21-6736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choroid automatic segmentation and thickness quantification on swept-source optical coherence tomography images of highly myopic patients.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annals of translational medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.7150/ijms.71341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Clinical Decision Support System for Diabetes Patients with Deep Learning: Experience of a Taiwan Medical Center.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International journal of medical sciences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1117/12.2612414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient Evaluation of Low-contrast Detectability of Deep-CNN-based CT Reconstruction Using Channelized Hotelling Observer on the ACR Accreditation Phantom.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.eclinm.2022.101541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deep learning-based system for survival benefit prediction of tyrosine kinase inhibitors and immune checkpoint inhibitors in stage IV non-small cell lung cancer patients: A multicenter, prognostic study.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EClinicalMedicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fpubh.2022.869238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Survey on Machine Learning and Internet of Medical Things-Based Approaches for Handling COVID-19: Meta-Analysis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontiers in public health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-year recurrence prediction after hepatocellular carcinoma resection: deep learning vs. Cox regression models.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>American journal of cancer research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1021/acsomega.2c01924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Structural and Bioinformatics Investigation of a Fungal Squalene Synthase and Comparisons with Other Membrane Proteins.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACS omega</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fcvm.2022.928546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Self-Supervised Deep Learning Reconstruction for Shortening the Breathhold and Acquisition Window in Cardiac Magnetic Resonance Fingerprinting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontiers in cardiovascular medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fcvm.2022.923549</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prediction and Risk Stratification of Cardiovascular Disease in Diabetic Kidney Disease Patients.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1155/2022/8178963</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clinical Treatment and Nursing Intervention Study of Clipping Treatment of Cerebral Aneurysm under the Health Model of Data Analysis.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15557/JoU.2022.0013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explaining a Deep Learning Based Breast Ultrasound Image Classifier with Saliency Maps.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of ultrasonography</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1002/jcu.23233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model application to quantitatively evaluate placental features from ultrasound images with gestational diabetes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of clinical ultrasound : JCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TUFFC.2022.3190012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Attribute Attention Network for Interpretable Diagnosis of Thyroid Nodules in Ultrasound Images.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE transactions on ultrasonics, ferroelectrics, and frequency control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TCYB.2022.3185119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modeling Hierarchical Uncertainty for Multimodal Emotion Recognition in Conversation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE transactions on cybernetics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3190266</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explaining Black Box Drug Target Prediction through Model Agnostic Counterfactual Samples.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE/ACM transactions on computational biology and bioinformatics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3190265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Deep Learning Approach Considering Image Background for Pneumonia Identification Using Explainable AI (XAI).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1097/ICU.0000000000000877</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial intelligence in ophthalmology: an insight into neurodegenerative disease.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current opinion in ophthalmology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1097/ICU.0000000000000885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial intelligence and corneal diseases.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.2196/36490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Review of Artificial Intelligence Applications in Hematology Management: Current Practices and Future Prospects.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of medical Internet research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s11030-022-10489-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artificial intelligence and machine-learning approaches in structure and ligand-based discovery of drugs affecting central nervous system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molecular diversity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s10278-022-00666-z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analyzing Transfer Learning of Vision Transformers for Interpreting Chest Radiography.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of digital imaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s00259-022-05861-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An encoder-decoder network for direct image reconstruction on sinograms of a long axial field of view PET.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>European journal of nuclear medicine and molecular imaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s00530-022-00966-y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combating multimodal fake news on social media: methods, datasets, and future perspective.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multimedia systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.jocs.2022.101763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning-to-augment incorporated noise-robust deep CNN for detection of COVID-19 in noisy X-ray images.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of computational science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s12864-022-08715-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scDLC: a deep learning framework to classify large sample single-cell RNA-seq data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMC genomics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16329-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-scale feature progressive fusion network for remote sensing image change detection.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scientific reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16223-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A survey on computational spectral reconstruction methods from RGB to hyperspectral imaging.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16089-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fractal dimension of retinal vasculature as an image quality metric for automated fundus image analysis systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-15998-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An integrated mediapipe-optimized GRU model for Indian sign language recognition.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41467-022-31748-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model building of protein complexes from intermediate-resolution cryo-EM maps with deep learning-guided automatic assembly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16114-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparing machine learning and deep learning regression frameworks for accurate prediction of dielectrophoretic force.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1038/s41467-022-31560-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deep-learning estimate of the decadal trends in the Southern Ocean carbon storage.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/bib/bbac285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>De novo molecular design with deep molecular generative models for PPI inhibitors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1093/bib/bbac267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine-designed biotherapeutics: opportunities, feasibility and advantages of deep learning in computational antibody discovery.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1088/1361-6560/ac80e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast VMAT planning for prostate radiotherapy: dosimetric validation of a deep learning-based initial segment generation method.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physics in medicine and biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.visres.2022.108083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human peripheral blur is optimal for object recognition.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.media.2022.102527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object recognition in medical images via anatomy-guided deep learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0270308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unreferenced English articles' translation quality-oriented automatic evaluation technology using sparse autoencoder under the background of deep learning.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TNSRE.2022.3190431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A General and Scalable Vision Framework for Functional Near-Infrared Spectroscopy Classification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE transactions on neural systems and rehabilitation engineering : a publication of the IEEE Engineering in Medicine and Biology Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/TNNLS.2022.3188452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tchebichef Transform Domain-Based Deep Learning Architecture for Image Super-Resolution.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s00330-022-08940-y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRI changes in diaphragmatic motion and curvature in Pompe disease over time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1167/tvst.11.7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Diabetic Retinopathy Classification Framework Based on Deep-Learning Analysis of OCT Angiography.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Translational vision science &amp; technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1002/jmri.28350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editorial for "Cognitive Challenges Best Distinguish Binge and Non-Binge Drinking: A Deep Learning Study of Multiple Behavioral Tasks and Algorithms".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1002/jor.25415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successful Real-World Application of an Osteoarthritis Classification Deep-learning Model Using 9210 Knees-An Orthopedic Surgeon's View.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of orthopaedic research : official publication of the Orthopaedic Research Society</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1080/0954898X.2022.2096938</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semantic segmentation of human cell nucleus using deep U-Net and other versions of U-Net models.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Network (Bristol, England)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1177/09544119221109735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automated evaluation of rheumatoid arthritis from hand radiographs using Machine Learning and deep learning techniques.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proceedings of the Institution of Mechanical Engineers. Part H, Journal of engineering in medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1364/osac.426962</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real-time deep learning assisted skin layer delineation in dermal optical coherence tomography.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSA continuum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.imu.2022.101004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development and integration of VGG and dense transfer-learning systems supported with diverse lung images for discovery of the Coronavirus identity.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Informatics in medicine unlocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/mci.2021.3129957</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIP: Pictorial Interpretable Prototype Learning for Time Series Classification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEEE computational intelligence magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3389/fragi.2021.697254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adapting Blood DNA Methylation Aging Clocks for Use in Saliva Samples With Cell-type Deconvolution.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontiers in aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s12652-022-03868-z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A systematic review and Meta-data analysis on the applications of Deep Learning in Electrocardiogram.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal of ambient intelligence and humanized computing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1016/j.ipm.2022.103025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detection of COVID-19 using deep learning techniques and classification methods.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information processing &amp; management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1111/tpj.15905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unsupervised and semi-supervised learning: the next frontier in machine learning for plant systems biology.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1007/s00330-022-08976-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improved differentiation between hypo/hypertelorism and normal fetuses based on MRI using automatic ocular biometric measurements, ocular ratios, and machine learning multi-parametric classification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s12915-022-01364-6</t>
+  </si>
+  <si>
+    <t>Systematic prediction of degrons and E3 ubiquitin ligase binding via deep learning.</t>
+  </si>
+  <si>
+    <t>BMC biology</t>
+  </si>
+  <si>
+    <t>10.1186/s12880-022-00854-x</t>
+  </si>
+  <si>
+    <t>Multimodal image translation via deep learning inference model trained in video domain.</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16141-2</t>
+  </si>
+  <si>
+    <t>Area-based breast percentage density estimation in mammograms using weight-adaptive multitask learning.</t>
+  </si>
+  <si>
+    <t>10.1007/s00586-022-07311-x</t>
+  </si>
+  <si>
+    <t>External validation of the deep learning system "SpineNet" for grading radiological features of degeneration on MRIs of the lumbar spine.</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-022-31739-w</t>
+  </si>
+  <si>
+    <t>Identifying multicellular spatiotemporal organization of cells with SpaceFlow.</t>
+  </si>
+  <si>
+    <t>10.1016/j.euf.2022.06.011</t>
+  </si>
+  <si>
+    <t>Development and Validation of a Deep Learning System for Sound-based Prediction of Urinary Flow.</t>
+  </si>
+  <si>
+    <t>European urology focus</t>
+  </si>
+  <si>
+    <t>10.1016/j.jbi.2022.104132</t>
+  </si>
+  <si>
+    <t>A deep learning approach for Spatio-Temporal forecasting of new cases and new hospital admissions of COVID-19 spread in Reggio Emilia, Northern Italy.</t>
+  </si>
+  <si>
+    <t>Journal of biomedical informatics</t>
+  </si>
+  <si>
+    <t>10.1016/j.jcmgh.2022.07.001</t>
+  </si>
+  <si>
+    <t>A novel three-dimensional imaging system based on polysaccharide staining for accurate histopathological diagnosis of inflammatory bowel diseases.</t>
+  </si>
+  <si>
+    <t>Cellular and molecular gastroenterology and hepatology</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2022.157220</t>
+  </si>
+  <si>
+    <t>A new application of deep neural network (LSTM) and RUSLE models in soil erosion prediction.</t>
+  </si>
+  <si>
+    <t>10.1159/000525645</t>
+  </si>
+  <si>
+    <t>Federated Learning in Risk Prediction: A Primer and Application to COVID-19-Associated Acute Kidney Injury.</t>
+  </si>
+  <si>
+    <t>Nephron</t>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105812</t>
+  </si>
+  <si>
+    <t>SAFNet: A deep spatial attention network with classifier fusion for breast cancer detection.</t>
+  </si>
+  <si>
+    <t>10.1088/1361-6528/ac8109</t>
+  </si>
+  <si>
+    <t>The accelerated design of the nanoantenna arrays by deep learning.</t>
+  </si>
+  <si>
+    <t>Nanotechnology</t>
+  </si>
+  <si>
+    <t>10.1016/j.ejrad.2022.110433</t>
+  </si>
+  <si>
+    <t>Visual and quantitative evaluation of microcalcifications in mammograms with deep learning-based super-resolution.</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0269544</t>
+  </si>
+  <si>
+    <t>Unsupervised deep learning supports reclassification of Bronze age cypriot writing system.</t>
+  </si>
+  <si>
+    <t>10.1109/JBHI.2022.3190923</t>
+  </si>
+  <si>
+    <t>A Fully Deep Learning Paradigm for Pneumoconiosis Staging on Chest Radiographs.</t>
+  </si>
+  <si>
+    <t>10.1109/TMI.2022.3191011</t>
+  </si>
+  <si>
+    <t>Using Simulated Training Data of Voxel-Level Generative Models to Improve 3D Neuron Reconstruction.</t>
+  </si>
+  <si>
+    <t>10.1109/TNNLS.2022.3188915</t>
+  </si>
+  <si>
+    <t>A Self-Supervised Deep Learning Method for Seismic Data Deblending Using a Blind-Trace Network.</t>
+  </si>
+  <si>
+    <t>10.1109/TNSRE.2022.3188275</t>
+  </si>
+  <si>
+    <t>Explainable Deep Learning Model for EMG-Based Finger Angle Estimation Using Attention.</t>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3190933</t>
+  </si>
+  <si>
+    <t>Protein-DNA Binding Residues Prediction Using a Deep Learning Model with Hierarchical Feature Extraction.</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0268430</t>
+  </si>
+  <si>
+    <t>Feature-level ensemble approach for COVID-19 detection using chest X-ray images.</t>
+  </si>
+  <si>
+    <t>10.1001/jamanetworkopen.2022.21992</t>
+  </si>
+  <si>
+    <t>Development and Validation of an Artificial Intelligence Model for Small Bowel Capsule Endoscopy Video Review.</t>
+  </si>
+  <si>
+    <t>JAMA network open</t>
+  </si>
+  <si>
+    <t>10.1021/acssensors.2c00255</t>
+  </si>
+  <si>
+    <t>An Integrated Food Freshness Sensor Array System Augmented by a Metal-Organic Framework Mixed-Matrix Membrane and Deep Learning.</t>
+  </si>
+  <si>
+    <t>ACS sensors</t>
+  </si>
+  <si>
+    <t>10.1007/s11356-022-21768-9</t>
+  </si>
+  <si>
+    <t>Forecasting of non-accidental, cardiovascular, and respiratory mortality with environmental exposures adopting machine learning approaches.</t>
+  </si>
+  <si>
+    <t>Environmental science and pollution research international</t>
+  </si>
+  <si>
+    <t>10.1007/s11517-022-02632-x</t>
+  </si>
+  <si>
+    <t>Classification of COVID-19 from tuberculosis and pneumonia using deep learning techniques.</t>
+  </si>
+  <si>
+    <t>10.1167/tvst.11.7.12</t>
+  </si>
+  <si>
+    <t>AutoMorph: Automated Retinal Vascular Morphology Quantification Via a Deep Learning Pipeline.</t>
+  </si>
+  <si>
+    <t>10.1002/mp.15827</t>
+  </si>
+  <si>
+    <t>Multiscale unsupervised domain adaptation for automatic pancreas segmentation in CT volumes using adversarial learning.</t>
+  </si>
+  <si>
+    <t>10.1021/acsami.2c09052</t>
+  </si>
+  <si>
+    <t>Deep Learning-Accelerated Designs of Tunable Magneto-Mechanical Metamaterials.</t>
+  </si>
+  <si>
+    <t>ACS applied materials &amp; interfaces</t>
+  </si>
+  <si>
+    <t>10.1002/mp.15858</t>
+  </si>
+  <si>
+    <t>Deep-learning based synthetization of real-time in-treatment 4D images using surface motion and pre-treatment images: a proof-of-concept study.</t>
+  </si>
+  <si>
+    <t>10.1002/mp.15863</t>
+  </si>
+  <si>
+    <t>Deep learning for brain metastasis detection and segmentation in longitudinal MRI data.</t>
+  </si>
+  <si>
+    <t>10.1002/mp.15854</t>
+  </si>
+  <si>
+    <t>Combining natural and artificial intelligence for robust automatic anatomy segmentation: Application in neck and thorax auto-contouring.</t>
+  </si>
+  <si>
+    <t>10.1016/j.isci.2022.104663</t>
+  </si>
+  <si>
+    <t>Using deep learning to detect patients at risk for prostate cancer despite benign biopsies.</t>
+  </si>
+  <si>
+    <t>iScience</t>
+  </si>
+  <si>
+    <t>10.3389/fnhum.2022.913777</t>
+  </si>
+  <si>
+    <t>Decoding Intracranial EEG With Machine Learning: A Systematic Review.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/5203401</t>
+  </si>
+  <si>
+    <t>A Modified Deep Learning Framework for Arrhythmia Disease Analysis in Medical Imaging Using Electrocardiogram Signal.</t>
+  </si>
+  <si>
+    <t>10.1016/j.csbj.2022.04.021</t>
+  </si>
+  <si>
+    <t>On the road to explainable AI in drug-drug interactions prediction: A systematic review.</t>
+  </si>
+  <si>
+    <t>10.1016/j.csbj.2022.06.025</t>
+  </si>
+  <si>
+    <t>Deep learning frameworks for protein-protein interaction prediction.</t>
+  </si>
+  <si>
+    <t>10.1016/j.csbj.2022.06.047</t>
+  </si>
+  <si>
+    <t>Predicting 3D chromatin interactions from DNA sequence using Deep Learning.</t>
+  </si>
+  <si>
+    <t>10.1016/j.csbj.2022.04.035</t>
+  </si>
+  <si>
+    <t>DeepSCM: An efficient convolutional neural network surrogate model for the screening of therapeutic antibody viscosity.</t>
+  </si>
+  <si>
+    <t>10.1016/j.csbj.2022.06.032</t>
+  </si>
+  <si>
+    <t>iKcr_CNN: A novel computational tool for imbalance classification of human nonhistone crotonylation sites based on convolutional neural networks with focal loss.</t>
+  </si>
+  <si>
+    <t>10.21037/tlcr-21-1012</t>
+  </si>
+  <si>
+    <t>A narrative review of deep learning applications in lung cancer research: from screening to prognostication.</t>
+  </si>
+  <si>
+    <t>Translational lung cancer research</t>
+  </si>
+  <si>
+    <t>10.1016/j.dib.2022.108436</t>
+  </si>
+  <si>
+    <t>Human-annotated dataset for social media sentiment analysis for Albanian language.</t>
+  </si>
+  <si>
+    <t>Data in brief</t>
+  </si>
+  <si>
+    <t>10.1155/2022/1817990</t>
+  </si>
+  <si>
+    <t>Optimization Model of Mathematics Instructional Mode Based on Deep Learning Algorithm.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/5336017</t>
+  </si>
+  <si>
+    <t>Intelligent Recognition of Sports Players' Wrong Actions in view of Computer Pattern Recognition.</t>
+  </si>
+  <si>
+    <t>10.3389/fpls.2022.921057</t>
+  </si>
+  <si>
+    <t>An Industrial-Grade Solution for Crop Disease Image Detection Tasks.</t>
+  </si>
+  <si>
+    <t>10.3389/frai.2022.884749</t>
+  </si>
+  <si>
+    <t>A Survey on Human Cancer Categorization Based on Deep Learning.</t>
+  </si>
+  <si>
+    <t>10.3389/fneur.2022.898728</t>
+  </si>
+  <si>
+    <t>Automated Measurement of Net Water Uptake From Baseline and Follow-Up CTs in Patients With Large Vessel Occlusion Stroke.</t>
+  </si>
+  <si>
+    <t>Frontiers in neurology</t>
+  </si>
+  <si>
+    <t>10.7150/thno.68972</t>
+  </si>
+  <si>
+    <t>FGFR blockade boosts T cell infiltration into triple-negative breast cancer by regulating cancer-associated fibroblasts.</t>
+  </si>
+  <si>
+    <t>Theranostics</t>
+  </si>
+  <si>
+    <t>10.1117/1.JBO.27.7.076003</t>
+  </si>
+  <si>
+    <t>Detection of live breast cancer cells in bright-field microscopy images containing white blood cells by image analysis and deep learning.</t>
+  </si>
+  <si>
+    <t>Journal of biomedical optics</t>
+  </si>
+  <si>
+    <t>10.1002/ctm2.938</t>
+  </si>
+  <si>
+    <t>Development of a deep learning-based nomogram for predicting lymph node metastasis in cervical cancer: A multicenter study.</t>
+  </si>
+  <si>
+    <t>Clinical and translational medicine</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pcbi.1010328</t>
+  </si>
+  <si>
+    <t>Explainable deep transfer learning model for disease risk prediction using high-dimensional genomic data.</t>
+  </si>
+  <si>
+    <t>PLoS computational biology</t>
+  </si>
+  <si>
+    <t>10.1109/TNNLS.2022.3189994</t>
+  </si>
+  <si>
+    <t>Fractional Fourier Image Transformer for Multimodal Remote Sensing Data Classification.</t>
+  </si>
+  <si>
+    <t>10.1109/TMI.2022.3191398</t>
+  </si>
+  <si>
+    <t>Unsupervised Representation Learning for Tissue Segmentation in Histopathological Images: From Global to Local Contrast.</t>
+  </si>
+  <si>
+    <t>10.1007/978-1-0716-2395-4_30</t>
+  </si>
+  <si>
+    <t>A Deep Learning Approach to Identify Chest Computed Tomography Features for Prediction of SARS-CoV-2 Infection Outcomes.</t>
+  </si>
+  <si>
+    <t>Methods in molecular biology (Clifton, N.J.)</t>
+  </si>
+  <si>
+    <t>10.1364/OL.464184</t>
+  </si>
+  <si>
+    <t>3D medical images security via light-field imaging.</t>
+  </si>
+  <si>
+    <t>Optics letters</t>
+  </si>
+  <si>
+    <t>10.1590/S1677-5538.IBJU.2022.0132.1</t>
+  </si>
+  <si>
+    <t>Deep learning is a promising technology and seems to be the future of the CT stone evaluation.</t>
+  </si>
+  <si>
+    <t>International braz j urol : official journal of the Brazilian Society of Urology</t>
+  </si>
+  <si>
+    <t>10.1590/S1677-5538.IBJU.2022.0132</t>
+  </si>
+  <si>
+    <t>Deep learning model-assisted detection of kidney stones on computed tomography.</t>
+  </si>
+  <si>
+    <t>10.1021/acs.jctc.2c00308</t>
+  </si>
+  <si>
+    <t>A Fast and Interpretable Deep Learning Approach for Accurate Electrostatics-Driven p&lt;i&gt;K&lt;/i&gt;&lt;sub&gt;a&lt;/sub&gt; Predictions in Proteins.</t>
+  </si>
+  <si>
+    <t>Journal of chemical theory and computation</t>
+  </si>
+  <si>
+    <t>10.1021/acs.analchem.2c01620</t>
+  </si>
+  <si>
+    <t>Easy and Rapid Approach to Obtaining the Binding Affinity of Biomolecular Interactions Based on the Deep Learning Boost.</t>
+  </si>
+  <si>
+    <t>Analytical chemistry</t>
+  </si>
+  <si>
+    <t>10.1097/CM9.0000000000002199</t>
+  </si>
+  <si>
+    <t>Imaging-based deep learning in liver diseases.</t>
+  </si>
+  <si>
+    <t>Chinese medical journal</t>
+  </si>
+  <si>
+    <t>10.3389/frai.2022.867046</t>
+  </si>
+  <si>
+    <t>Federated Learning for Privacy-Aware Human Mobility Modeling.</t>
+  </si>
+  <si>
+    <t>10.3389/fpls.2022.915543</t>
+  </si>
+  <si>
+    <t>Detection of Small-Sized Insects in Sticky Trapping Images Using Spectral Residual Model and Machine Learning.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/2743781</t>
+  </si>
+  <si>
+    <t>Deep Learning Target Detection System for Sewage Treatment.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/1478371</t>
+  </si>
+  <si>
+    <t>Feature Recognition and Style Transfer of Painting Image Using Lightweight Deep Learning.</t>
+  </si>
+  <si>
+    <t>10.3389/fmed.2022.845522</t>
+  </si>
+  <si>
+    <t>The Ethical and Societal Considerations for the Rise of Artificial Intelligence and Big Data in Ophthalmology.</t>
+  </si>
+  <si>
+    <t>10.3389/fmolb.2022.935375</t>
+  </si>
+  <si>
+    <t>Molecular Modeling of ABHD5 Structure and Ligand Recognition.</t>
+  </si>
+  <si>
+    <t>10.1117/1.JMI.9.4.045001</t>
+  </si>
+  <si>
+    <t>Combining simple interactivity and machine learning: a separable deep learning approach to subthalamic nucleus localization and segmentation in MRI for deep brain stimulation surgical planning.</t>
+  </si>
+  <si>
+    <t>10.1007/s41403-022-00338-y</t>
+  </si>
+  <si>
+    <t>Passenger Surveillance Using Deep Learning in Post-COVID-19 Intelligent Transportation System.</t>
+  </si>
+  <si>
+    <t>Transactions of the Indian National Academy of Engineering : an international journal of engineering and technology</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16534-3</t>
+  </si>
+  <si>
+    <t>Automated identification of hip arthroplasty implants using artificial intelligence.</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-022-31679-5</t>
+  </si>
+  <si>
+    <t>Realizing quantum convolutional neural networks on a superconducting quantum processor to recognize quantum phases.</t>
+  </si>
+  <si>
+    <t>10.1016/j.meddos.2022.05.003</t>
+  </si>
+  <si>
+    <t>A survey of medical dosimetrists' perceptions of efficiency and consistency of auto-contouring software.</t>
+  </si>
+  <si>
+    <t>Medical dosimetry : official journal of the American Association of Medical Dosimetrists</t>
+  </si>
+  <si>
+    <t>10.1016/j.neuroimage.2022.119474</t>
+  </si>
+  <si>
+    <t>SynthStrip: Skull-Stripping for Any Brain Image.</t>
+  </si>
+  <si>
+    <t>10.1016/j.cmpb.2022.106999</t>
+  </si>
+  <si>
+    <t>Biosignal-based transferable attention Bi-ConvGRU deep network for hand-gesture recognition towards online upper-limb prosthesis control.</t>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105817</t>
+  </si>
+  <si>
+    <t>Prostate158 - An expert-annotated 3T MRI dataset and algorithm for prostate cancer detection.</t>
+  </si>
+  <si>
+    <t>10.1007/s10459-022-10137-3</t>
+  </si>
+  <si>
+    <t>A theoretical systematic review of patient involvement in health and social care education.</t>
+  </si>
+  <si>
+    <t>Advances in health sciences education : theory and practice</t>
+  </si>
+  <si>
+    <t>10.1007/s00330-022-08983-1</t>
+  </si>
+  <si>
+    <t>Comparison of lung CT number and airway dimension evaluation capabilities of ultra-high-resolution CT, using different scan modes and reconstruction methods including deep learning reconstruction, with those of multi-detector CT in a QIBA phantom study.</t>
+  </si>
+  <si>
+    <t>10.1002/hbm.26009</t>
+  </si>
+  <si>
+    <t>Voxel-based diktiometry: Combining convolutional neural networks with voxel-based analysis and its application in diffusion tensor imaging for Parkinson's disease.</t>
+  </si>
+  <si>
+    <t>Human brain mapping</t>
+  </si>
+  <si>
+    <t>10.1016/j.ajpath.2022.06.009</t>
+  </si>
+  <si>
+    <t>CONVOLUTIONAL NEURAL NETWORKS FOR THE EVALUATION OF CHRONIC AND INFLAMMATORY LESIONS IN KIDNEY TRANSPLANT BIOPSIES.</t>
+  </si>
+  <si>
+    <t>The American journal of pathology</t>
+  </si>
+  <si>
+    <t>10.1016/j.cmpb.2022.107012</t>
+  </si>
+  <si>
+    <t>Constrained multiple instance learning for ulcerative colitis prediction using histological images.</t>
+  </si>
+  <si>
+    <t>10.1016/j.cmpb.2022.106996</t>
+  </si>
+  <si>
+    <t>A vision transformer based approach for analysis of plasmodium vivax life cycle for malaria prediction using thin blood smear microscopic images.</t>
+  </si>
+  <si>
+    <t>10.1002/mp.15856</t>
+  </si>
+  <si>
+    <t>Deep learning in ultrasound elastography imaging: A review.</t>
+  </si>
+  <si>
+    <t>10.1111/myc.13498</t>
+  </si>
+  <si>
+    <t>Deep Convolutional Neural Networks for Onychomycosis Detection using Microscopic Images with KOH Examination.</t>
+  </si>
+  <si>
+    <t>Mycoses</t>
+  </si>
+  <si>
+    <t>10.1111/odi.14318</t>
+  </si>
+  <si>
+    <t>Noninvasive Diagnosis of Oral Squamous Cell Carcinoma by Multi-level Deep Residual Learning on Optical Coherence Tomography Images.</t>
+  </si>
+  <si>
+    <t>Oral diseases</t>
+  </si>
+  <si>
+    <t>10.1016/j.diii.2022.06.006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep learning-based super-resolution gradient echo imaging of the pancreas: Improvement of image quality and reduction of acquisition time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagn Interv Imaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRI图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估基于深度学习的超分辨率技术对 T1 加权梯度回波采集（容积插值屏气检查；VIBE）在 1.5 T 胰腺 MRI 评估中的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胰腺病变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估肾移植活检中慢性和炎症性病变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾移植活检</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用组织学图像进行溃疡性结肠炎预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溃疡性结肠炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析间日疟原虫生命周期，使用薄血涂片显微图像进行疟疾预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疟疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄血涂片显微图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述：超声弹性成像中的深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声成像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微图像进行甲癣检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲癣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无创诊断口腔鳞状细胞癌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光学相干断层扫描图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口腔鳞状细胞癌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动识别髋关节置换术植入物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X光片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髋关节置换术植入物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 7 量子位超导量子处理器上实现了量子卷积神经网络 (QCNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过问卷调查的方法，评估一款医学剂量师使用的自动轮廓软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大脑图像的颅骨剥离。SynthStrip，这是一种基于学习的快速大脑提取工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势识别，用于在线上肢假肢控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRI 数据集和前列腺癌检测算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对患者参与健康和社会关怀教育的理论系统评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高分辨率 CT 与多排 CT 的肺部 CT 数量和气道尺寸评估能力的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕金森病扩散张量成像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">扩散张量成像 (DTI) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4660,11 +6499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866CBFFE-03AD-46A4-AA9F-318EF5E0B526}">
-  <dimension ref="A1:N429"/>
+  <dimension ref="A1:N623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A394" sqref="A394"/>
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I589" sqref="I589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19192,6 +21031,6348 @@
         <v>1251</v>
       </c>
     </row>
+    <row r="430" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A430" s="3">
+        <v>428</v>
+      </c>
+      <c r="B430" s="3">
+        <v>1</v>
+      </c>
+      <c r="C430" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D430" s="3">
+        <v>35818047</v>
+      </c>
+      <c r="E430" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F430" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G430" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H430" s="5">
+        <v>44752</v>
+      </c>
+      <c r="I430" s="7"/>
+      <c r="J430" s="9"/>
+      <c r="K430" s="7"/>
+      <c r="L430" s="7"/>
+      <c r="M430" s="7"/>
+      <c r="N430" s="7"/>
+    </row>
+    <row r="431" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A431" s="3">
+        <v>429</v>
+      </c>
+      <c r="B431" s="3">
+        <v>2</v>
+      </c>
+      <c r="C431" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D431" s="3">
+        <v>35818034</v>
+      </c>
+      <c r="E431" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F431" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G431" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H431" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I431" s="7"/>
+      <c r="J431" s="9"/>
+      <c r="K431" s="7"/>
+      <c r="L431" s="7"/>
+      <c r="M431" s="7"/>
+      <c r="N431" s="7"/>
+    </row>
+    <row r="432" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A432" s="3">
+        <v>430</v>
+      </c>
+      <c r="B432" s="3">
+        <v>3</v>
+      </c>
+      <c r="C432" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D432" s="3">
+        <v>35817982</v>
+      </c>
+      <c r="E432" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F432" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G432" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H432" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I432" s="7"/>
+      <c r="J432" s="9"/>
+      <c r="K432" s="7"/>
+      <c r="L432" s="7"/>
+      <c r="M432" s="7"/>
+      <c r="N432" s="7"/>
+    </row>
+    <row r="433" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A433" s="3">
+        <v>431</v>
+      </c>
+      <c r="B433" s="3">
+        <v>4</v>
+      </c>
+      <c r="C433" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D433" s="3">
+        <v>35817977</v>
+      </c>
+      <c r="E433" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F433" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G433" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H433" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I433" s="7"/>
+      <c r="J433" s="9"/>
+      <c r="K433" s="7"/>
+      <c r="L433" s="7"/>
+      <c r="M433" s="7"/>
+      <c r="N433" s="7"/>
+    </row>
+    <row r="434" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A434" s="3">
+        <v>432</v>
+      </c>
+      <c r="B434" s="3">
+        <v>5</v>
+      </c>
+      <c r="C434" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D434" s="3">
+        <v>35817932</v>
+      </c>
+      <c r="E434" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F434" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G434" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H434" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I434" s="7"/>
+      <c r="J434" s="9"/>
+      <c r="K434" s="7"/>
+      <c r="L434" s="7"/>
+      <c r="M434" s="7"/>
+      <c r="N434" s="7"/>
+    </row>
+    <row r="435" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A435" s="3">
+        <v>433</v>
+      </c>
+      <c r="B435" s="3">
+        <v>6</v>
+      </c>
+      <c r="C435" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D435" s="3">
+        <v>35817399</v>
+      </c>
+      <c r="E435" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F435" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G435" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H435" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I435" s="7"/>
+      <c r="J435" s="9"/>
+      <c r="K435" s="7"/>
+      <c r="L435" s="7"/>
+      <c r="M435" s="7"/>
+      <c r="N435" s="7"/>
+    </row>
+    <row r="436" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A436" s="3">
+        <v>434</v>
+      </c>
+      <c r="B436" s="3">
+        <v>7</v>
+      </c>
+      <c r="C436" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D436" s="3">
+        <v>35817396</v>
+      </c>
+      <c r="E436" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F436" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G436" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H436" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I436" s="7"/>
+      <c r="J436" s="9"/>
+      <c r="K436" s="7"/>
+      <c r="L436" s="7"/>
+      <c r="M436" s="7"/>
+      <c r="N436" s="7"/>
+    </row>
+    <row r="437" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A437" s="3">
+        <v>435</v>
+      </c>
+      <c r="B437" s="3">
+        <v>8</v>
+      </c>
+      <c r="C437" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D437" s="3">
+        <v>35817322</v>
+      </c>
+      <c r="E437" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F437" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G437" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H437" s="5">
+        <v>44750</v>
+      </c>
+      <c r="I437" s="7"/>
+      <c r="J437" s="9"/>
+      <c r="K437" s="7"/>
+      <c r="L437" s="7"/>
+      <c r="M437" s="7"/>
+      <c r="N437" s="7"/>
+    </row>
+    <row r="438" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A438" s="3">
+        <v>436</v>
+      </c>
+      <c r="B438" s="3">
+        <v>9</v>
+      </c>
+      <c r="C438" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D438" s="3">
+        <v>35816859</v>
+      </c>
+      <c r="E438" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F438" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G438" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H438" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I438" s="7"/>
+      <c r="J438" s="9"/>
+      <c r="K438" s="7"/>
+      <c r="L438" s="7"/>
+      <c r="M438" s="7"/>
+      <c r="N438" s="7"/>
+    </row>
+    <row r="439" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A439" s="3">
+        <v>437</v>
+      </c>
+      <c r="B439" s="3">
+        <v>10</v>
+      </c>
+      <c r="C439" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D439" s="3">
+        <v>35816597</v>
+      </c>
+      <c r="E439" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F439" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G439" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H439" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I439" s="7"/>
+      <c r="J439" s="9"/>
+      <c r="K439" s="7"/>
+      <c r="L439" s="7"/>
+      <c r="M439" s="7"/>
+      <c r="N439" s="7"/>
+    </row>
+    <row r="440" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A440" s="3">
+        <v>438</v>
+      </c>
+      <c r="B440" s="3">
+        <v>11</v>
+      </c>
+      <c r="C440" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D440" s="3">
+        <v>35816588</v>
+      </c>
+      <c r="E440" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F440" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G440" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H440" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I440" s="7"/>
+      <c r="J440" s="9"/>
+      <c r="K440" s="7"/>
+      <c r="L440" s="7"/>
+      <c r="M440" s="7"/>
+      <c r="N440" s="7"/>
+    </row>
+    <row r="441" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A441" s="3">
+        <v>439</v>
+      </c>
+      <c r="B441" s="3">
+        <v>12</v>
+      </c>
+      <c r="C441" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D441" s="3">
+        <v>35816550</v>
+      </c>
+      <c r="E441" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F441" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G441" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H441" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I441" s="7"/>
+      <c r="J441" s="9"/>
+      <c r="K441" s="7"/>
+      <c r="L441" s="7"/>
+      <c r="M441" s="7"/>
+      <c r="N441" s="7"/>
+    </row>
+    <row r="442" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A442" s="3">
+        <v>440</v>
+      </c>
+      <c r="B442" s="3">
+        <v>13</v>
+      </c>
+      <c r="C442" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D442" s="3">
+        <v>35816534</v>
+      </c>
+      <c r="E442" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F442" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G442" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H442" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I442" s="7"/>
+      <c r="J442" s="9"/>
+      <c r="K442" s="7"/>
+      <c r="L442" s="7"/>
+      <c r="M442" s="7"/>
+      <c r="N442" s="7"/>
+    </row>
+    <row r="443" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A443" s="3">
+        <v>441</v>
+      </c>
+      <c r="B443" s="3">
+        <v>14</v>
+      </c>
+      <c r="C443" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D443" s="3">
+        <v>35816533</v>
+      </c>
+      <c r="E443" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F443" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G443" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H443" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I443" s="7"/>
+      <c r="J443" s="9"/>
+      <c r="K443" s="7"/>
+      <c r="L443" s="7"/>
+      <c r="M443" s="7"/>
+      <c r="N443" s="7"/>
+    </row>
+    <row r="444" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A444" s="3">
+        <v>442</v>
+      </c>
+      <c r="B444" s="3">
+        <v>15</v>
+      </c>
+      <c r="C444" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D444" s="3">
+        <v>35816529</v>
+      </c>
+      <c r="E444" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F444" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G444" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="H444" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I444" s="7"/>
+      <c r="J444" s="9"/>
+      <c r="K444" s="7"/>
+      <c r="L444" s="7"/>
+      <c r="M444" s="7"/>
+      <c r="N444" s="7"/>
+    </row>
+    <row r="445" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A445" s="3">
+        <v>443</v>
+      </c>
+      <c r="B445" s="3">
+        <v>16</v>
+      </c>
+      <c r="C445" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D445" s="3">
+        <v>35816516</v>
+      </c>
+      <c r="E445" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F445" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G445" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H445" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I445" s="7"/>
+      <c r="J445" s="9"/>
+      <c r="K445" s="7"/>
+      <c r="L445" s="7"/>
+      <c r="M445" s="7"/>
+      <c r="N445" s="7"/>
+    </row>
+    <row r="446" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A446" s="3">
+        <v>444</v>
+      </c>
+      <c r="B446" s="3">
+        <v>17</v>
+      </c>
+      <c r="C446" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D446" s="3">
+        <v>35816495</v>
+      </c>
+      <c r="E446" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F446" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G446" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="H446" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I446" s="7"/>
+      <c r="J446" s="9"/>
+      <c r="K446" s="7"/>
+      <c r="L446" s="7"/>
+      <c r="M446" s="7"/>
+      <c r="N446" s="7"/>
+    </row>
+    <row r="447" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A447" s="3">
+        <v>445</v>
+      </c>
+      <c r="B447" s="3">
+        <v>18</v>
+      </c>
+      <c r="C447" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D447" s="3">
+        <v>35816418</v>
+      </c>
+      <c r="E447" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F447" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G447" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H447" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I447" s="7"/>
+      <c r="J447" s="9"/>
+      <c r="K447" s="7"/>
+      <c r="L447" s="7"/>
+      <c r="M447" s="7"/>
+      <c r="N447" s="7"/>
+    </row>
+    <row r="448" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A448" s="3">
+        <v>446</v>
+      </c>
+      <c r="B448" s="3">
+        <v>19</v>
+      </c>
+      <c r="C448" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D448" s="3">
+        <v>35816309</v>
+      </c>
+      <c r="E448" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F448" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G448" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H448" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I448" s="7"/>
+      <c r="J448" s="9"/>
+      <c r="K448" s="7"/>
+      <c r="L448" s="7"/>
+      <c r="M448" s="7"/>
+      <c r="N448" s="7"/>
+    </row>
+    <row r="449" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A449" s="3">
+        <v>447</v>
+      </c>
+      <c r="B449" s="3">
+        <v>20</v>
+      </c>
+      <c r="C449" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D449" s="3">
+        <v>35816301</v>
+      </c>
+      <c r="E449" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F449" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G449" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H449" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I449" s="7"/>
+      <c r="J449" s="9"/>
+      <c r="K449" s="7"/>
+      <c r="L449" s="7"/>
+      <c r="M449" s="7"/>
+      <c r="N449" s="7"/>
+    </row>
+    <row r="450" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A450" s="3">
+        <v>448</v>
+      </c>
+      <c r="B450" s="3">
+        <v>21</v>
+      </c>
+      <c r="C450" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D450" s="3">
+        <v>35815927</v>
+      </c>
+      <c r="E450" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F450" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G450" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H450" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I450" s="7"/>
+      <c r="J450" s="9"/>
+      <c r="K450" s="7"/>
+      <c r="L450" s="7"/>
+      <c r="M450" s="7"/>
+      <c r="N450" s="7"/>
+    </row>
+    <row r="451" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A451" s="3">
+        <v>449</v>
+      </c>
+      <c r="B451" s="3">
+        <v>22</v>
+      </c>
+      <c r="C451" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D451" s="3">
+        <v>35815701</v>
+      </c>
+      <c r="E451" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F451" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G451" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H451" s="5">
+        <v>44751</v>
+      </c>
+      <c r="I451" s="7"/>
+      <c r="J451" s="9"/>
+      <c r="K451" s="7"/>
+      <c r="L451" s="7"/>
+      <c r="M451" s="7"/>
+      <c r="N451" s="7"/>
+    </row>
+    <row r="452" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A452" s="3">
+        <v>450</v>
+      </c>
+      <c r="B452" s="3">
+        <v>23</v>
+      </c>
+      <c r="C452" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D452" s="3">
+        <v>35815412</v>
+      </c>
+      <c r="E452" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F452" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G452" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H452" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I452" s="7"/>
+      <c r="J452" s="9"/>
+      <c r="K452" s="7"/>
+      <c r="L452" s="7"/>
+      <c r="M452" s="7"/>
+      <c r="N452" s="7"/>
+    </row>
+    <row r="453" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A453" s="3">
+        <v>451</v>
+      </c>
+      <c r="B453" s="3">
+        <v>24</v>
+      </c>
+      <c r="C453" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D453" s="3">
+        <v>35815295</v>
+      </c>
+      <c r="E453" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F453" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G453" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H453" s="5">
+        <v>44748</v>
+      </c>
+      <c r="I453" s="7"/>
+      <c r="J453" s="9"/>
+      <c r="K453" s="7"/>
+      <c r="L453" s="7"/>
+      <c r="M453" s="7"/>
+      <c r="N453" s="7"/>
+    </row>
+    <row r="454" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A454" s="3">
+        <v>452</v>
+      </c>
+      <c r="B454" s="3">
+        <v>25</v>
+      </c>
+      <c r="C454" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D454" s="3">
+        <v>35815055</v>
+      </c>
+      <c r="E454" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F454" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G454" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H454" s="5">
+        <v>44725</v>
+      </c>
+      <c r="I454" s="7"/>
+      <c r="J454" s="9"/>
+      <c r="K454" s="7"/>
+      <c r="L454" s="7"/>
+      <c r="M454" s="7"/>
+      <c r="N454" s="7"/>
+    </row>
+    <row r="455" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A455" s="3">
+        <v>453</v>
+      </c>
+      <c r="B455" s="3">
+        <v>26</v>
+      </c>
+      <c r="C455" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D455" s="3">
+        <v>35814761</v>
+      </c>
+      <c r="E455" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F455" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G455" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="H455" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I455" s="7"/>
+      <c r="J455" s="9"/>
+      <c r="K455" s="7"/>
+      <c r="L455" s="7"/>
+      <c r="M455" s="7"/>
+      <c r="N455" s="7"/>
+    </row>
+    <row r="456" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A456" s="3">
+        <v>454</v>
+      </c>
+      <c r="B456" s="3">
+        <v>27</v>
+      </c>
+      <c r="C456" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D456" s="3">
+        <v>35814747</v>
+      </c>
+      <c r="E456" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F456" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G456" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="H456" s="5">
+        <v>44734</v>
+      </c>
+      <c r="I456" s="7"/>
+      <c r="J456" s="9"/>
+      <c r="K456" s="7"/>
+      <c r="L456" s="7"/>
+      <c r="M456" s="7"/>
+      <c r="N456" s="7"/>
+    </row>
+    <row r="457" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A457" s="3">
+        <v>455</v>
+      </c>
+      <c r="B457" s="3">
+        <v>28</v>
+      </c>
+      <c r="C457" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D457" s="3">
+        <v>35814744</v>
+      </c>
+      <c r="E457" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F457" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G457" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="H457" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I457" s="7"/>
+      <c r="J457" s="9"/>
+      <c r="K457" s="7"/>
+      <c r="L457" s="7"/>
+      <c r="M457" s="7"/>
+      <c r="N457" s="7"/>
+    </row>
+    <row r="458" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A458" s="3">
+        <v>456</v>
+      </c>
+      <c r="B458" s="3">
+        <v>29</v>
+      </c>
+      <c r="C458" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D458" s="3">
+        <v>35814603</v>
+      </c>
+      <c r="E458" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F458" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G458" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H458" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I458" s="7"/>
+      <c r="J458" s="9"/>
+      <c r="K458" s="7"/>
+      <c r="L458" s="7"/>
+      <c r="M458" s="7"/>
+      <c r="N458" s="7"/>
+    </row>
+    <row r="459" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A459" s="3">
+        <v>457</v>
+      </c>
+      <c r="B459" s="3">
+        <v>30</v>
+      </c>
+      <c r="C459" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D459" s="3">
+        <v>35814601</v>
+      </c>
+      <c r="E459" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F459" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G459" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H459" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I459" s="7"/>
+      <c r="J459" s="9"/>
+      <c r="K459" s="7"/>
+      <c r="L459" s="7"/>
+      <c r="M459" s="7"/>
+      <c r="N459" s="7"/>
+    </row>
+    <row r="460" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A460" s="3">
+        <v>458</v>
+      </c>
+      <c r="B460" s="3">
+        <v>31</v>
+      </c>
+      <c r="C460" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D460" s="3">
+        <v>35814595</v>
+      </c>
+      <c r="E460" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F460" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G460" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H460" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I460" s="7"/>
+      <c r="J460" s="9"/>
+      <c r="K460" s="7"/>
+      <c r="L460" s="7"/>
+      <c r="M460" s="7"/>
+      <c r="N460" s="7"/>
+    </row>
+    <row r="461" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A461" s="3">
+        <v>459</v>
+      </c>
+      <c r="B461" s="3">
+        <v>32</v>
+      </c>
+      <c r="C461" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D461" s="3">
+        <v>35814594</v>
+      </c>
+      <c r="E461" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F461" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G461" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H461" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I461" s="7"/>
+      <c r="J461" s="9"/>
+      <c r="K461" s="7"/>
+      <c r="L461" s="7"/>
+      <c r="M461" s="7"/>
+      <c r="N461" s="7"/>
+    </row>
+    <row r="462" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A462" s="3">
+        <v>460</v>
+      </c>
+      <c r="B462" s="3">
+        <v>33</v>
+      </c>
+      <c r="C462" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D462" s="3">
+        <v>35814591</v>
+      </c>
+      <c r="E462" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F462" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G462" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H462" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I462" s="7"/>
+      <c r="J462" s="9"/>
+      <c r="K462" s="7"/>
+      <c r="L462" s="7"/>
+      <c r="M462" s="7"/>
+      <c r="N462" s="7"/>
+    </row>
+    <row r="463" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A463" s="3">
+        <v>461</v>
+      </c>
+      <c r="B463" s="3">
+        <v>34</v>
+      </c>
+      <c r="C463" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D463" s="3">
+        <v>35814590</v>
+      </c>
+      <c r="E463" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F463" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G463" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H463" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I463" s="7"/>
+      <c r="J463" s="9"/>
+      <c r="K463" s="7"/>
+      <c r="L463" s="7"/>
+      <c r="M463" s="7"/>
+      <c r="N463" s="7"/>
+    </row>
+    <row r="464" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A464" s="3">
+        <v>462</v>
+      </c>
+      <c r="B464" s="3">
+        <v>35</v>
+      </c>
+      <c r="C464" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D464" s="3">
+        <v>35814587</v>
+      </c>
+      <c r="E464" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F464" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G464" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H464" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I464" s="7"/>
+      <c r="J464" s="9"/>
+      <c r="K464" s="7"/>
+      <c r="L464" s="7"/>
+      <c r="M464" s="7"/>
+      <c r="N464" s="7"/>
+    </row>
+    <row r="465" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A465" s="3">
+        <v>463</v>
+      </c>
+      <c r="B465" s="3">
+        <v>36</v>
+      </c>
+      <c r="C465" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D465" s="3">
+        <v>35814577</v>
+      </c>
+      <c r="E465" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F465" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G465" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H465" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I465" s="7"/>
+      <c r="J465" s="9"/>
+      <c r="K465" s="7"/>
+      <c r="L465" s="7"/>
+      <c r="M465" s="7"/>
+      <c r="N465" s="7"/>
+    </row>
+    <row r="466" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A466" s="3">
+        <v>464</v>
+      </c>
+      <c r="B466" s="3">
+        <v>37</v>
+      </c>
+      <c r="C466" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D466" s="3">
+        <v>35814575</v>
+      </c>
+      <c r="E466" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F466" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G466" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H466" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I466" s="7"/>
+      <c r="J466" s="9"/>
+      <c r="K466" s="7"/>
+      <c r="L466" s="7"/>
+      <c r="M466" s="7"/>
+      <c r="N466" s="7"/>
+    </row>
+    <row r="467" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A467" s="3">
+        <v>465</v>
+      </c>
+      <c r="B467" s="3">
+        <v>38</v>
+      </c>
+      <c r="C467" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D467" s="3">
+        <v>35814569</v>
+      </c>
+      <c r="E467" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F467" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G467" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H467" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I467" s="7"/>
+      <c r="J467" s="9"/>
+      <c r="K467" s="7"/>
+      <c r="L467" s="7"/>
+      <c r="M467" s="7"/>
+      <c r="N467" s="7"/>
+    </row>
+    <row r="468" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A468" s="3">
+        <v>466</v>
+      </c>
+      <c r="B468" s="3">
+        <v>39</v>
+      </c>
+      <c r="C468" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D468" s="3">
+        <v>35814567</v>
+      </c>
+      <c r="E468" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F468" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G468" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H468" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I468" s="7"/>
+      <c r="J468" s="9"/>
+      <c r="K468" s="7"/>
+      <c r="L468" s="7"/>
+      <c r="M468" s="7"/>
+      <c r="N468" s="7"/>
+    </row>
+    <row r="469" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A469" s="3">
+        <v>467</v>
+      </c>
+      <c r="B469" s="3">
+        <v>40</v>
+      </c>
+      <c r="C469" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D469" s="3">
+        <v>35814555</v>
+      </c>
+      <c r="E469" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F469" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G469" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H469" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I469" s="7"/>
+      <c r="J469" s="9"/>
+      <c r="K469" s="7"/>
+      <c r="L469" s="7"/>
+      <c r="M469" s="7"/>
+      <c r="N469" s="7"/>
+    </row>
+    <row r="470" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A470" s="3">
+        <v>468</v>
+      </c>
+      <c r="B470" s="3">
+        <v>41</v>
+      </c>
+      <c r="C470" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D470" s="3">
+        <v>35814554</v>
+      </c>
+      <c r="E470" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F470" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G470" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H470" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I470" s="7"/>
+      <c r="J470" s="9"/>
+      <c r="K470" s="7"/>
+      <c r="L470" s="7"/>
+      <c r="M470" s="7"/>
+      <c r="N470" s="7"/>
+    </row>
+    <row r="471" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A471" s="3">
+        <v>469</v>
+      </c>
+      <c r="B471" s="3">
+        <v>42</v>
+      </c>
+      <c r="C471" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D471" s="3">
+        <v>35814550</v>
+      </c>
+      <c r="E471" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F471" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G471" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H471" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I471" s="7"/>
+      <c r="J471" s="9"/>
+      <c r="K471" s="7"/>
+      <c r="L471" s="7"/>
+      <c r="M471" s="7"/>
+      <c r="N471" s="7"/>
+    </row>
+    <row r="472" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A472" s="3">
+        <v>470</v>
+      </c>
+      <c r="B472" s="3">
+        <v>43</v>
+      </c>
+      <c r="C472" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D472" s="3">
+        <v>35814548</v>
+      </c>
+      <c r="E472" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F472" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G472" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H472" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I472" s="7"/>
+      <c r="J472" s="9"/>
+      <c r="K472" s="7"/>
+      <c r="L472" s="7"/>
+      <c r="M472" s="7"/>
+      <c r="N472" s="7"/>
+    </row>
+    <row r="473" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A473" s="3">
+        <v>471</v>
+      </c>
+      <c r="B473" s="3">
+        <v>44</v>
+      </c>
+      <c r="C473" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D473" s="3">
+        <v>35814543</v>
+      </c>
+      <c r="E473" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F473" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G473" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="H473" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I473" s="7"/>
+      <c r="J473" s="9"/>
+      <c r="K473" s="7"/>
+      <c r="L473" s="7"/>
+      <c r="M473" s="7"/>
+      <c r="N473" s="7"/>
+    </row>
+    <row r="474" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A474" s="3">
+        <v>472</v>
+      </c>
+      <c r="B474" s="3">
+        <v>45</v>
+      </c>
+      <c r="C474" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D474" s="3">
+        <v>35814519</v>
+      </c>
+      <c r="E474" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F474" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G474" s="7" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H474" s="5">
+        <v>44641</v>
+      </c>
+      <c r="I474" s="7"/>
+      <c r="J474" s="9"/>
+      <c r="K474" s="7"/>
+      <c r="L474" s="7"/>
+      <c r="M474" s="7"/>
+      <c r="N474" s="7"/>
+    </row>
+    <row r="475" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A475" s="3">
+        <v>473</v>
+      </c>
+      <c r="B475" s="3">
+        <v>46</v>
+      </c>
+      <c r="C475" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D475" s="3">
+        <v>35814415</v>
+      </c>
+      <c r="E475" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F475" s="7" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G475" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H475" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I475" s="7"/>
+      <c r="J475" s="9"/>
+      <c r="K475" s="7"/>
+      <c r="L475" s="7"/>
+      <c r="M475" s="7"/>
+      <c r="N475" s="7"/>
+    </row>
+    <row r="476" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A476" s="3">
+        <v>474</v>
+      </c>
+      <c r="B476" s="3">
+        <v>47</v>
+      </c>
+      <c r="C476" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D476" s="3">
+        <v>35814412</v>
+      </c>
+      <c r="E476" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F476" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G476" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H476" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I476" s="7"/>
+      <c r="J476" s="9"/>
+      <c r="K476" s="7"/>
+      <c r="L476" s="7"/>
+      <c r="M476" s="7"/>
+      <c r="N476" s="7"/>
+    </row>
+    <row r="477" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A477" s="3">
+        <v>475</v>
+      </c>
+      <c r="B477" s="3">
+        <v>48</v>
+      </c>
+      <c r="C477" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D477" s="3">
+        <v>35814362</v>
+      </c>
+      <c r="E477" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F477" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G477" s="7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H477" s="5">
+        <v>44736</v>
+      </c>
+      <c r="I477" s="7"/>
+      <c r="J477" s="9"/>
+      <c r="K477" s="7"/>
+      <c r="L477" s="7"/>
+      <c r="M477" s="7"/>
+      <c r="N477" s="7"/>
+    </row>
+    <row r="478" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A478" s="3">
+        <v>476</v>
+      </c>
+      <c r="B478" s="3">
+        <v>49</v>
+      </c>
+      <c r="C478" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D478" s="3">
+        <v>35814112</v>
+      </c>
+      <c r="E478" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F478" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G478" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H478" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I478" s="7"/>
+      <c r="J478" s="9"/>
+      <c r="K478" s="7"/>
+      <c r="L478" s="7"/>
+      <c r="M478" s="7"/>
+      <c r="N478" s="7"/>
+    </row>
+    <row r="479" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A479" s="3">
+        <v>477</v>
+      </c>
+      <c r="B479" s="3">
+        <v>50</v>
+      </c>
+      <c r="C479" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D479" s="3">
+        <v>35814096</v>
+      </c>
+      <c r="E479" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F479" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G479" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H479" s="5">
+        <v>44721</v>
+      </c>
+      <c r="I479" s="7"/>
+      <c r="J479" s="9"/>
+      <c r="K479" s="7"/>
+      <c r="L479" s="7"/>
+      <c r="M479" s="7"/>
+      <c r="N479" s="7"/>
+    </row>
+    <row r="480" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A480" s="3">
+        <v>478</v>
+      </c>
+      <c r="B480" s="3">
+        <v>51</v>
+      </c>
+      <c r="C480" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D480" s="3">
+        <v>35814087</v>
+      </c>
+      <c r="E480" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F480" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G480" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H480" s="5">
+        <v>44734</v>
+      </c>
+      <c r="I480" s="7"/>
+      <c r="J480" s="9"/>
+      <c r="K480" s="7"/>
+      <c r="L480" s="7"/>
+      <c r="M480" s="7"/>
+      <c r="N480" s="7"/>
+    </row>
+    <row r="481" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A481" s="3">
+        <v>479</v>
+      </c>
+      <c r="B481" s="3">
+        <v>52</v>
+      </c>
+      <c r="C481" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D481" s="3">
+        <v>35813983</v>
+      </c>
+      <c r="E481" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F481" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G481" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H481" s="5">
+        <v>44576</v>
+      </c>
+      <c r="I481" s="7"/>
+      <c r="J481" s="9"/>
+      <c r="K481" s="7"/>
+      <c r="L481" s="7"/>
+      <c r="M481" s="7"/>
+      <c r="N481" s="7"/>
+    </row>
+    <row r="482" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A482" s="3">
+        <v>480</v>
+      </c>
+      <c r="B482" s="3">
+        <v>53</v>
+      </c>
+      <c r="C482" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D482" s="3">
+        <v>35813896</v>
+      </c>
+      <c r="E482" s="7"/>
+      <c r="F482" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G482" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H482" s="5">
+        <v>44713</v>
+      </c>
+      <c r="I482" s="7"/>
+      <c r="J482" s="9"/>
+      <c r="K482" s="7"/>
+      <c r="L482" s="7"/>
+      <c r="M482" s="7"/>
+      <c r="N482" s="7"/>
+    </row>
+    <row r="483" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A483" s="3">
+        <v>481</v>
+      </c>
+      <c r="B483" s="3">
+        <v>54</v>
+      </c>
+      <c r="C483" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D483" s="3">
+        <v>35813856</v>
+      </c>
+      <c r="E483" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F483" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G483" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H483" s="5">
+        <v>44655</v>
+      </c>
+      <c r="I483" s="7"/>
+      <c r="J483" s="9"/>
+      <c r="K483" s="7"/>
+      <c r="L483" s="7"/>
+      <c r="M483" s="7"/>
+      <c r="N483" s="7"/>
+    </row>
+    <row r="484" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A484" s="3">
+        <v>482</v>
+      </c>
+      <c r="B484" s="3">
+        <v>55</v>
+      </c>
+      <c r="C484" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D484" s="3">
+        <v>35813855</v>
+      </c>
+      <c r="E484" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F484" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="G484" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H484" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I484" s="7"/>
+      <c r="J484" s="9"/>
+      <c r="K484" s="7"/>
+      <c r="L484" s="7"/>
+      <c r="M484" s="7"/>
+      <c r="N484" s="7"/>
+    </row>
+    <row r="485" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A485" s="3">
+        <v>483</v>
+      </c>
+      <c r="B485" s="3">
+        <v>56</v>
+      </c>
+      <c r="C485" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D485" s="3">
+        <v>35813809</v>
+      </c>
+      <c r="E485" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F485" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G485" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H485" s="5">
+        <v>44664</v>
+      </c>
+      <c r="I485" s="7"/>
+      <c r="J485" s="9"/>
+      <c r="K485" s="7"/>
+      <c r="L485" s="7"/>
+      <c r="M485" s="7"/>
+      <c r="N485" s="7"/>
+    </row>
+    <row r="486" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A486" s="3">
+        <v>484</v>
+      </c>
+      <c r="B486" s="3">
+        <v>57</v>
+      </c>
+      <c r="C486" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D486" s="3">
+        <v>35813426</v>
+      </c>
+      <c r="E486" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F486" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="G486" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H486" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I486" s="7"/>
+      <c r="J486" s="9"/>
+      <c r="K486" s="7"/>
+      <c r="L486" s="7"/>
+      <c r="M486" s="7"/>
+      <c r="N486" s="7"/>
+    </row>
+    <row r="487" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A487" s="3">
+        <v>485</v>
+      </c>
+      <c r="B487" s="3">
+        <v>58</v>
+      </c>
+      <c r="C487" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D487" s="3">
+        <v>35813413</v>
+      </c>
+      <c r="E487" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F487" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G487" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H487" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I487" s="7"/>
+      <c r="J487" s="9"/>
+      <c r="K487" s="7"/>
+      <c r="L487" s="7"/>
+      <c r="M487" s="7"/>
+      <c r="N487" s="7"/>
+    </row>
+    <row r="488" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A488" s="3">
+        <v>486</v>
+      </c>
+      <c r="B488" s="3">
+        <v>59</v>
+      </c>
+      <c r="C488" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D488" s="3">
+        <v>35813325</v>
+      </c>
+      <c r="E488" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F488" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G488" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H488" s="5"/>
+      <c r="I488" s="7"/>
+      <c r="J488" s="9"/>
+      <c r="K488" s="7"/>
+      <c r="L488" s="7"/>
+      <c r="M488" s="7"/>
+      <c r="N488" s="7"/>
+    </row>
+    <row r="489" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A489" s="3">
+        <v>487</v>
+      </c>
+      <c r="B489" s="3">
+        <v>60</v>
+      </c>
+      <c r="C489" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D489" s="3">
+        <v>35813300</v>
+      </c>
+      <c r="E489" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F489" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G489" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H489" s="5">
+        <v>44725</v>
+      </c>
+      <c r="I489" s="7"/>
+      <c r="J489" s="9"/>
+      <c r="K489" s="7"/>
+      <c r="L489" s="7"/>
+      <c r="M489" s="7"/>
+      <c r="N489" s="7"/>
+    </row>
+    <row r="490" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A490" s="3">
+        <v>488</v>
+      </c>
+      <c r="B490" s="3">
+        <v>61</v>
+      </c>
+      <c r="C490" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D490" s="3">
+        <v>35813246</v>
+      </c>
+      <c r="E490" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F490" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G490" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H490" s="5">
+        <v>44655</v>
+      </c>
+      <c r="I490" s="7"/>
+      <c r="J490" s="9"/>
+      <c r="K490" s="7"/>
+      <c r="L490" s="7"/>
+      <c r="M490" s="7"/>
+      <c r="N490" s="7"/>
+    </row>
+    <row r="491" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A491" s="3">
+        <v>489</v>
+      </c>
+      <c r="B491" s="3">
+        <v>62</v>
+      </c>
+      <c r="C491" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D491" s="3">
+        <v>35813093</v>
+      </c>
+      <c r="E491" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F491" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G491" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H491" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I491" s="7"/>
+      <c r="J491" s="9"/>
+      <c r="K491" s="7"/>
+      <c r="L491" s="7"/>
+      <c r="M491" s="7"/>
+      <c r="N491" s="7"/>
+    </row>
+    <row r="492" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A492" s="3">
+        <v>490</v>
+      </c>
+      <c r="B492" s="3">
+        <v>63</v>
+      </c>
+      <c r="C492" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D492" s="3">
+        <v>35812486</v>
+      </c>
+      <c r="E492" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F492" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G492" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H492" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I492" s="7"/>
+      <c r="J492" s="9"/>
+      <c r="K492" s="7"/>
+      <c r="L492" s="7"/>
+      <c r="M492" s="7"/>
+      <c r="N492" s="7"/>
+    </row>
+    <row r="493" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A493" s="3">
+        <v>491</v>
+      </c>
+      <c r="B493" s="3">
+        <v>64</v>
+      </c>
+      <c r="C493" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D493" s="3">
+        <v>35812048</v>
+      </c>
+      <c r="E493" s="7"/>
+      <c r="F493" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G493" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H493" s="5">
+        <v>44727</v>
+      </c>
+      <c r="I493" s="7"/>
+      <c r="J493" s="9"/>
+      <c r="K493" s="7"/>
+      <c r="L493" s="7"/>
+      <c r="M493" s="7"/>
+      <c r="N493" s="7"/>
+    </row>
+    <row r="494" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A494" s="3">
+        <v>492</v>
+      </c>
+      <c r="B494" s="3">
+        <v>65</v>
+      </c>
+      <c r="C494" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D494" s="3">
+        <v>35811857</v>
+      </c>
+      <c r="E494" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F494" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G494" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H494" s="5">
+        <v>44729</v>
+      </c>
+      <c r="I494" s="7"/>
+      <c r="J494" s="9"/>
+      <c r="K494" s="7"/>
+      <c r="L494" s="7"/>
+      <c r="M494" s="7"/>
+      <c r="N494" s="7"/>
+    </row>
+    <row r="495" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A495" s="3">
+        <v>493</v>
+      </c>
+      <c r="B495" s="3">
+        <v>66</v>
+      </c>
+      <c r="C495" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D495" s="3">
+        <v>35811730</v>
+      </c>
+      <c r="E495" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F495" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G495" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H495" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I495" s="7"/>
+      <c r="J495" s="9"/>
+      <c r="K495" s="7"/>
+      <c r="L495" s="7"/>
+      <c r="M495" s="7"/>
+      <c r="N495" s="7"/>
+    </row>
+    <row r="496" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A496" s="3">
+        <v>494</v>
+      </c>
+      <c r="B496" s="3">
+        <v>67</v>
+      </c>
+      <c r="C496" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D496" s="3">
+        <v>35811691</v>
+      </c>
+      <c r="E496" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F496" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H496" s="5">
+        <v>44736</v>
+      </c>
+      <c r="I496" s="7"/>
+      <c r="J496" s="9"/>
+      <c r="K496" s="7"/>
+      <c r="L496" s="7"/>
+      <c r="M496" s="7"/>
+      <c r="N496" s="7"/>
+    </row>
+    <row r="497" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A497" s="3">
+        <v>495</v>
+      </c>
+      <c r="B497" s="3">
+        <v>68</v>
+      </c>
+      <c r="C497" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D497" s="3">
+        <v>35811607</v>
+      </c>
+      <c r="E497" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F497" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="H497" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I497" s="7"/>
+      <c r="J497" s="9"/>
+      <c r="K497" s="7"/>
+      <c r="L497" s="7"/>
+      <c r="M497" s="7"/>
+      <c r="N497" s="7"/>
+    </row>
+    <row r="498" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A498" s="3">
+        <v>496</v>
+      </c>
+      <c r="B498" s="3">
+        <v>69</v>
+      </c>
+      <c r="C498" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D498" s="3">
+        <v>35811586</v>
+      </c>
+      <c r="E498" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F498" s="7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G498" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H498" s="5">
+        <v>44678</v>
+      </c>
+      <c r="I498" s="7"/>
+      <c r="J498" s="9"/>
+      <c r="K498" s="7"/>
+      <c r="L498" s="7"/>
+      <c r="M498" s="7"/>
+      <c r="N498" s="7"/>
+    </row>
+    <row r="499" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A499" s="3">
+        <v>497</v>
+      </c>
+      <c r="B499" s="3">
+        <v>70</v>
+      </c>
+      <c r="C499" s="5">
+        <v>44754</v>
+      </c>
+      <c r="D499" s="3">
+        <v>35811397</v>
+      </c>
+      <c r="E499" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F499" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G499" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="H499" s="5">
+        <v>44752</v>
+      </c>
+      <c r="I499" s="7"/>
+      <c r="J499" s="9"/>
+      <c r="K499" s="7"/>
+      <c r="L499" s="7"/>
+      <c r="M499" s="7"/>
+      <c r="N499" s="7"/>
+    </row>
+    <row r="500" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A500" s="3">
+        <v>498</v>
+      </c>
+      <c r="B500" s="3">
+        <v>1</v>
+      </c>
+      <c r="C500" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D500" s="3">
+        <v>35820014</v>
+      </c>
+      <c r="E500" s="7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F500" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G500" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="H500" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I500" s="7"/>
+      <c r="J500" s="9"/>
+      <c r="K500" s="7"/>
+      <c r="L500" s="7"/>
+      <c r="M500" s="7"/>
+      <c r="N500" s="7"/>
+    </row>
+    <row r="501" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A501" s="3">
+        <v>499</v>
+      </c>
+      <c r="B501" s="3">
+        <v>2</v>
+      </c>
+      <c r="C501" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D501" s="3">
+        <v>35820006</v>
+      </c>
+      <c r="E501" s="7" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F501" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G501" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H501" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I501" s="7"/>
+      <c r="J501" s="9"/>
+      <c r="K501" s="7"/>
+      <c r="L501" s="7"/>
+      <c r="M501" s="7"/>
+      <c r="N501" s="7"/>
+    </row>
+    <row r="502" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A502" s="3">
+        <v>500</v>
+      </c>
+      <c r="B502" s="3">
+        <v>3</v>
+      </c>
+      <c r="C502" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D502" s="3">
+        <v>35820003</v>
+      </c>
+      <c r="E502" s="7" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F502" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G502" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H502" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I502" s="7"/>
+      <c r="J502" s="9"/>
+      <c r="K502" s="7"/>
+      <c r="L502" s="7"/>
+      <c r="M502" s="7"/>
+      <c r="N502" s="7"/>
+    </row>
+    <row r="503" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A503" s="3">
+        <v>501</v>
+      </c>
+      <c r="B503" s="3">
+        <v>4</v>
+      </c>
+      <c r="C503" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D503" s="3">
+        <v>35820002</v>
+      </c>
+      <c r="E503" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F503" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G503" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H503" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I503" s="7"/>
+      <c r="J503" s="9"/>
+      <c r="K503" s="7"/>
+      <c r="L503" s="7"/>
+      <c r="M503" s="7"/>
+      <c r="N503" s="7"/>
+    </row>
+    <row r="504" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A504" s="3">
+        <v>502</v>
+      </c>
+      <c r="B504" s="3">
+        <v>5</v>
+      </c>
+      <c r="C504" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D504" s="3">
+        <v>35819902</v>
+      </c>
+      <c r="E504" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F504" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G504" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H504" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I504" s="7"/>
+      <c r="J504" s="9"/>
+      <c r="K504" s="7"/>
+      <c r="L504" s="7"/>
+      <c r="M504" s="7"/>
+      <c r="N504" s="7"/>
+    </row>
+    <row r="505" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A505" s="3">
+        <v>503</v>
+      </c>
+      <c r="B505" s="3">
+        <v>6</v>
+      </c>
+      <c r="C505" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D505" s="3">
+        <v>35819899</v>
+      </c>
+      <c r="E505" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F505" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G505" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="H505" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I505" s="7"/>
+      <c r="J505" s="9"/>
+      <c r="K505" s="7"/>
+      <c r="L505" s="7"/>
+      <c r="M505" s="7"/>
+      <c r="N505" s="7"/>
+    </row>
+    <row r="506" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A506" s="3">
+        <v>504</v>
+      </c>
+      <c r="B506" s="3">
+        <v>7</v>
+      </c>
+      <c r="C506" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D506" s="3">
+        <v>35819826</v>
+      </c>
+      <c r="E506" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F506" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G506" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H506" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I506" s="7"/>
+      <c r="J506" s="9"/>
+      <c r="K506" s="7"/>
+      <c r="L506" s="7"/>
+      <c r="M506" s="7"/>
+      <c r="N506" s="7"/>
+    </row>
+    <row r="507" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A507" s="3">
+        <v>505</v>
+      </c>
+      <c r="B507" s="3">
+        <v>8</v>
+      </c>
+      <c r="C507" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D507" s="3">
+        <v>35819579</v>
+      </c>
+      <c r="E507" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F507" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G507" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H507" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I507" s="7"/>
+      <c r="J507" s="9"/>
+      <c r="K507" s="7"/>
+      <c r="L507" s="7"/>
+      <c r="M507" s="7"/>
+      <c r="N507" s="7"/>
+    </row>
+    <row r="508" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A508" s="3">
+        <v>506</v>
+      </c>
+      <c r="B508" s="3">
+        <v>9</v>
+      </c>
+      <c r="C508" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D508" s="3">
+        <v>35819537</v>
+      </c>
+      <c r="E508" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F508" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G508" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H508" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I508" s="7"/>
+      <c r="J508" s="9"/>
+      <c r="K508" s="7"/>
+      <c r="L508" s="7"/>
+      <c r="M508" s="7"/>
+      <c r="N508" s="7"/>
+    </row>
+    <row r="509" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A509" s="3">
+        <v>507</v>
+      </c>
+      <c r="B509" s="3">
+        <v>10</v>
+      </c>
+      <c r="C509" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D509" s="3">
+        <v>35819497</v>
+      </c>
+      <c r="E509" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F509" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G509" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H509" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I509" s="7"/>
+      <c r="J509" s="9"/>
+      <c r="K509" s="7"/>
+      <c r="L509" s="7"/>
+      <c r="M509" s="7"/>
+      <c r="N509" s="7"/>
+    </row>
+    <row r="510" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A510" s="3">
+        <v>508</v>
+      </c>
+      <c r="B510" s="3">
+        <v>11</v>
+      </c>
+      <c r="C510" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D510" s="3">
+        <v>35818516</v>
+      </c>
+      <c r="E510" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F510" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G510" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H510" s="5">
+        <v>44749</v>
+      </c>
+      <c r="I510" s="7"/>
+      <c r="J510" s="9"/>
+      <c r="K510" s="7"/>
+      <c r="L510" s="7"/>
+      <c r="M510" s="7"/>
+      <c r="N510" s="7"/>
+    </row>
+    <row r="511" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A511" s="3">
+        <v>509</v>
+      </c>
+      <c r="B511" s="3">
+        <v>12</v>
+      </c>
+      <c r="C511" s="5">
+        <v>44755</v>
+      </c>
+      <c r="D511" s="3">
+        <v>35818367</v>
+      </c>
+      <c r="E511" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F511" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G511" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H511" s="5">
+        <v>44749</v>
+      </c>
+      <c r="I511" s="7"/>
+      <c r="J511" s="9"/>
+      <c r="K511" s="7"/>
+      <c r="L511" s="7"/>
+      <c r="M511" s="7"/>
+      <c r="N511" s="7"/>
+    </row>
+    <row r="512" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A512" s="3">
+        <v>510</v>
+      </c>
+      <c r="B512" s="3">
+        <v>1</v>
+      </c>
+      <c r="C512" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D512" s="3">
+        <v>35831808</v>
+      </c>
+      <c r="E512" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F512" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G512" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H512" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I512" s="7"/>
+      <c r="J512" s="9"/>
+      <c r="K512" s="7"/>
+      <c r="L512" s="7"/>
+      <c r="M512" s="7"/>
+      <c r="N512" s="7"/>
+    </row>
+    <row r="513" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A513" s="3">
+        <v>511</v>
+      </c>
+      <c r="B513" s="3">
+        <v>2</v>
+      </c>
+      <c r="C513" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D513" s="3">
+        <v>35831628</v>
+      </c>
+      <c r="E513" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F513" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G513" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H513" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I513" s="7"/>
+      <c r="J513" s="9"/>
+      <c r="K513" s="7"/>
+      <c r="L513" s="7"/>
+      <c r="M513" s="7"/>
+      <c r="N513" s="7"/>
+    </row>
+    <row r="514" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A514" s="3">
+        <v>512</v>
+      </c>
+      <c r="B514" s="3">
+        <v>3</v>
+      </c>
+      <c r="C514" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D514" s="3">
+        <v>35831474</v>
+      </c>
+      <c r="E514" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F514" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G514" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H514" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I514" s="7"/>
+      <c r="J514" s="9"/>
+      <c r="K514" s="7"/>
+      <c r="L514" s="7"/>
+      <c r="M514" s="7"/>
+      <c r="N514" s="7"/>
+    </row>
+    <row r="515" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A515" s="3">
+        <v>513</v>
+      </c>
+      <c r="B515" s="3">
+        <v>4</v>
+      </c>
+      <c r="C515" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D515" s="3">
+        <v>35831401</v>
+      </c>
+      <c r="E515" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F515" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G515" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H515" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I515" s="7"/>
+      <c r="J515" s="9"/>
+      <c r="K515" s="7"/>
+      <c r="L515" s="7"/>
+      <c r="M515" s="7"/>
+      <c r="N515" s="7"/>
+    </row>
+    <row r="516" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A516" s="3">
+        <v>514</v>
+      </c>
+      <c r="B516" s="3">
+        <v>5</v>
+      </c>
+      <c r="C516" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D516" s="3">
+        <v>35831393</v>
+      </c>
+      <c r="E516" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F516" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G516" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H516" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I516" s="7"/>
+      <c r="J516" s="9"/>
+      <c r="K516" s="7"/>
+      <c r="L516" s="7"/>
+      <c r="M516" s="7"/>
+      <c r="N516" s="7"/>
+    </row>
+    <row r="517" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A517" s="3">
+        <v>515</v>
+      </c>
+      <c r="B517" s="3">
+        <v>6</v>
+      </c>
+      <c r="C517" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D517" s="3">
+        <v>35831370</v>
+      </c>
+      <c r="E517" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F517" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G517" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="H517" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I517" s="7"/>
+      <c r="J517" s="9"/>
+      <c r="K517" s="7"/>
+      <c r="L517" s="7"/>
+      <c r="M517" s="7"/>
+      <c r="N517" s="7"/>
+    </row>
+    <row r="518" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A518" s="3">
+        <v>516</v>
+      </c>
+      <c r="B518" s="3">
+        <v>7</v>
+      </c>
+      <c r="C518" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D518" s="3">
+        <v>35831342</v>
+      </c>
+      <c r="E518" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F518" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G518" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H518" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I518" s="7"/>
+      <c r="J518" s="9"/>
+      <c r="K518" s="7"/>
+      <c r="L518" s="7"/>
+      <c r="M518" s="7"/>
+      <c r="N518" s="7"/>
+    </row>
+    <row r="519" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A519" s="3">
+        <v>517</v>
+      </c>
+      <c r="B519" s="3">
+        <v>8</v>
+      </c>
+      <c r="C519" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D519" s="3">
+        <v>35831323</v>
+      </c>
+      <c r="E519" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F519" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G519" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="H519" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I519" s="7"/>
+      <c r="J519" s="9"/>
+      <c r="K519" s="7"/>
+      <c r="L519" s="7"/>
+      <c r="M519" s="7"/>
+      <c r="N519" s="7"/>
+    </row>
+    <row r="520" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A520" s="3">
+        <v>518</v>
+      </c>
+      <c r="B520" s="3">
+        <v>9</v>
+      </c>
+      <c r="C520" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D520" s="3">
+        <v>35830870</v>
+      </c>
+      <c r="E520" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F520" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G520" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H520" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I520" s="7"/>
+      <c r="J520" s="9"/>
+      <c r="K520" s="7"/>
+      <c r="L520" s="7"/>
+      <c r="M520" s="7"/>
+      <c r="N520" s="7"/>
+    </row>
+    <row r="521" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A521" s="3">
+        <v>519</v>
+      </c>
+      <c r="B521" s="3">
+        <v>10</v>
+      </c>
+      <c r="C521" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D521" s="3">
+        <v>35830864</v>
+      </c>
+      <c r="E521" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F521" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G521" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H521" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I521" s="7"/>
+      <c r="J521" s="9"/>
+      <c r="K521" s="7"/>
+      <c r="L521" s="7"/>
+      <c r="M521" s="7"/>
+      <c r="N521" s="7"/>
+    </row>
+    <row r="522" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A522" s="3">
+        <v>520</v>
+      </c>
+      <c r="B522" s="3">
+        <v>11</v>
+      </c>
+      <c r="C522" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D522" s="3">
+        <v>35830832</v>
+      </c>
+      <c r="E522" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F522" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G522" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H522" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I522" s="7"/>
+      <c r="J522" s="9"/>
+      <c r="K522" s="7"/>
+      <c r="L522" s="7"/>
+      <c r="M522" s="7"/>
+      <c r="N522" s="7"/>
+    </row>
+    <row r="523" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A523" s="3">
+        <v>521</v>
+      </c>
+      <c r="B523" s="3">
+        <v>12</v>
+      </c>
+      <c r="C523" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D523" s="3">
+        <v>35830763</v>
+      </c>
+      <c r="E523" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F523" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G523" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H523" s="5">
+        <v>44752</v>
+      </c>
+      <c r="I523" s="7"/>
+      <c r="J523" s="9"/>
+      <c r="K523" s="7"/>
+      <c r="L523" s="7"/>
+      <c r="M523" s="7"/>
+      <c r="N523" s="7"/>
+    </row>
+    <row r="524" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A524" s="3">
+        <v>522</v>
+      </c>
+      <c r="B524" s="3">
+        <v>13</v>
+      </c>
+      <c r="C524" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D524" s="3">
+        <v>35830745</v>
+      </c>
+      <c r="E524" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F524" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G524" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="H524" s="5">
+        <v>44737</v>
+      </c>
+      <c r="I524" s="7"/>
+      <c r="J524" s="9"/>
+      <c r="K524" s="7"/>
+      <c r="L524" s="7"/>
+      <c r="M524" s="7"/>
+      <c r="N524" s="7"/>
+    </row>
+    <row r="525" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A525" s="3">
+        <v>523</v>
+      </c>
+      <c r="B525" s="3">
+        <v>14</v>
+      </c>
+      <c r="C525" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D525" s="3">
+        <v>35830434</v>
+      </c>
+      <c r="E525" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F525" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G525" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="H525" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I525" s="7"/>
+      <c r="J525" s="9"/>
+      <c r="K525" s="7"/>
+      <c r="L525" s="7"/>
+      <c r="M525" s="7"/>
+      <c r="N525" s="7"/>
+    </row>
+    <row r="526" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A526" s="3">
+        <v>524</v>
+      </c>
+      <c r="B526" s="3">
+        <v>15</v>
+      </c>
+      <c r="C526" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D526" s="3">
+        <v>35830404</v>
+      </c>
+      <c r="E526" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F526" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G526" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H526" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I526" s="7"/>
+      <c r="J526" s="9"/>
+      <c r="K526" s="7"/>
+      <c r="L526" s="7"/>
+      <c r="M526" s="7"/>
+      <c r="N526" s="7"/>
+    </row>
+    <row r="527" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A527" s="3">
+        <v>525</v>
+      </c>
+      <c r="B527" s="3">
+        <v>16</v>
+      </c>
+      <c r="C527" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D527" s="3">
+        <v>35830396</v>
+      </c>
+      <c r="E527" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F527" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G527" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="H527" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I527" s="7"/>
+      <c r="J527" s="9"/>
+      <c r="K527" s="7"/>
+      <c r="L527" s="7"/>
+      <c r="M527" s="7"/>
+      <c r="N527" s="7"/>
+    </row>
+    <row r="528" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A528" s="3">
+        <v>526</v>
+      </c>
+      <c r="B528" s="3">
+        <v>17</v>
+      </c>
+      <c r="C528" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D528" s="3">
+        <v>35829785</v>
+      </c>
+      <c r="E528" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F528" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G528" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="H528" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I528" s="7"/>
+      <c r="J528" s="9"/>
+      <c r="K528" s="7"/>
+      <c r="L528" s="7"/>
+      <c r="M528" s="7"/>
+      <c r="N528" s="7"/>
+    </row>
+    <row r="529" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A529" s="3">
+        <v>527</v>
+      </c>
+      <c r="B529" s="3">
+        <v>18</v>
+      </c>
+      <c r="C529" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D529" s="3">
+        <v>35822949</v>
+      </c>
+      <c r="E529" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F529" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H529" s="5"/>
+      <c r="I529" s="7"/>
+      <c r="J529" s="9"/>
+      <c r="K529" s="7"/>
+      <c r="L529" s="7"/>
+      <c r="M529" s="7"/>
+      <c r="N529" s="7"/>
+    </row>
+    <row r="530" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A530" s="3">
+        <v>528</v>
+      </c>
+      <c r="B530" s="3">
+        <v>19</v>
+      </c>
+      <c r="C530" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D530" s="3">
+        <v>35822452</v>
+      </c>
+      <c r="E530" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F530" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="H530" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I530" s="7"/>
+      <c r="J530" s="9"/>
+      <c r="K530" s="7"/>
+      <c r="L530" s="7"/>
+      <c r="M530" s="7"/>
+      <c r="N530" s="7"/>
+    </row>
+    <row r="531" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A531" s="3">
+        <v>529</v>
+      </c>
+      <c r="B531" s="3">
+        <v>20</v>
+      </c>
+      <c r="C531" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D531" s="3">
+        <v>35822355</v>
+      </c>
+      <c r="E531" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F531" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G531" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H531" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I531" s="7"/>
+      <c r="J531" s="9"/>
+      <c r="K531" s="7"/>
+      <c r="L531" s="7"/>
+      <c r="M531" s="7"/>
+      <c r="N531" s="7"/>
+    </row>
+    <row r="532" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A532" s="3">
+        <v>530</v>
+      </c>
+      <c r="B532" s="3">
+        <v>21</v>
+      </c>
+      <c r="C532" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D532" s="3">
+        <v>35822269</v>
+      </c>
+      <c r="E532" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F532" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G532" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H532" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I532" s="7"/>
+      <c r="J532" s="9"/>
+      <c r="K532" s="7"/>
+      <c r="L532" s="7"/>
+      <c r="M532" s="7"/>
+      <c r="N532" s="7"/>
+    </row>
+    <row r="533" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A533" s="3">
+        <v>531</v>
+      </c>
+      <c r="B533" s="3">
+        <v>22</v>
+      </c>
+      <c r="C533" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D533" s="3">
+        <v>35822205</v>
+      </c>
+      <c r="E533" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F533" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G533" s="7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H533" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I533" s="7"/>
+      <c r="J533" s="9"/>
+      <c r="K533" s="7"/>
+      <c r="L533" s="7"/>
+      <c r="M533" s="7"/>
+      <c r="N533" s="7"/>
+    </row>
+    <row r="534" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A534" s="3">
+        <v>532</v>
+      </c>
+      <c r="B534" s="3">
+        <v>23</v>
+      </c>
+      <c r="C534" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D534" s="3">
+        <v>35822177</v>
+      </c>
+      <c r="E534" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F534" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G534" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H534" s="5"/>
+      <c r="I534" s="7"/>
+      <c r="J534" s="9"/>
+      <c r="K534" s="7"/>
+      <c r="L534" s="7"/>
+      <c r="M534" s="7"/>
+      <c r="N534" s="7"/>
+    </row>
+    <row r="535" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A535" s="3">
+        <v>533</v>
+      </c>
+      <c r="B535" s="3">
+        <v>24</v>
+      </c>
+      <c r="C535" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D535" s="3">
+        <v>35822170</v>
+      </c>
+      <c r="E535" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F535" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G535" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H535" s="5">
+        <v>44750</v>
+      </c>
+      <c r="I535" s="7"/>
+      <c r="J535" s="9"/>
+      <c r="K535" s="7"/>
+      <c r="L535" s="7"/>
+      <c r="M535" s="7"/>
+      <c r="N535" s="7"/>
+    </row>
+    <row r="536" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A536" s="3">
+        <v>534</v>
+      </c>
+      <c r="B536" s="3">
+        <v>25</v>
+      </c>
+      <c r="C536" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D536" s="3">
+        <v>35822085</v>
+      </c>
+      <c r="E536" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F536" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G536" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H536" s="5">
+        <v>44573</v>
+      </c>
+      <c r="I536" s="7"/>
+      <c r="J536" s="9"/>
+      <c r="K536" s="7"/>
+      <c r="L536" s="7"/>
+      <c r="M536" s="7"/>
+      <c r="N536" s="7"/>
+    </row>
+    <row r="537" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A537" s="3">
+        <v>535</v>
+      </c>
+      <c r="B537" s="3">
+        <v>26</v>
+      </c>
+      <c r="C537" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D537" s="3">
+        <v>35822029</v>
+      </c>
+      <c r="E537" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F537" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G537" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H537" s="5">
+        <v>44406</v>
+      </c>
+      <c r="I537" s="7"/>
+      <c r="J537" s="9"/>
+      <c r="K537" s="7"/>
+      <c r="L537" s="7"/>
+      <c r="M537" s="7"/>
+      <c r="N537" s="7"/>
+    </row>
+    <row r="538" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A538" s="3">
+        <v>536</v>
+      </c>
+      <c r="B538" s="3">
+        <v>27</v>
+      </c>
+      <c r="C538" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D538" s="3">
+        <v>35821879</v>
+      </c>
+      <c r="E538" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F538" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G538" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H538" s="5">
+        <v>44749</v>
+      </c>
+      <c r="I538" s="7"/>
+      <c r="J538" s="9"/>
+      <c r="K538" s="7"/>
+      <c r="L538" s="7"/>
+      <c r="M538" s="7"/>
+      <c r="N538" s="7"/>
+    </row>
+    <row r="539" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A539" s="3">
+        <v>537</v>
+      </c>
+      <c r="B539" s="3">
+        <v>28</v>
+      </c>
+      <c r="C539" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D539" s="3">
+        <v>35821878</v>
+      </c>
+      <c r="E539" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F539" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G539" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H539" s="5">
+        <v>44750</v>
+      </c>
+      <c r="I539" s="7"/>
+      <c r="J539" s="9"/>
+      <c r="K539" s="7"/>
+      <c r="L539" s="7"/>
+      <c r="M539" s="7"/>
+      <c r="N539" s="7"/>
+    </row>
+    <row r="540" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A540" s="3">
+        <v>538</v>
+      </c>
+      <c r="B540" s="3">
+        <v>29</v>
+      </c>
+      <c r="C540" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D540" s="3">
+        <v>35821601</v>
+      </c>
+      <c r="E540" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F540" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G540" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H540" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I540" s="7"/>
+      <c r="J540" s="9"/>
+      <c r="K540" s="7"/>
+      <c r="L540" s="7"/>
+      <c r="M540" s="7"/>
+      <c r="N540" s="7"/>
+    </row>
+    <row r="541" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A541" s="3">
+        <v>539</v>
+      </c>
+      <c r="B541" s="3">
+        <v>30</v>
+      </c>
+      <c r="C541" s="5">
+        <v>44756</v>
+      </c>
+      <c r="D541" s="3">
+        <v>35821428</v>
+      </c>
+      <c r="E541" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F541" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G541" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="H541" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I541" s="7"/>
+      <c r="J541" s="9"/>
+      <c r="K541" s="7"/>
+      <c r="L541" s="7"/>
+      <c r="M541" s="7"/>
+      <c r="N541" s="7"/>
+    </row>
+    <row r="542" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A542" s="3">
+        <v>540</v>
+      </c>
+      <c r="B542" s="3">
+        <v>1</v>
+      </c>
+      <c r="C542" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D542" s="3">
+        <v>35836176</v>
+      </c>
+      <c r="E542" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F542" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G542" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H542" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I542" s="7"/>
+      <c r="J542" s="9"/>
+      <c r="K542" s="7"/>
+      <c r="L542" s="7"/>
+      <c r="M542" s="7"/>
+      <c r="N542" s="7"/>
+    </row>
+    <row r="543" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A543" s="3">
+        <v>541</v>
+      </c>
+      <c r="B543" s="3">
+        <v>2</v>
+      </c>
+      <c r="C543" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D543" s="3">
+        <v>35836126</v>
+      </c>
+      <c r="E543" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F543" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G543" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H543" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I543" s="7"/>
+      <c r="J543" s="9"/>
+      <c r="K543" s="7"/>
+      <c r="L543" s="7"/>
+      <c r="M543" s="7"/>
+      <c r="N543" s="7"/>
+    </row>
+    <row r="544" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A544" s="3">
+        <v>542</v>
+      </c>
+      <c r="B544" s="3">
+        <v>3</v>
+      </c>
+      <c r="C544" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D544" s="3">
+        <v>35835933</v>
+      </c>
+      <c r="E544" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F544" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G544" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H544" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I544" s="7"/>
+      <c r="J544" s="9"/>
+      <c r="K544" s="7"/>
+      <c r="L544" s="7"/>
+      <c r="M544" s="7"/>
+      <c r="N544" s="7"/>
+    </row>
+    <row r="545" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A545" s="3">
+        <v>543</v>
+      </c>
+      <c r="B545" s="3">
+        <v>4</v>
+      </c>
+      <c r="C545" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D545" s="3">
+        <v>35835892</v>
+      </c>
+      <c r="E545" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F545" s="7" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G545" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="H545" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I545" s="7"/>
+      <c r="J545" s="9"/>
+      <c r="K545" s="7"/>
+      <c r="L545" s="7"/>
+      <c r="M545" s="7"/>
+      <c r="N545" s="7"/>
+    </row>
+    <row r="546" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A546" s="3">
+        <v>544</v>
+      </c>
+      <c r="B546" s="3">
+        <v>5</v>
+      </c>
+      <c r="C546" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D546" s="3">
+        <v>35835774</v>
+      </c>
+      <c r="E546" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F546" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G546" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H546" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I546" s="7"/>
+      <c r="J546" s="9"/>
+      <c r="K546" s="7"/>
+      <c r="L546" s="7"/>
+      <c r="M546" s="7"/>
+      <c r="N546" s="7"/>
+    </row>
+    <row r="547" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A547" s="3">
+        <v>545</v>
+      </c>
+      <c r="B547" s="3">
+        <v>6</v>
+      </c>
+      <c r="C547" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D547" s="3">
+        <v>35835694</v>
+      </c>
+      <c r="E547" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F547" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G547" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H547" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I547" s="7"/>
+      <c r="J547" s="9"/>
+      <c r="K547" s="7"/>
+      <c r="L547" s="7"/>
+      <c r="M547" s="7"/>
+      <c r="N547" s="7"/>
+    </row>
+    <row r="548" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A548" s="3">
+        <v>546</v>
+      </c>
+      <c r="B548" s="3">
+        <v>7</v>
+      </c>
+      <c r="C548" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D548" s="3">
+        <v>35835438</v>
+      </c>
+      <c r="E548" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F548" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G548" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H548" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I548" s="7"/>
+      <c r="J548" s="9"/>
+      <c r="K548" s="7"/>
+      <c r="L548" s="7"/>
+      <c r="M548" s="7"/>
+      <c r="N548" s="7"/>
+    </row>
+    <row r="549" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A549" s="3">
+        <v>547</v>
+      </c>
+      <c r="B549" s="3">
+        <v>8</v>
+      </c>
+      <c r="C549" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D549" s="3">
+        <v>35835392</v>
+      </c>
+      <c r="E549" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F549" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G549" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H549" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I549" s="7"/>
+      <c r="J549" s="9"/>
+      <c r="K549" s="7"/>
+      <c r="L549" s="7"/>
+      <c r="M549" s="7"/>
+      <c r="N549" s="7"/>
+    </row>
+    <row r="550" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A550" s="3">
+        <v>548</v>
+      </c>
+      <c r="B550" s="3">
+        <v>9</v>
+      </c>
+      <c r="C550" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D550" s="3">
+        <v>35835201</v>
+      </c>
+      <c r="E550" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F550" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G550" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="H550" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I550" s="7"/>
+      <c r="J550" s="9"/>
+      <c r="K550" s="7"/>
+      <c r="L550" s="7"/>
+      <c r="M550" s="7"/>
+      <c r="N550" s="7"/>
+    </row>
+    <row r="551" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A551" s="3">
+        <v>549</v>
+      </c>
+      <c r="B551" s="3">
+        <v>10</v>
+      </c>
+      <c r="C551" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D551" s="3">
+        <v>35835066</v>
+      </c>
+      <c r="E551" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F551" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G551" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H551" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I551" s="7"/>
+      <c r="J551" s="9"/>
+      <c r="K551" s="7"/>
+      <c r="L551" s="7"/>
+      <c r="M551" s="7"/>
+      <c r="N551" s="7"/>
+    </row>
+    <row r="552" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A552" s="3">
+        <v>550</v>
+      </c>
+      <c r="B552" s="3">
+        <v>11</v>
+      </c>
+      <c r="C552" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D552" s="3">
+        <v>35834967</v>
+      </c>
+      <c r="E552" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F552" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G552" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H552" s="5">
+        <v>44750</v>
+      </c>
+      <c r="I552" s="7"/>
+      <c r="J552" s="9"/>
+      <c r="K552" s="7"/>
+      <c r="L552" s="7"/>
+      <c r="M552" s="7"/>
+      <c r="N552" s="7"/>
+    </row>
+    <row r="553" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A553" s="3">
+        <v>551</v>
+      </c>
+      <c r="B553" s="3">
+        <v>12</v>
+      </c>
+      <c r="C553" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D553" s="3">
+        <v>35834909</v>
+      </c>
+      <c r="E553" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F553" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G553" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H553" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I553" s="7"/>
+      <c r="J553" s="9"/>
+      <c r="K553" s="7"/>
+      <c r="L553" s="7"/>
+      <c r="M553" s="7"/>
+      <c r="N553" s="7"/>
+    </row>
+    <row r="554" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A554" s="3">
+        <v>552</v>
+      </c>
+      <c r="B554" s="3">
+        <v>13</v>
+      </c>
+      <c r="C554" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D554" s="3">
+        <v>35834858</v>
+      </c>
+      <c r="E554" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F554" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G554" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H554" s="5">
+        <v>44748</v>
+      </c>
+      <c r="I554" s="7"/>
+      <c r="J554" s="9"/>
+      <c r="K554" s="7"/>
+      <c r="L554" s="7"/>
+      <c r="M554" s="7"/>
+      <c r="N554" s="7"/>
+    </row>
+    <row r="555" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A555" s="3">
+        <v>553</v>
+      </c>
+      <c r="B555" s="3">
+        <v>14</v>
+      </c>
+      <c r="C555" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D555" s="3">
+        <v>35834491</v>
+      </c>
+      <c r="E555" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F555" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G555" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H555" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I555" s="7"/>
+      <c r="J555" s="9"/>
+      <c r="K555" s="7"/>
+      <c r="L555" s="7"/>
+      <c r="M555" s="7"/>
+      <c r="N555" s="7"/>
+    </row>
+    <row r="556" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A556" s="3">
+        <v>554</v>
+      </c>
+      <c r="B556" s="3">
+        <v>15</v>
+      </c>
+      <c r="C556" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D556" s="3">
+        <v>35834466</v>
+      </c>
+      <c r="E556" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F556" s="7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G556" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H556" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I556" s="7"/>
+      <c r="J556" s="9"/>
+      <c r="K556" s="7"/>
+      <c r="L556" s="7"/>
+      <c r="M556" s="7"/>
+      <c r="N556" s="7"/>
+    </row>
+    <row r="557" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A557" s="3">
+        <v>555</v>
+      </c>
+      <c r="B557" s="3">
+        <v>16</v>
+      </c>
+      <c r="C557" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D557" s="3">
+        <v>35834465</v>
+      </c>
+      <c r="E557" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F557" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G557" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H557" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I557" s="7"/>
+      <c r="J557" s="9"/>
+      <c r="K557" s="7"/>
+      <c r="L557" s="7"/>
+      <c r="M557" s="7"/>
+      <c r="N557" s="7"/>
+    </row>
+    <row r="558" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A558" s="3">
+        <v>556</v>
+      </c>
+      <c r="B558" s="3">
+        <v>17</v>
+      </c>
+      <c r="C558" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D558" s="3">
+        <v>35834454</v>
+      </c>
+      <c r="E558" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F558" s="7" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G558" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H558" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I558" s="7"/>
+      <c r="J558" s="9"/>
+      <c r="K558" s="7"/>
+      <c r="L558" s="7"/>
+      <c r="M558" s="7"/>
+      <c r="N558" s="7"/>
+    </row>
+    <row r="559" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A559" s="3">
+        <v>557</v>
+      </c>
+      <c r="B559" s="3">
+        <v>18</v>
+      </c>
+      <c r="C559" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D559" s="3">
+        <v>35834448</v>
+      </c>
+      <c r="E559" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F559" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G559" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H559" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I559" s="7"/>
+      <c r="J559" s="9"/>
+      <c r="K559" s="7"/>
+      <c r="L559" s="7"/>
+      <c r="M559" s="7"/>
+      <c r="N559" s="7"/>
+    </row>
+    <row r="560" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A560" s="3">
+        <v>558</v>
+      </c>
+      <c r="B560" s="3">
+        <v>19</v>
+      </c>
+      <c r="C560" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D560" s="3">
+        <v>35834447</v>
+      </c>
+      <c r="E560" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F560" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G560" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H560" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I560" s="7"/>
+      <c r="J560" s="9"/>
+      <c r="K560" s="7"/>
+      <c r="L560" s="7"/>
+      <c r="M560" s="7"/>
+      <c r="N560" s="7"/>
+    </row>
+    <row r="561" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A561" s="3">
+        <v>559</v>
+      </c>
+      <c r="B561" s="3">
+        <v>20</v>
+      </c>
+      <c r="C561" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D561" s="3">
+        <v>35834442</v>
+      </c>
+      <c r="E561" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F561" s="7" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G561" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H561" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I561" s="7"/>
+      <c r="J561" s="9"/>
+      <c r="K561" s="7"/>
+      <c r="L561" s="7"/>
+      <c r="M561" s="7"/>
+      <c r="N561" s="7"/>
+    </row>
+    <row r="562" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A562" s="3">
+        <v>560</v>
+      </c>
+      <c r="B562" s="3">
+        <v>21</v>
+      </c>
+      <c r="C562" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D562" s="3">
+        <v>35834249</v>
+      </c>
+      <c r="E562" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F562" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G562" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H562" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I562" s="7"/>
+      <c r="J562" s="9"/>
+      <c r="K562" s="7"/>
+      <c r="L562" s="7"/>
+      <c r="M562" s="7"/>
+      <c r="N562" s="7"/>
+    </row>
+    <row r="563" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A563" s="3">
+        <v>561</v>
+      </c>
+      <c r="B563" s="3">
+        <v>22</v>
+      </c>
+      <c r="C563" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D563" s="3">
+        <v>35834210</v>
+      </c>
+      <c r="E563" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F563" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G563" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H563" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I563" s="7"/>
+      <c r="J563" s="9"/>
+      <c r="K563" s="7"/>
+      <c r="L563" s="7"/>
+      <c r="M563" s="7"/>
+      <c r="N563" s="7"/>
+    </row>
+    <row r="564" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A564" s="3">
+        <v>562</v>
+      </c>
+      <c r="B564" s="3">
+        <v>23</v>
+      </c>
+      <c r="C564" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D564" s="3">
+        <v>35834079</v>
+      </c>
+      <c r="E564" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F564" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G564" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H564" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I564" s="7"/>
+      <c r="J564" s="9"/>
+      <c r="K564" s="7"/>
+      <c r="L564" s="7"/>
+      <c r="M564" s="7"/>
+      <c r="N564" s="7"/>
+    </row>
+    <row r="565" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A565" s="3">
+        <v>563</v>
+      </c>
+      <c r="B565" s="3">
+        <v>24</v>
+      </c>
+      <c r="C565" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D565" s="3">
+        <v>35834050</v>
+      </c>
+      <c r="E565" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F565" s="7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="G565" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H565" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I565" s="7"/>
+      <c r="J565" s="9"/>
+      <c r="K565" s="7"/>
+      <c r="L565" s="7"/>
+      <c r="M565" s="7"/>
+      <c r="N565" s="7"/>
+    </row>
+    <row r="566" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A566" s="3">
+        <v>564</v>
+      </c>
+      <c r="B566" s="3">
+        <v>25</v>
+      </c>
+      <c r="C566" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D566" s="3">
+        <v>35833885</v>
+      </c>
+      <c r="E566" s="7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F566" s="7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G566" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="H566" s="5"/>
+      <c r="I566" s="7"/>
+      <c r="J566" s="9"/>
+      <c r="K566" s="7"/>
+      <c r="L566" s="7"/>
+      <c r="M566" s="7"/>
+      <c r="N566" s="7"/>
+    </row>
+    <row r="567" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A567" s="3">
+        <v>565</v>
+      </c>
+      <c r="B567" s="3">
+        <v>26</v>
+      </c>
+      <c r="C567" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D567" s="3">
+        <v>35833617</v>
+      </c>
+      <c r="E567" s="7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F567" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G567" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H567" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I567" s="7"/>
+      <c r="J567" s="9"/>
+      <c r="K567" s="7"/>
+      <c r="L567" s="7"/>
+      <c r="M567" s="7"/>
+      <c r="N567" s="7"/>
+    </row>
+    <row r="568" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A568" s="3">
+        <v>566</v>
+      </c>
+      <c r="B568" s="3">
+        <v>27</v>
+      </c>
+      <c r="C568" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D568" s="3">
+        <v>35833606</v>
+      </c>
+      <c r="E568" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F568" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G568" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H568" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I568" s="7"/>
+      <c r="J568" s="9"/>
+      <c r="K568" s="7"/>
+      <c r="L568" s="7"/>
+      <c r="M568" s="7"/>
+      <c r="N568" s="7"/>
+    </row>
+    <row r="569" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A569" s="3">
+        <v>567</v>
+      </c>
+      <c r="B569" s="3">
+        <v>28</v>
+      </c>
+      <c r="C569" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D569" s="3">
+        <v>35833590</v>
+      </c>
+      <c r="E569" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F569" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G569" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H569" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I569" s="7"/>
+      <c r="J569" s="9"/>
+      <c r="K569" s="7"/>
+      <c r="L569" s="7"/>
+      <c r="M569" s="7"/>
+      <c r="N569" s="7"/>
+    </row>
+    <row r="570" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A570" s="3">
+        <v>568</v>
+      </c>
+      <c r="B570" s="3">
+        <v>29</v>
+      </c>
+      <c r="C570" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D570" s="3">
+        <v>35833351</v>
+      </c>
+      <c r="E570" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F570" s="7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G570" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H570" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I570" s="7"/>
+      <c r="J570" s="9"/>
+      <c r="K570" s="7"/>
+      <c r="L570" s="7"/>
+      <c r="M570" s="7"/>
+      <c r="N570" s="7"/>
+    </row>
+    <row r="571" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A571" s="3">
+        <v>569</v>
+      </c>
+      <c r="B571" s="3">
+        <v>30</v>
+      </c>
+      <c r="C571" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D571" s="3">
+        <v>35833287</v>
+      </c>
+      <c r="E571" s="7" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F571" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G571" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H571" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I571" s="7"/>
+      <c r="J571" s="9"/>
+      <c r="K571" s="7"/>
+      <c r="L571" s="7"/>
+      <c r="M571" s="7"/>
+      <c r="N571" s="7"/>
+    </row>
+    <row r="572" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A572" s="3">
+        <v>570</v>
+      </c>
+      <c r="B572" s="3">
+        <v>31</v>
+      </c>
+      <c r="C572" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D572" s="3">
+        <v>35832894</v>
+      </c>
+      <c r="E572" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F572" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G572" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H572" s="5">
+        <v>44735</v>
+      </c>
+      <c r="I572" s="7"/>
+      <c r="J572" s="9"/>
+      <c r="K572" s="7"/>
+      <c r="L572" s="7"/>
+      <c r="M572" s="7"/>
+      <c r="N572" s="7"/>
+    </row>
+    <row r="573" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A573" s="3">
+        <v>571</v>
+      </c>
+      <c r="B573" s="3">
+        <v>32</v>
+      </c>
+      <c r="C573" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D573" s="3">
+        <v>35832872</v>
+      </c>
+      <c r="E573" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F573" s="7" t="s">
+        <v>1628</v>
+      </c>
+      <c r="G573" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="H573" s="5">
+        <v>44739</v>
+      </c>
+      <c r="I573" s="7"/>
+      <c r="J573" s="9"/>
+      <c r="K573" s="7"/>
+      <c r="L573" s="7"/>
+      <c r="M573" s="7"/>
+      <c r="N573" s="7"/>
+    </row>
+    <row r="574" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A574" s="3">
+        <v>572</v>
+      </c>
+      <c r="B574" s="3">
+        <v>33</v>
+      </c>
+      <c r="C574" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D574" s="3">
+        <v>35832849</v>
+      </c>
+      <c r="E574" s="7" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F574" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="G574" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H574" s="5">
+        <v>44746</v>
+      </c>
+      <c r="I574" s="7"/>
+      <c r="J574" s="9"/>
+      <c r="K574" s="7"/>
+      <c r="L574" s="7"/>
+      <c r="M574" s="7"/>
+      <c r="N574" s="7"/>
+    </row>
+    <row r="575" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A575" s="3">
+        <v>573</v>
+      </c>
+      <c r="B575" s="3">
+        <v>34</v>
+      </c>
+      <c r="C575" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D575" s="3">
+        <v>35832629</v>
+      </c>
+      <c r="E575" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F575" s="7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G575" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="H575" s="5">
+        <v>44670</v>
+      </c>
+      <c r="I575" s="7"/>
+      <c r="J575" s="9"/>
+      <c r="K575" s="7"/>
+      <c r="L575" s="7"/>
+      <c r="M575" s="7"/>
+      <c r="N575" s="7"/>
+    </row>
+    <row r="576" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A576" s="3">
+        <v>574</v>
+      </c>
+      <c r="B576" s="3">
+        <v>35</v>
+      </c>
+      <c r="C576" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D576" s="3">
+        <v>35832624</v>
+      </c>
+      <c r="E576" s="7" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F576" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G576" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="H576" s="5">
+        <v>44727</v>
+      </c>
+      <c r="I576" s="7"/>
+      <c r="J576" s="9"/>
+      <c r="K576" s="7"/>
+      <c r="L576" s="7"/>
+      <c r="M576" s="7"/>
+      <c r="N576" s="7"/>
+    </row>
+    <row r="577" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A577" s="3">
+        <v>575</v>
+      </c>
+      <c r="B577" s="3">
+        <v>36</v>
+      </c>
+      <c r="C577" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D577" s="3">
+        <v>35832620</v>
+      </c>
+      <c r="E577" s="7" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F577" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="G577" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="H577" s="5">
+        <v>44737</v>
+      </c>
+      <c r="I577" s="7"/>
+      <c r="J577" s="9"/>
+      <c r="K577" s="7"/>
+      <c r="L577" s="7"/>
+      <c r="M577" s="7"/>
+      <c r="N577" s="7"/>
+    </row>
+    <row r="578" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A578" s="3">
+        <v>576</v>
+      </c>
+      <c r="B578" s="3">
+        <v>37</v>
+      </c>
+      <c r="C578" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D578" s="3">
+        <v>35832619</v>
+      </c>
+      <c r="E578" s="7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F578" s="7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G578" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="H578" s="5">
+        <v>44680</v>
+      </c>
+      <c r="I578" s="7"/>
+      <c r="J578" s="9"/>
+      <c r="K578" s="7"/>
+      <c r="L578" s="7"/>
+      <c r="M578" s="7"/>
+      <c r="N578" s="7"/>
+    </row>
+    <row r="579" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A579" s="3">
+        <v>577</v>
+      </c>
+      <c r="B579" s="3">
+        <v>38</v>
+      </c>
+      <c r="C579" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D579" s="3">
+        <v>35832615</v>
+      </c>
+      <c r="E579" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F579" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G579" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="H579" s="5">
+        <v>44728</v>
+      </c>
+      <c r="I579" s="7"/>
+      <c r="J579" s="9"/>
+      <c r="K579" s="7"/>
+      <c r="L579" s="7"/>
+      <c r="M579" s="7"/>
+      <c r="N579" s="7"/>
+    </row>
+    <row r="580" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A580" s="3">
+        <v>578</v>
+      </c>
+      <c r="B580" s="3">
+        <v>39</v>
+      </c>
+      <c r="C580" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D580" s="3">
+        <v>35832457</v>
+      </c>
+      <c r="E580" s="7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F580" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G580" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H580" s="5"/>
+      <c r="I580" s="7"/>
+      <c r="J580" s="9"/>
+      <c r="K580" s="7"/>
+      <c r="L580" s="7"/>
+      <c r="M580" s="7"/>
+      <c r="N580" s="7"/>
+    </row>
+    <row r="581" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A581" s="3">
+        <v>579</v>
+      </c>
+      <c r="B581" s="3">
+        <v>40</v>
+      </c>
+      <c r="C581" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D581" s="3">
+        <v>35832321</v>
+      </c>
+      <c r="E581" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F581" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G581" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H581" s="5">
+        <v>44744</v>
+      </c>
+      <c r="I581" s="7"/>
+      <c r="J581" s="9"/>
+      <c r="K581" s="7"/>
+      <c r="L581" s="7"/>
+      <c r="M581" s="7"/>
+      <c r="N581" s="7"/>
+    </row>
+    <row r="582" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A582" s="3">
+        <v>580</v>
+      </c>
+      <c r="B582" s="3">
+        <v>41</v>
+      </c>
+      <c r="C582" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D582" s="3">
+        <v>35832254</v>
+      </c>
+      <c r="E582" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F582" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G582" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H582" s="5">
+        <v>44746</v>
+      </c>
+      <c r="I582" s="7"/>
+      <c r="J582" s="9"/>
+      <c r="K582" s="7"/>
+      <c r="L582" s="7"/>
+      <c r="M582" s="7"/>
+      <c r="N582" s="7"/>
+    </row>
+    <row r="583" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A583" s="3">
+        <v>581</v>
+      </c>
+      <c r="B583" s="3">
+        <v>42</v>
+      </c>
+      <c r="C583" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D583" s="3">
+        <v>35832252</v>
+      </c>
+      <c r="E583" s="7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F583" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G583" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H583" s="5">
+        <v>44746</v>
+      </c>
+      <c r="I583" s="7"/>
+      <c r="J583" s="9"/>
+      <c r="K583" s="7"/>
+      <c r="L583" s="7"/>
+      <c r="M583" s="7"/>
+      <c r="N583" s="7"/>
+    </row>
+    <row r="584" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A584" s="3">
+        <v>582</v>
+      </c>
+      <c r="B584" s="3">
+        <v>43</v>
+      </c>
+      <c r="C584" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D584" s="3">
+        <v>35832228</v>
+      </c>
+      <c r="E584" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F584" s="7" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G584" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H584" s="5">
+        <v>44739</v>
+      </c>
+      <c r="I584" s="7"/>
+      <c r="J584" s="9"/>
+      <c r="K584" s="7"/>
+      <c r="L584" s="7"/>
+      <c r="M584" s="7"/>
+      <c r="N584" s="7"/>
+    </row>
+    <row r="585" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A585" s="3">
+        <v>583</v>
+      </c>
+      <c r="B585" s="3">
+        <v>44</v>
+      </c>
+      <c r="C585" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D585" s="3">
+        <v>35832207</v>
+      </c>
+      <c r="E585" s="7" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F585" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G585" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H585" s="5">
+        <v>44739</v>
+      </c>
+      <c r="I585" s="7"/>
+      <c r="J585" s="9"/>
+      <c r="K585" s="7"/>
+      <c r="L585" s="7"/>
+      <c r="M585" s="7"/>
+      <c r="N585" s="7"/>
+    </row>
+    <row r="586" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A586" s="3">
+        <v>584</v>
+      </c>
+      <c r="B586" s="3">
+        <v>45</v>
+      </c>
+      <c r="C586" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D586" s="3">
+        <v>35832178</v>
+      </c>
+      <c r="E586" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F586" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G586" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H586" s="5">
+        <v>44739</v>
+      </c>
+      <c r="I586" s="7"/>
+      <c r="J586" s="9"/>
+      <c r="K586" s="7"/>
+      <c r="L586" s="7"/>
+      <c r="M586" s="7"/>
+      <c r="N586" s="7"/>
+    </row>
+    <row r="587" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A587" s="3">
+        <v>585</v>
+      </c>
+      <c r="B587" s="3">
+        <v>46</v>
+      </c>
+      <c r="C587" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D587" s="3">
+        <v>35832090</v>
+      </c>
+      <c r="E587" s="7" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F587" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G587" s="7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H587" s="5">
+        <v>44708</v>
+      </c>
+      <c r="I587" s="7"/>
+      <c r="J587" s="9"/>
+      <c r="K587" s="7"/>
+      <c r="L587" s="7"/>
+      <c r="M587" s="7"/>
+      <c r="N587" s="7"/>
+    </row>
+    <row r="588" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A588" s="3">
+        <v>586</v>
+      </c>
+      <c r="B588" s="3">
+        <v>47</v>
+      </c>
+      <c r="C588" s="5">
+        <v>44757</v>
+      </c>
+      <c r="D588" s="3">
+        <v>35831930</v>
+      </c>
+      <c r="E588" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F588" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G588" s="7" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H588" s="5"/>
+      <c r="I588" s="7"/>
+      <c r="J588" s="9"/>
+      <c r="K588" s="7"/>
+      <c r="L588" s="7"/>
+      <c r="M588" s="7"/>
+      <c r="N588" s="7"/>
+    </row>
+    <row r="589" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A589" s="3">
+        <v>587</v>
+      </c>
+      <c r="B589" s="3">
+        <v>1</v>
+      </c>
+      <c r="C589" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D589" s="3">
+        <v>35839331</v>
+      </c>
+      <c r="E589" s="7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F589" s="7" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G589" s="7" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H589" s="5"/>
+      <c r="I589" s="7"/>
+      <c r="J589" s="9"/>
+      <c r="K589" s="7"/>
+      <c r="L589" s="7"/>
+      <c r="M589" s="7"/>
+      <c r="N589" s="7"/>
+    </row>
+    <row r="590" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A590" s="3">
+        <v>588</v>
+      </c>
+      <c r="B590" s="3">
+        <v>2</v>
+      </c>
+      <c r="C590" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D590" s="3">
+        <v>35839250</v>
+      </c>
+      <c r="E590" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F590" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G590" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H590" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I590" s="7"/>
+      <c r="J590" s="9"/>
+      <c r="K590" s="7"/>
+      <c r="L590" s="7"/>
+      <c r="M590" s="7"/>
+      <c r="N590" s="7"/>
+    </row>
+    <row r="591" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A591" s="3">
+        <v>589</v>
+      </c>
+      <c r="B591" s="3">
+        <v>3</v>
+      </c>
+      <c r="C591" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D591" s="3">
+        <v>35839200</v>
+      </c>
+      <c r="E591" s="7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F591" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G591" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H591" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I591" s="7"/>
+      <c r="J591" s="9"/>
+      <c r="K591" s="7"/>
+      <c r="L591" s="7"/>
+      <c r="M591" s="7"/>
+      <c r="N591" s="7"/>
+    </row>
+    <row r="592" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A592" s="3">
+        <v>590</v>
+      </c>
+      <c r="B592" s="3">
+        <v>4</v>
+      </c>
+      <c r="C592" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D592" s="3">
+        <v>35839184</v>
+      </c>
+      <c r="E592" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F592" s="7" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G592" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H592" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I592" s="7"/>
+      <c r="J592" s="9"/>
+      <c r="K592" s="7"/>
+      <c r="L592" s="7"/>
+      <c r="M592" s="7"/>
+      <c r="N592" s="7"/>
+    </row>
+    <row r="593" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A593" s="3">
+        <v>591</v>
+      </c>
+      <c r="B593" s="3">
+        <v>5</v>
+      </c>
+      <c r="C593" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D593" s="3">
+        <v>35838977</v>
+      </c>
+      <c r="E593" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F593" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G593" s="7" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H593" s="5"/>
+      <c r="I593" s="7"/>
+      <c r="J593" s="9"/>
+      <c r="K593" s="7"/>
+      <c r="L593" s="7"/>
+      <c r="M593" s="7"/>
+      <c r="N593" s="7"/>
+    </row>
+    <row r="594" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A594" s="3">
+        <v>592</v>
+      </c>
+      <c r="B594" s="3">
+        <v>6</v>
+      </c>
+      <c r="C594" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D594" s="3">
+        <v>35838721</v>
+      </c>
+      <c r="E594" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F594" s="7" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G594" s="7" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H594" s="5"/>
+      <c r="I594" s="7"/>
+      <c r="J594" s="9"/>
+      <c r="K594" s="7"/>
+      <c r="L594" s="7"/>
+      <c r="M594" s="7"/>
+      <c r="N594" s="7"/>
+    </row>
+    <row r="595" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A595" s="3">
+        <v>593</v>
+      </c>
+      <c r="B595" s="3">
+        <v>7</v>
+      </c>
+      <c r="C595" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D595" s="3">
+        <v>35838510</v>
+      </c>
+      <c r="E595" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F595" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G595" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H595" s="5"/>
+      <c r="I595" s="7"/>
+      <c r="J595" s="9"/>
+      <c r="K595" s="7"/>
+      <c r="L595" s="7"/>
+      <c r="M595" s="7"/>
+      <c r="N595" s="7"/>
+    </row>
+    <row r="596" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A596" s="3">
+        <v>594</v>
+      </c>
+      <c r="B596" s="3">
+        <v>8</v>
+      </c>
+      <c r="C596" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D596" s="3">
+        <v>35838509</v>
+      </c>
+      <c r="E596" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F596" s="7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G596" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H596" s="5"/>
+      <c r="I596" s="7"/>
+      <c r="J596" s="9"/>
+      <c r="K596" s="7"/>
+      <c r="L596" s="7"/>
+      <c r="M596" s="7"/>
+      <c r="N596" s="7"/>
+    </row>
+    <row r="597" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A597" s="3">
+        <v>595</v>
+      </c>
+      <c r="B597" s="3">
+        <v>9</v>
+      </c>
+      <c r="C597" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D597" s="3">
+        <v>35837736</v>
+      </c>
+      <c r="E597" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F597" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G597" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H597" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I597" s="7"/>
+      <c r="J597" s="9"/>
+      <c r="K597" s="7"/>
+      <c r="L597" s="7"/>
+      <c r="M597" s="7"/>
+      <c r="N597" s="7"/>
+    </row>
+    <row r="598" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A598" s="3">
+        <v>596</v>
+      </c>
+      <c r="B598" s="3">
+        <v>10</v>
+      </c>
+      <c r="C598" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D598" s="3">
+        <v>35837692</v>
+      </c>
+      <c r="E598" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F598" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G598" s="7" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H598" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I598" s="7"/>
+      <c r="J598" s="9"/>
+      <c r="K598" s="7"/>
+      <c r="L598" s="7"/>
+      <c r="M598" s="7"/>
+      <c r="N598" s="7"/>
+    </row>
+    <row r="599" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A599" s="3">
+        <v>597</v>
+      </c>
+      <c r="B599" s="3">
+        <v>11</v>
+      </c>
+      <c r="C599" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D599" s="3">
+        <v>35837673</v>
+      </c>
+      <c r="E599" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F599" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G599" s="7" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H599" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I599" s="7"/>
+      <c r="J599" s="9"/>
+      <c r="K599" s="7"/>
+      <c r="L599" s="7"/>
+      <c r="M599" s="7"/>
+      <c r="N599" s="7"/>
+    </row>
+    <row r="600" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A600" s="3">
+        <v>598</v>
+      </c>
+      <c r="B600" s="3">
+        <v>12</v>
+      </c>
+      <c r="C600" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D600" s="3">
+        <v>35837615</v>
+      </c>
+      <c r="E600" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F600" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G600" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H600" s="5">
+        <v>44740</v>
+      </c>
+      <c r="I600" s="7"/>
+      <c r="J600" s="9"/>
+      <c r="K600" s="7"/>
+      <c r="L600" s="7"/>
+      <c r="M600" s="7"/>
+      <c r="N600" s="7"/>
+    </row>
+    <row r="601" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A601" s="3">
+        <v>599</v>
+      </c>
+      <c r="B601" s="3">
+        <v>13</v>
+      </c>
+      <c r="C601" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D601" s="3">
+        <v>35837447</v>
+      </c>
+      <c r="E601" s="7" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F601" s="7" t="s">
+        <v>1697</v>
+      </c>
+      <c r="G601" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H601" s="5">
+        <v>44740</v>
+      </c>
+      <c r="I601" s="7"/>
+      <c r="J601" s="9"/>
+      <c r="K601" s="7"/>
+      <c r="L601" s="7"/>
+      <c r="M601" s="7"/>
+      <c r="N601" s="7"/>
+    </row>
+    <row r="602" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A602" s="3">
+        <v>600</v>
+      </c>
+      <c r="B602" s="3">
+        <v>14</v>
+      </c>
+      <c r="C602" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D602" s="3">
+        <v>35837224</v>
+      </c>
+      <c r="E602" s="7" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F602" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G602" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H602" s="5">
+        <v>44747</v>
+      </c>
+      <c r="I602" s="7"/>
+      <c r="J602" s="9"/>
+      <c r="K602" s="7"/>
+      <c r="L602" s="7"/>
+      <c r="M602" s="7"/>
+      <c r="N602" s="7"/>
+    </row>
+    <row r="603" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A603" s="3">
+        <v>601</v>
+      </c>
+      <c r="B603" s="3">
+        <v>15</v>
+      </c>
+      <c r="C603" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D603" s="3">
+        <v>35837211</v>
+      </c>
+      <c r="E603" s="7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F603" s="7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G603" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H603" s="5">
+        <v>44747</v>
+      </c>
+      <c r="I603" s="7"/>
+      <c r="J603" s="9"/>
+      <c r="K603" s="7"/>
+      <c r="L603" s="7"/>
+      <c r="M603" s="7"/>
+      <c r="N603" s="7"/>
+    </row>
+    <row r="604" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A604" s="3">
+        <v>602</v>
+      </c>
+      <c r="B604" s="3">
+        <v>16</v>
+      </c>
+      <c r="C604" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D604" s="3">
+        <v>35836952</v>
+      </c>
+      <c r="E604" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F604" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G604" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H604" s="5">
+        <v>44740</v>
+      </c>
+      <c r="I604" s="7"/>
+      <c r="J604" s="9"/>
+      <c r="K604" s="7"/>
+      <c r="L604" s="7"/>
+      <c r="M604" s="7"/>
+      <c r="N604" s="7"/>
+    </row>
+    <row r="605" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A605" s="3">
+        <v>603</v>
+      </c>
+      <c r="B605" s="3">
+        <v>17</v>
+      </c>
+      <c r="C605" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D605" s="3">
+        <v>35836935</v>
+      </c>
+      <c r="E605" s="7" t="s">
+        <v>1704</v>
+      </c>
+      <c r="F605" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G605" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H605" s="5">
+        <v>44740</v>
+      </c>
+      <c r="I605" s="7"/>
+      <c r="J605" s="9"/>
+      <c r="K605" s="7"/>
+      <c r="L605" s="7"/>
+      <c r="M605" s="7"/>
+      <c r="N605" s="7"/>
+    </row>
+    <row r="606" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A606" s="3">
+        <v>604</v>
+      </c>
+      <c r="B606" s="3">
+        <v>18</v>
+      </c>
+      <c r="C606" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D606" s="3">
+        <v>35836671</v>
+      </c>
+      <c r="E606" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F606" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G606" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H606" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I606" s="7"/>
+      <c r="J606" s="9"/>
+      <c r="K606" s="7"/>
+      <c r="L606" s="7"/>
+      <c r="M606" s="7"/>
+      <c r="N606" s="7"/>
+    </row>
+    <row r="607" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A607" s="3">
+        <v>605</v>
+      </c>
+      <c r="B607" s="3">
+        <v>19</v>
+      </c>
+      <c r="C607" s="5">
+        <v>44758</v>
+      </c>
+      <c r="D607" s="3">
+        <v>35836615</v>
+      </c>
+      <c r="E607" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F607" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G607" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H607" s="5">
+        <v>44707</v>
+      </c>
+      <c r="I607" s="7"/>
+      <c r="J607" s="9"/>
+      <c r="K607" s="7"/>
+      <c r="L607" s="7"/>
+      <c r="M607" s="7"/>
+      <c r="N607" s="7"/>
+    </row>
+    <row r="608" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A608" s="3">
+        <v>606</v>
+      </c>
+      <c r="B608" s="3">
+        <v>1</v>
+      </c>
+      <c r="C608" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D608" s="3">
+        <v>35842515</v>
+      </c>
+      <c r="E608" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F608" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G608" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H608" s="5">
+        <v>44758</v>
+      </c>
+      <c r="I608" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="J608" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K608" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L608" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="M608" s="7"/>
+      <c r="N608" s="7" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A609" s="3">
+        <v>607</v>
+      </c>
+      <c r="B609" s="3">
+        <v>2</v>
+      </c>
+      <c r="C609" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D609" s="3">
+        <v>35842418</v>
+      </c>
+      <c r="E609" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F609" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G609" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H609" s="5">
+        <v>44758</v>
+      </c>
+      <c r="I609" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="J609" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K609" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L609" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M609" s="7"/>
+      <c r="N609" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A610" s="3">
+        <v>608</v>
+      </c>
+      <c r="B610" s="3">
+        <v>3</v>
+      </c>
+      <c r="C610" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D610" s="3">
+        <v>35842363</v>
+      </c>
+      <c r="E610" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F610" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G610" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H610" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I610" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J610" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K610" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L610" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M610" s="7"/>
+      <c r="N610" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A611" s="3">
+        <v>609</v>
+      </c>
+      <c r="B611" s="3">
+        <v>4</v>
+      </c>
+      <c r="C611" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D611" s="3">
+        <v>35842095</v>
+      </c>
+      <c r="E611" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F611" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G611" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="H611" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I611" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="J611" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K611" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L611" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M611" s="7"/>
+      <c r="N611" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A612" s="3">
+        <v>610</v>
+      </c>
+      <c r="B612" s="3">
+        <v>5</v>
+      </c>
+      <c r="C612" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D612" s="3">
+        <v>35841852</v>
+      </c>
+      <c r="E612" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="F612" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G612" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H612" s="5">
+        <v>44750</v>
+      </c>
+      <c r="I612" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J612" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K612" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L612" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M612" s="7"/>
+      <c r="N612" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A613" s="3">
+        <v>611</v>
+      </c>
+      <c r="B613" s="3">
+        <v>6</v>
+      </c>
+      <c r="C613" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D613" s="3">
+        <v>35841780</v>
+      </c>
+      <c r="E613" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F613" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G613" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H613" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I613" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="J613" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K613" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L613" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="M613" s="7"/>
+      <c r="N613" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A614" s="3">
+        <v>612</v>
+      </c>
+      <c r="B614" s="3">
+        <v>7</v>
+      </c>
+      <c r="C614" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D614" s="3">
+        <v>35841446</v>
+      </c>
+      <c r="E614" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F614" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="G614" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H614" s="5">
+        <v>44758</v>
+      </c>
+      <c r="I614" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J614" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K614" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L614" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M614" s="7"/>
+      <c r="N614" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A615" s="3">
+        <v>613</v>
+      </c>
+      <c r="B615" s="3">
+        <v>8</v>
+      </c>
+      <c r="C615" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D615" s="3">
+        <v>35841417</v>
+      </c>
+      <c r="E615" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="F615" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G615" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H615" s="5">
+        <v>44758</v>
+      </c>
+      <c r="I615" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="J615" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K615" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L615" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M615" s="7"/>
+      <c r="N615" s="7" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A616" s="3">
+        <v>614</v>
+      </c>
+      <c r="B616" s="3">
+        <v>9</v>
+      </c>
+      <c r="C616" s="5">
+        <v>44759</v>
+      </c>
+      <c r="D616" s="3">
+        <v>35841274</v>
+      </c>
+      <c r="E616" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F616" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G616" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H616" s="5">
+        <v>44758</v>
+      </c>
+      <c r="I616" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J616" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K616" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L616" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M616" s="7"/>
+      <c r="N616" s="7" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A617" s="3">
+        <v>615</v>
+      </c>
+      <c r="B617" s="3">
+        <v>1</v>
+      </c>
+      <c r="C617" s="5">
+        <v>44760</v>
+      </c>
+      <c r="D617" s="3">
+        <v>35843839</v>
+      </c>
+      <c r="E617" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F617" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G617" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H617" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I617" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J617" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K617" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L617" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="M617" s="7"/>
+      <c r="N617" s="7" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A618" s="3">
+        <v>616</v>
+      </c>
+      <c r="B618" s="3">
+        <v>2</v>
+      </c>
+      <c r="C618" s="5">
+        <v>44760</v>
+      </c>
+      <c r="D618" s="3">
+        <v>35843265</v>
+      </c>
+      <c r="E618" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F618" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G618" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H618" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I618" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J618" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K618" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L618" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M618" s="7"/>
+      <c r="N618" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A619" s="3">
+        <v>617</v>
+      </c>
+      <c r="B619" s="3">
+        <v>3</v>
+      </c>
+      <c r="C619" s="5">
+        <v>44760</v>
+      </c>
+      <c r="D619" s="3">
+        <v>35843078</v>
+      </c>
+      <c r="E619" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F619" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G619" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H619" s="5">
+        <v>44751</v>
+      </c>
+      <c r="I619" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J619" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K619" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L619" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="M619" s="7"/>
+      <c r="N619" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="620" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A620" s="3">
+        <v>618</v>
+      </c>
+      <c r="B620" s="3">
+        <v>4</v>
+      </c>
+      <c r="C620" s="5">
+        <v>44760</v>
+      </c>
+      <c r="D620" s="3">
+        <v>35843076</v>
+      </c>
+      <c r="E620" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F620" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G620" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H620" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I620" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J620" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K620" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="L620" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="M620" s="7"/>
+      <c r="N620" s="7" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A621" s="3">
+        <v>619</v>
+      </c>
+      <c r="B621" s="3">
+        <v>5</v>
+      </c>
+      <c r="C621" s="5">
+        <v>44760</v>
+      </c>
+      <c r="D621" s="3">
+        <v>35842833</v>
+      </c>
+      <c r="E621" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F621" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G621" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H621" s="5">
+        <v>44759</v>
+      </c>
+      <c r="I621" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J621" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K621" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L621" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M621" s="7"/>
+      <c r="N621" s="7" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="622" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A622" s="3">
+        <v>620</v>
+      </c>
+      <c r="B622" s="3">
+        <v>6</v>
+      </c>
+      <c r="C622" s="5">
+        <v>44760</v>
+      </c>
+      <c r="D622" s="3">
+        <v>35842749</v>
+      </c>
+      <c r="E622" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F622" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G622" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H622" s="5">
+        <v>44758</v>
+      </c>
+      <c r="I622" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J622" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K622" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="L622" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="M622" s="7"/>
+      <c r="N622" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A623" s="3">
+        <v>621</v>
+      </c>
+      <c r="B623" s="3">
+        <v>7</v>
+      </c>
+      <c r="C623" s="5">
+        <v>44760</v>
+      </c>
+      <c r="D623" s="3">
+        <v>35842738</v>
+      </c>
+      <c r="E623" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F623" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G623" s="7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H623" s="5">
+        <v>44758</v>
+      </c>
+      <c r="I623" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J623" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K623" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="L623" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="M623" s="7"/>
+      <c r="N623" s="7" t="s">
+        <v>1765</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DL-BioMed-Papers.xlsx
+++ b/DL-BioMed-Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\yanll\Workspace\Personal\Projects\what-does-deep-learning-doing-in-biomed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEC34A-4290-4563-8AFA-C3523B2A9D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC515A1-D799-403E-B250-759E9DC5C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E75BEED-BD7A-4FCF-862A-92BB43F7F2FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2176">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6075,6 +6075,1262 @@
   </si>
   <si>
     <t xml:space="preserve">扩散张量成像 (DTI) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1109/JBHI.2022.3190494</t>
+  </si>
+  <si>
+    <t>Symmetry-Aware Deep Learning for Cerebral Ventricle Segmentation with Intra-Ventricular Hemorrhage.</t>
+  </si>
+  <si>
+    <t>10.1109/JBHI.2022.3192010</t>
+  </si>
+  <si>
+    <t>Reconstruction-assisted Feature Encoding Network for Histologic Subtype Classification of Non-small Cell Lung Cancer.</t>
+  </si>
+  <si>
+    <t>10.1109/JBHI.2022.3191754</t>
+  </si>
+  <si>
+    <t>DDCNN: A Deep Learning Model for AF Detection from a Single-Lead Short ECG Signal.</t>
+  </si>
+  <si>
+    <t>10.1109/TNSRE.2022.3191869</t>
+  </si>
+  <si>
+    <t>Single-Source to Single-Target Cross-Subject Motor Imagery Classification Based on Multi-Subdomain Adaptation Network.</t>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3191972</t>
+  </si>
+  <si>
+    <t>NCMD: Node2vec-based neural collaborative filtering for predicting miRNA-disease association.</t>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3191854</t>
+  </si>
+  <si>
+    <t>LAD-Net: A Novel Light Weight Model for Early Apple Leaf Pests and Diseases Classification.</t>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3191387</t>
+  </si>
+  <si>
+    <t>Multimodal-Boost: Multimodal Medical Image Super-Resolution Using Multi-Attention Network With Wavelet Transform.</t>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3191395</t>
+  </si>
+  <si>
+    <t>IGPRED-MultiTask: A Deep Learning Model to Predict Protein Secondary Structure, Torsion Angles and Solvent Accessibility.</t>
+  </si>
+  <si>
+    <t>10.14309/ajg.0000000000001904</t>
+  </si>
+  <si>
+    <t>High accuracy in classifying endoscopic severity in ulcerative colitis using convolutional neural network.</t>
+  </si>
+  <si>
+    <t>The American journal of gastroenterology</t>
+  </si>
+  <si>
+    <t>10.1007/s40744-022-00475-4</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence in Rheumatoid Arthritis: Current Status and Future Perspectives: A State-of-the-Art Review.</t>
+  </si>
+  <si>
+    <t>Rheumatology and therapy</t>
+  </si>
+  <si>
+    <t>10.1093/bib/bbac297</t>
+  </si>
+  <si>
+    <t>Spatial transcriptomics prediction from histology jointly through Transformer and graph neural networks.</t>
+  </si>
+  <si>
+    <t>10.1093/bib/bbac257</t>
+  </si>
+  <si>
+    <t>AI for predicting chemical-effect associations at the chemical universe level-deepFPlearn.</t>
+  </si>
+  <si>
+    <t>10.1039/d2cs00203e</t>
+  </si>
+  <si>
+    <t>Quantum machine learning for chemistry and physics.</t>
+  </si>
+  <si>
+    <t>Chemical Society reviews</t>
+  </si>
+  <si>
+    <t>10.1093/bib/bbac237</t>
+  </si>
+  <si>
+    <t>Best practice and reproducible science are required to advance artificial intelligence in real-world applications.</t>
+  </si>
+  <si>
+    <t>10.1002/lary.30291</t>
+  </si>
+  <si>
+    <t>Machine Learning in Diagnosing Middle Ear Disorders Using Tympanic Membrane Images: A Meta-Analysis.</t>
+  </si>
+  <si>
+    <t>The Laryngoscope</t>
+  </si>
+  <si>
+    <t>10.3233/XST-221200</t>
+  </si>
+  <si>
+    <t>Estimation of patient's angle from skull radiographs using deep learning.</t>
+  </si>
+  <si>
+    <t>Journal of X-ray science and technology</t>
+  </si>
+  <si>
+    <t>10.1007/s13735-022-00235-8</t>
+  </si>
+  <si>
+    <t>A unified approach of detecting misleading images via tracing its instances on web and analyzing its past context for the verification of multimedia content.</t>
+  </si>
+  <si>
+    <t>International journal of multimedia information retrieval</t>
+  </si>
+  <si>
+    <t>10.3389/fncom.2022.900885</t>
+  </si>
+  <si>
+    <t>A Framework for Text Classification Using Evolutionary Contiguous Convolutional Neural Network and Swarm Based Deep Neural Network.</t>
+  </si>
+  <si>
+    <t>Frontiers in computational neuroscience</t>
+  </si>
+  <si>
+    <t>10.3389/fonc.2022.932496</t>
+  </si>
+  <si>
+    <t>Performance Evaluation of the Deep Learning Based Convolutional Neural Network Approach for the Recognition of Chest X-Ray Images.</t>
+  </si>
+  <si>
+    <t>10.3389/fonc.2022.898771</t>
+  </si>
+  <si>
+    <t>Real-Time 2D MR Cine From Beam Eye's View With Tumor-Volume Projection to Ensure Beam-to-Tumor Conformality for MR-Guided Radiotherapy of Lung Cancer.</t>
+  </si>
+  <si>
+    <t>10.3389/fonc.2022.883516</t>
+  </si>
+  <si>
+    <t>A Transfer Learning Framework for Deep Learning-Based CT-to-Perfusion Mapping on Lung Cancer Patients.</t>
+  </si>
+  <si>
+    <t>10.3389/fmed.2022.762091</t>
+  </si>
+  <si>
+    <t>InterNet: Detection of Active Abdominal Arterial Bleeding Using Emergency Digital Subtraction Angiography Imaging With Two-Stage Deep Learning.</t>
+  </si>
+  <si>
+    <t>10.3389/fmed.2022.794045</t>
+  </si>
+  <si>
+    <t>Deep Learning Models for Segmenting Non-perfusion Area of Color Fundus Photographs in Patients With Branch Retinal Vein Occlusion.</t>
+  </si>
+  <si>
+    <t>10.1016/j.jot.2022.05.006</t>
+  </si>
+  <si>
+    <t>Identification and diagnosis of meniscus tear by magnetic resonance imaging using a deep learning model.</t>
+  </si>
+  <si>
+    <t>Journal of orthopaedic translation</t>
+  </si>
+  <si>
+    <t>10.1016/j.adro.2022.100968</t>
+  </si>
+  <si>
+    <t>Automatic Contour Refinement for Deep Learning Auto-segmentation of Complex Organs in MRI-guided Adaptive Radiation Therapy.</t>
+  </si>
+  <si>
+    <t>Advances in radiation oncology</t>
+  </si>
+  <si>
+    <t>10.1007/s11571-021-09751-5</t>
+  </si>
+  <si>
+    <t>4D attention-based neural network for EEG emotion recognition.</t>
+  </si>
+  <si>
+    <t>Cognitive neurodynamics</t>
+  </si>
+  <si>
+    <t>10.1117/12.2613134</t>
+  </si>
+  <si>
+    <t>Investigating the limited performance of a deep-learning-based SPECT denoising approach: An observer-study-based characterization.</t>
+  </si>
+  <si>
+    <t>Proceedings of SPIE--the International Society for Optical Engineering</t>
+  </si>
+  <si>
+    <t>10.1021/acsomega.2c02665</t>
+  </si>
+  <si>
+    <t>Coal Identification Based on Reflection Spectroscopy and Deep Learning: Paving the Way for Efficient Coal Combustion and Pyrolysis.</t>
+  </si>
+  <si>
+    <t>ACS omega</t>
+  </si>
+  <si>
+    <t>10.3389/fneur.2022.905917</t>
+  </si>
+  <si>
+    <t>Depression and Severity Detection Based on Body Kinematic Features: Using Kinect Recorded Skeleton Data of Simple Action.</t>
+  </si>
+  <si>
+    <t>10.1117/1.JMI.9.4.044001</t>
+  </si>
+  <si>
+    <t>Learning-based three-dimensional registration with weak bounding box supervision.</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2022.897230</t>
+  </si>
+  <si>
+    <t>Assessing Sensorimotor Synchronisation in Toddlers Using the Lookit Online Experiment Platform and Automated Movement Extraction.</t>
+  </si>
+  <si>
+    <t>10.3389/fpsyg.2022.852242</t>
+  </si>
+  <si>
+    <t>Research on Emotion Analysis and Psychoanalysis Application With Convolutional Neural Network and Bidirectional Long Short-Term Memory.</t>
+  </si>
+  <si>
+    <t>10.1016/j.heliyon.2022.e09196</t>
+  </si>
+  <si>
+    <t>Vector learning representation for generalized speech emotion recognition.</t>
+  </si>
+  <si>
+    <t>Heliyon</t>
+  </si>
+  <si>
+    <t>10.1016/j.heliyon.2022.e09152</t>
+  </si>
+  <si>
+    <t>Short-term renewable energy consumption and generation forecasting: A case study of Western Australia.</t>
+  </si>
+  <si>
+    <t>10.3389/fendo.2022.892005</t>
+  </si>
+  <si>
+    <t>Identification and Optimization of Contributing Factors for Precocious Puberty by Machine/Deep Learning Methods in Chinese Girls.</t>
+  </si>
+  <si>
+    <t>Frontiers in endocrinology</t>
+  </si>
+  <si>
+    <t>10.1007/s13755-022-00184-w</t>
+  </si>
+  <si>
+    <t>Analysis of sentiment changes in online messages of depression patients before and during the COVID-19 epidemic based on BERT+BiLSTM.</t>
+  </si>
+  <si>
+    <t>Health information science and systems</t>
+  </si>
+  <si>
+    <t>10.3389/fgene.2022.949285</t>
+  </si>
+  <si>
+    <t>Editorial: Machine Learning Techniques on Gene Function Prediction Volume II.</t>
+  </si>
+  <si>
+    <t>10.3389/fphys.2022.912739</t>
+  </si>
+  <si>
+    <t>Using Multi-Task Learning-Based Framework to Detect ST-Segment and J-Point Deviation From Holter.</t>
+  </si>
+  <si>
+    <t>Frontiers in physiology</t>
+  </si>
+  <si>
+    <t>10.3389/fphys.2022.918929</t>
+  </si>
+  <si>
+    <t>Multi-Model Domain Adaptation for Diabetic Retinopathy Classification.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/4286659</t>
+  </si>
+  <si>
+    <t>Deep Learning Models for Fast Retrieval and Extraction of French Speech Vocabulary Applications.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/4254631</t>
+  </si>
+  <si>
+    <t>COVID-19 Classification from Chest X-Ray Images: A Framework of Deep Explainable Artificial Intelligence.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/7606896</t>
+  </si>
+  <si>
+    <t>Misfire Detection in Spark Ignition Engine Using Transfer Learning.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/9034773</t>
+  </si>
+  <si>
+    <t>Analysis of Internet Public Opinion Popularity Trend Based on a Deep Neural Network.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/6781740</t>
+  </si>
+  <si>
+    <t>Hyperspectral Image Classification with Optimized Compressed Synergic Deep Convolution Neural Network with Aquila Optimization.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/3022767</t>
+  </si>
+  <si>
+    <t>Music Score Recognition Method Based on Deep Learning.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/8517706</t>
+  </si>
+  <si>
+    <t>Breast Cancer Detection on Histopathological Images Using a Composite Dilated Backbone Network.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/7842304</t>
+  </si>
+  <si>
+    <t>Deep Learning-Based Mental Health Model on Primary and Secondary School Students' Quality Cultivation.</t>
+  </si>
+  <si>
+    <t>10.1016/j.patter.2022.100524</t>
+  </si>
+  <si>
+    <t>DeepND: Deep multitask learning of gene risk for comorbid neurodevelopmental disorders.</t>
+  </si>
+  <si>
+    <t>Patterns (New York, N.Y.)</t>
+  </si>
+  <si>
+    <t>10.3389/fnbot.2022.897402</t>
+  </si>
+  <si>
+    <t>An Augmented Neural Network for Sentiment Analysis Using Grammar.</t>
+  </si>
+  <si>
+    <t>Frontiers in neurorobotics</t>
+  </si>
+  <si>
+    <t>10.3389/fnbot.2022.922761</t>
+  </si>
+  <si>
+    <t>Lightweight ViT Model for Micro-Expression Recognition Enhanced by Transfer Learning.</t>
+  </si>
+  <si>
+    <t>10.3389/fnbot.2022.938345</t>
+  </si>
+  <si>
+    <t>An sEMG-Based Human-Exoskeleton Interface Fusing Convolutional Neural Networks With Hand-Crafted Features.</t>
+  </si>
+  <si>
+    <t>10.3389/fnbot.2022.867028</t>
+  </si>
+  <si>
+    <t>Application of Deep Learning Technology in Strength Training of Football Players and Field Line Detection of Football Robots.</t>
+  </si>
+  <si>
+    <t>10.3389/fpls.2022.927832</t>
+  </si>
+  <si>
+    <t>Hyperspectral Technique Combined With Deep Learning Algorithm for Prediction of Phenotyping Traits in Lettuce.</t>
+  </si>
+  <si>
+    <t>10.21037/atm-22-2551</t>
+  </si>
+  <si>
+    <t>Deep-learning algorithms for choroidal thickness measurements in high myopia.</t>
+  </si>
+  <si>
+    <t>Annals of translational medicine</t>
+  </si>
+  <si>
+    <t>10.3389/fbioe.2022.945248</t>
+  </si>
+  <si>
+    <t>Surface Defect Segmentation Algorithm of Steel Plate Based on Geometric Median Filter Pruning.</t>
+  </si>
+  <si>
+    <t>Frontiers in bioengineering and biotechnology</t>
+  </si>
+  <si>
+    <t>10.3389/fbioe.2022.799541</t>
+  </si>
+  <si>
+    <t>FRCNet: Feature Refining and Context-Guided Network for Efficient Polyp Segmentation.</t>
+  </si>
+  <si>
+    <t>10.3390/ai3010013</t>
+  </si>
+  <si>
+    <t>Rule-Enhanced Active Learning for Semi-Automated Weak Supervision.</t>
+  </si>
+  <si>
+    <t>Artificial intelligence</t>
+  </si>
+  <si>
+    <t>10.3389/fcvm.2022.893090</t>
+  </si>
+  <si>
+    <t>CACHET-CADB: A Contextualized Ambulatory Electrocardiography Arrhythmia Dataset.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/2620548</t>
+  </si>
+  <si>
+    <t>Interactive Model of Rural Tourism and New Socialist Countryside Construction Using Deep Learning Technology.</t>
+  </si>
+  <si>
+    <t>Journal of environmental and public health</t>
+  </si>
+  <si>
+    <t>10.3389/fpubh.2022.912099</t>
+  </si>
+  <si>
+    <t>Individual Factors Associated With COVID-19 Infection: A Machine Learning Study.</t>
+  </si>
+  <si>
+    <t>10.1007/s00530-022-00969-9</t>
+  </si>
+  <si>
+    <t>Special issue deep learning for multimedia healthcare.</t>
+  </si>
+  <si>
+    <t>10.3389/fimmu.2022.893198</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence-Assisted Score Analysis for Predicting the Expression of the Immunotherapy Biomarker PD-L1 in Lung Cancer.</t>
+  </si>
+  <si>
+    <t>Frontiers in immunology</t>
+  </si>
+  <si>
+    <t>10.1007/s41060-022-00341-0</t>
+  </si>
+  <si>
+    <t>Multilingual hope speech detection in English and Dravidian languages.</t>
+  </si>
+  <si>
+    <t>International journal of data science and analytics</t>
+  </si>
+  <si>
+    <t>10.3389/fnins.2022.939472</t>
+  </si>
+  <si>
+    <t>A Multimodal Classification Architecture for the Severity Diagnosis of Glaucoma Based on Deep Learning.</t>
+  </si>
+  <si>
+    <t>脑室出血的脑室分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑室内出血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非小细胞肺癌组织学亚型分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1186/s12859-022-04829-1</t>
+  </si>
+  <si>
+    <t>Multi-head attention-based U-Nets for predicting protein domain boundaries using 1D sequence features and 2D distance maps.</t>
+  </si>
+  <si>
+    <t>10.1038/s41390-022-02116-6</t>
+  </si>
+  <si>
+    <t>Integrating structured and unstructured data for timely prediction of bloodstream infection among children.</t>
+  </si>
+  <si>
+    <t>Pediatric research</t>
+  </si>
+  <si>
+    <t>10.1016/j.crad.2022.06.013</t>
+  </si>
+  <si>
+    <t>Deep-learning reconstruction to improve image quality of myocardial dynamic CT perfusion: comparison with hybrid iterative reconstruction.</t>
+  </si>
+  <si>
+    <t>Clinical radiology</t>
+  </si>
+  <si>
+    <t>10.1088/1361-6579/ac826e</t>
+  </si>
+  <si>
+    <t>A systematic review of deep learning methods for modeling electrocardiograms during sleep.</t>
+  </si>
+  <si>
+    <t>Physiological measurement</t>
+  </si>
+  <si>
+    <t>10.1088/1741-2552/ac823e</t>
+  </si>
+  <si>
+    <t>Bidirectional siamese correlation analysis method for enhancing the detection of SSVEPs.</t>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105864</t>
+  </si>
+  <si>
+    <t>Deep learning applications in telerehabilitation speech therapy scenarios.</t>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105852</t>
+  </si>
+  <si>
+    <t>DTP-Net: A convolutional neural network model to predict threshold for localizing the lesions on dermatological macro-images.</t>
+  </si>
+  <si>
+    <t>10.14309/ctg.0000000000000514</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence and Device-Assisted Enteroscopy: Automatic detection of enteric protruding lesions using a convolutional neural network: Application do AI for detection of protruding lesions in enteroscopy.</t>
+  </si>
+  <si>
+    <t>Clinical and translational gastroenterology</t>
+  </si>
+  <si>
+    <t>10.1109/TBME.2022.3192309</t>
+  </si>
+  <si>
+    <t>Synthesizing MR Image Contrast Enhancement Using 3D High-resolution ConvNets.</t>
+  </si>
+  <si>
+    <t>10.1109/TMI.2022.3192483</t>
+  </si>
+  <si>
+    <t>Personalized Retrogress-Resilient Federated Learning Towards Imbalanced Medical Data.</t>
+  </si>
+  <si>
+    <t>10.1109/TNSRE.2022.3192431</t>
+  </si>
+  <si>
+    <t>A Multimodal Approach for Identifying Autism Spectrum Disorders in Children.</t>
+  </si>
+  <si>
+    <t>10.1109/TNNLS.2022.3186855</t>
+  </si>
+  <si>
+    <t>Temporal Output Discrepancy for Loss Estimation-Based Active Learning.</t>
+  </si>
+  <si>
+    <t>10.1109/TNNLS.2022.3190984</t>
+  </si>
+  <si>
+    <t>Probabilistic Causal Effect Estimation With Global Neural Network Forecasting Models.</t>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3192139</t>
+  </si>
+  <si>
+    <t>Automated Pulmonary Nodule Classification and Detection Using Deep Learning Architectures.</t>
+  </si>
+  <si>
+    <t>10.2196/37201</t>
+  </si>
+  <si>
+    <t>Extraction of Explicit and Implicit Cause-Effect Relationships in Patient-Reported Diabetes-Related Tweets From 2017 to 2021: Deep Learning Approach.</t>
+  </si>
+  <si>
+    <t>JMIR medical informatics</t>
+  </si>
+  <si>
+    <t>10.1007/s11060-022-04080-x</t>
+  </si>
+  <si>
+    <t>A deep learning model for discriminating true progression from pseudoprogression in glioblastoma patients.</t>
+  </si>
+  <si>
+    <t>Journal of neuro-oncology</t>
+  </si>
+  <si>
+    <t>10.1186/s40658-022-00476-w</t>
+  </si>
+  <si>
+    <t>Analysis of a deep learning-based method for generation of SPECT projections based on a large Monte Carlo simulated dataset.</t>
+  </si>
+  <si>
+    <t>EJNMMI physics</t>
+  </si>
+  <si>
+    <t>10.1007/s00586-022-07320-w</t>
+  </si>
+  <si>
+    <t>An externally validated deep learning model for the accurate segmentation of the lumbar paravertebral muscles.</t>
+  </si>
+  <si>
+    <t>10.1007/s00330-022-08981-3</t>
+  </si>
+  <si>
+    <t>Applications of machine learning for imaging-driven diagnosis of musculoskeletal malignancies-a scoping review.</t>
+  </si>
+  <si>
+    <t>10.1007/s00259-022-05909-3</t>
+  </si>
+  <si>
+    <t>Quantitative evaluation of a deep learning-based framework to generate whole-body attenuation maps using LSO background radiation in long axial FOV PET scanners.</t>
+  </si>
+  <si>
+    <t>European journal of nuclear medicine and molecular imaging</t>
+  </si>
+  <si>
+    <t>10.1002/jmri.28365</t>
+  </si>
+  <si>
+    <t>Generalizability of Deep Learning Segmentation Algorithms for Automated Assessment of Cartilage Morphology and MRI Relaxometry.</t>
+  </si>
+  <si>
+    <t>10.1093/jas/skac242</t>
+  </si>
+  <si>
+    <t>Predicting ribeye area and circularity in live calves through 3d image analyses of body surface.</t>
+  </si>
+  <si>
+    <t>Journal of animal science</t>
+  </si>
+  <si>
+    <t>10.1148/radiol.211860</t>
+  </si>
+  <si>
+    <t>Deep Learning to Predict Neonatal and Infant Brain Age from Myelination on Brain MRI Scans.</t>
+  </si>
+  <si>
+    <t>10.1148/radiol.212482</t>
+  </si>
+  <si>
+    <t>Simplified Transfer Learning for Chest Radiography Models Using Less Data.</t>
+  </si>
+  <si>
+    <t>10.1002/hep4.2029</t>
+  </si>
+  <si>
+    <t>A flexible three-dimensional heterophase computed tomography hepatocellular carcinoma detection algorithm for generalizable and practical screening.</t>
+  </si>
+  <si>
+    <t>Hepatology communications</t>
+  </si>
+  <si>
+    <t>10.52312/jdrs.2022.57906</t>
+  </si>
+  <si>
+    <t>Artificial intelligence, machine learning, and deep learning in orthopedic surgery.</t>
+  </si>
+  <si>
+    <t>Joint diseases and related surgery</t>
+  </si>
+  <si>
+    <t>10.1111/nph.18387</t>
+  </si>
+  <si>
+    <t>RootPainter: Deep Learning Segmentation of Biological Images with Corrective Annotation.</t>
+  </si>
+  <si>
+    <t>The New phytologist</t>
+  </si>
+  <si>
+    <t>10.1007/s12021-022-09594-3</t>
+  </si>
+  <si>
+    <t>Super-resolution Segmentation Network for Reconstruction of Packed Neurites.</t>
+  </si>
+  <si>
+    <t>Neuroinformatics</t>
+  </si>
+  <si>
+    <t>10.1007/s11427-021-2131-6</t>
+  </si>
+  <si>
+    <t>Plant synthetic epigenomic engineering for crop improvement.</t>
+  </si>
+  <si>
+    <t>Science China. Life sciences</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-15632-6</t>
+  </si>
+  <si>
+    <t>An integrated framework for breast mass classification and diagnosis using stacked ensemble of residual neural networks.</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16388-9</t>
+  </si>
+  <si>
+    <t>Improving automatic liver tumor segmentation in late-phase MRI using multi-model training and 3D convolutional neural networks.</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16283-3</t>
+  </si>
+  <si>
+    <t>Comparative analysis of high- and low-level deep learning approaches in microsatellite instability prediction.</t>
+  </si>
+  <si>
+    <t>10.19540/j.cnki.cjcmm.20220114.601</t>
+  </si>
+  <si>
+    <t>[Construction of knowledge base of Chinese medicine manufacturing].</t>
+  </si>
+  <si>
+    <t>Zhongguo Zhong yao za zhi = Zhongguo zhongyao zazhi = China journal of Chinese materia medica</t>
+  </si>
+  <si>
+    <t>10.1136/bmjopen-2021-059000</t>
+  </si>
+  <si>
+    <t>Deep learning for automatic brain tumour segmentation on MRI: evaluation of recommended reporting criteria via a reproduction and replication study.</t>
+  </si>
+  <si>
+    <t>BMJ open</t>
+  </si>
+  <si>
+    <t>10.1016/j.crad.2022.06.011</t>
+  </si>
+  <si>
+    <t>Automated detection of enteric tubes misplaced in the respiratory tract on chest radiographs using deep learning with two centre validation.</t>
+  </si>
+  <si>
+    <t>10.1016/j.gep.2022.119263</t>
+  </si>
+  <si>
+    <t>Leveraging ShuffleNet transfer learning to enhance handwritten character recognition.</t>
+  </si>
+  <si>
+    <t>Gene expression patterns : GEP</t>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105863</t>
+  </si>
+  <si>
+    <t>MGNN: A multiscale grouped convolutional neural network for efficient atrial fibrillation detection.</t>
+  </si>
+  <si>
+    <t>10.1016/j.compbiomed.2022.105831</t>
+  </si>
+  <si>
+    <t>An efficient deep equilibrium model for medical image segmentation.</t>
+  </si>
+  <si>
+    <t>10.1016/j.ejmech.2022.114556</t>
+  </si>
+  <si>
+    <t>AI-based prediction of new binding site and virtual screening for the discovery of novel P2X3 receptor antagonists.</t>
+  </si>
+  <si>
+    <t>European journal of medicinal chemistry</t>
+  </si>
+  <si>
+    <t>10.1186/s12938-022-01018-2</t>
+  </si>
+  <si>
+    <t>Application of artificial intelligence-based dual-modality analysis combining fundus photography and optical coherence tomography in diabetic retinopathy screening in a community hospital.</t>
+  </si>
+  <si>
+    <t>Biomedical engineering online</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16798-9</t>
+  </si>
+  <si>
+    <t>The evaluation of the reduction of radiation dose via deep learning-based reconstruction for cadaveric human lung CT images.</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-022-16262-8</t>
+  </si>
+  <si>
+    <t>Multi-task deep learning for glaucoma detection from color fundus images.</t>
+  </si>
+  <si>
+    <t>10.1186/s12864-022-08565-x</t>
+  </si>
+  <si>
+    <t>Deep learning for de-convolution of Smad2 versus Smad3 binding sites.</t>
+  </si>
+  <si>
+    <t>BMC genomics</t>
+  </si>
+  <si>
+    <t>10.1016/j.cmpb.2022.106990</t>
+  </si>
+  <si>
+    <t>MemBrain: A deep learning-aided pipeline for detection of membrane proteins in Cryo-electron tomograms.</t>
+  </si>
+  <si>
+    <t>10.1002/ctm2.950</t>
+  </si>
+  <si>
+    <t>Deep learning analysis of single-cell data in empowering clinical implementation.</t>
+  </si>
+  <si>
+    <t>10.1002/art.42296</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence and Deep Learning for Rheumatologists: A Primer and Review of the Literature.</t>
+  </si>
+  <si>
+    <t>Arthritis &amp; rheumatology (Hoboken, N.J.)</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0271724</t>
+  </si>
+  <si>
+    <t>Fully automated image quality evaluation on patient CT: Multi-vendor and multi-reconstruction study.</t>
+  </si>
+  <si>
+    <t>10.1109/TCBB.2022.3192572</t>
+  </si>
+  <si>
+    <t>DL-M6A: Identification of N6-Methyladenosine Sites in Mammals Using Deep Learning Based on Different Encoding Schemes.</t>
+  </si>
+  <si>
+    <t>10.1109/TNNLS.2022.3190367</t>
+  </si>
+  <si>
+    <t>An Effective Video Transformer With Synchronized Spatiotemporal and Spatial Self-Attention for Action Recognition.</t>
+  </si>
+  <si>
+    <t>10.1126/scitranslmed.abl5654</t>
+  </si>
+  <si>
+    <t>Phenotypic screening with deep learning identifies HDAC6 inhibitors as cardioprotective in a BAG3 mouse model of dilated cardiomyopathy.</t>
+  </si>
+  <si>
+    <t>Science translational medicine</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.abm2219</t>
+  </si>
+  <si>
+    <t>Reassessing hierarchical correspondences between brain and deep networks through direct interface.</t>
+  </si>
+  <si>
+    <t>Science advances</t>
+  </si>
+  <si>
+    <t>10.1126/sciadv.abn7905</t>
+  </si>
+  <si>
+    <t>Homeostatic neuro-metasurfaces for dynamic wireless channel management.</t>
+  </si>
+  <si>
+    <t>10.1007/s00417-022-05741-3</t>
+  </si>
+  <si>
+    <t>Deep learning for ultra-widefield imaging: a scoping review.</t>
+  </si>
+  <si>
+    <t>Graefe's archive for clinical and experimental ophthalmology = Albrecht von Graefes Archiv fur klinische und experimentelle Ophthalmologie</t>
+  </si>
+  <si>
+    <t>10.1002/anie.202209337</t>
+  </si>
+  <si>
+    <t>Deep Learning for Additive Screening in Perovskite Light-Emitting Diodes.</t>
+  </si>
+  <si>
+    <t>Angewandte Chemie (International ed. in English)</t>
+  </si>
+  <si>
+    <t>10.1111/jre.13037</t>
+  </si>
+  <si>
+    <t>Deep learning in periodontology and oral implantology: A聽scoping review.</t>
+  </si>
+  <si>
+    <t>Journal of periodontal research</t>
+  </si>
+  <si>
+    <t>10.1007/s11517-022-02622-z</t>
+  </si>
+  <si>
+    <t>Complex carotid artery segmentation in multi-contrast MR sequences by improved optimal surface graph cuts based on flow line learning.</t>
+  </si>
+  <si>
+    <t>10.1038/s43856-022-00157-w</t>
+  </si>
+  <si>
+    <t>Using deep learning-based natural language processing to identify reasons for statin nonuse in patients with atherosclerotic cardiovascular disease.</t>
+  </si>
+  <si>
+    <t>Communications medicine</t>
+  </si>
+  <si>
+    <t>10.1016/j.eclinm.2022.101543</t>
+  </si>
+  <si>
+    <t>Smartphone-based artificial intelligence using a transfer learning algorithm for the detection and diagnosis of middle ear diseases: A retrospective deep learning study.</t>
+  </si>
+  <si>
+    <t>EClinicalMedicine</t>
+  </si>
+  <si>
+    <t>10.1016/j.bspc.2022.103977</t>
+  </si>
+  <si>
+    <t>Deep learning-based approach for detecting COVID-19 in chest X-rays.</t>
+  </si>
+  <si>
+    <t>Biomedical signal processing and control</t>
+  </si>
+  <si>
+    <t>10.1155/2022/1828782</t>
+  </si>
+  <si>
+    <t>Correlation Analysis between the Emotion and Aesthetics for Chinese Classical Garden Design Based on Deep Transfer Learning.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/4298235</t>
+  </si>
+  <si>
+    <t>Prediction of Retail Price of Sporting Goods Based on LSTM Network.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/3170244</t>
+  </si>
+  <si>
+    <t>Early Detection of Forest Fire Using Mixed Learning Techniques and UAV.</t>
+  </si>
+  <si>
+    <t>10.1155/2022/5794914</t>
+  </si>
+  <si>
+    <t>Human Sports Action and Ideological and PoliticalEvaluation by Lightweight Deep Learning Model.</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-022-13302-3</t>
+  </si>
+  <si>
+    <t>Speech enhancement using long short term memory with trained speech features and adaptive wiener filter.</t>
+  </si>
+  <si>
+    <t>Multimedia tools and applications</t>
+  </si>
+  <si>
+    <t>10.1016/j.bspc.2022.104000</t>
+  </si>
+  <si>
+    <t>COVID-19 chest X-ray detection through blending ensemble of CNN snapshots.</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-022-13443-5</t>
+  </si>
+  <si>
+    <t>An accurate generation of image captions for blind people using extended convolutional atom neural network.</t>
+  </si>
+  <si>
+    <t>10.1007/s41666-022-00118-x</t>
+  </si>
+  <si>
+    <t>Auto Response Generation in Online Medical Chat Services.</t>
+  </si>
+  <si>
+    <t>Journal of healthcare informatics research</t>
+  </si>
+  <si>
+    <t>10.1155/2022/4795307</t>
+  </si>
+  <si>
+    <t>Classification Algorithms for Brain Magnetic Resonance Imaging Images of Patients with End-Stage Renal Disease and Depression.</t>
+  </si>
+  <si>
+    <t>Prior Knowledge Enhances Radiology Report Generation.</t>
+  </si>
+  <si>
+    <t>AMIA ... Annual Symposium proceedings. AMIA Symposium</t>
+  </si>
+  <si>
+    <t>Applying Natural Language Processing Neural Network Architectures to Augment Appointment Request Review of Self-Referred Patients to an Academic Medical Center.</t>
+  </si>
+  <si>
+    <t>MetBERT: a generalizable and pre-trained deep learning model for the prediction of metastatic cancer from clinical notes.</t>
+  </si>
+  <si>
+    <t>Automated Dental Cavity Detection System Using Deep Learning and Explainable AI.</t>
+  </si>
+  <si>
+    <t>10.1103/PhysRevE.105.064118</t>
+  </si>
+  <si>
+    <t>Contrasting random and learned features in deep Bayesian linear regression.</t>
+  </si>
+  <si>
+    <t>Physical review. E</t>
+  </si>
+  <si>
+    <t>10.1103/PhysRevE.105.064309</t>
+  </si>
+  <si>
+    <t>Universal mean-field upper bound for the generalization gap of deep neural networks.</t>
+  </si>
+  <si>
+    <t>10.14814/phy2.15341</t>
+  </si>
+  <si>
+    <t>Multiple mechanisms underlie reduced potassium conductance in the p.T1019PfsX38 variant of hERG.</t>
+  </si>
+  <si>
+    <t>Physiological reports</t>
+  </si>
+  <si>
+    <t>结合眼底摄影和光学相干断层扫描，在社区医院筛查糖尿病视网膜病变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病视网膜病变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼底摄影图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尸体肺部CT图像重建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺部病变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从彩色眼底图像中检测青光眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青光眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smad2 与 Smad3 结合位点识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChIP-seq 数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测低温电子断层图中膜蛋白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白结构分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温电子断层图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单细胞数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习，用于单细胞数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述：风湿病相关的深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风湿病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者 CT 的全自动图像质量评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别哺乳动物中的 N6-甲基腺苷位点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种用于动作识别的具有同步时空和空间自注意力的有效视频转换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用深度学习的表型筛选将 HDAC6 抑制剂鉴定为 BAG3 扩张型心肌病小鼠模型中的心脏保护作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表型筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过直接接口重新评估大脑和深度网络之间的层次对应关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于动态无线信道管理的稳态神经元表面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述：超宽场成像的深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钙钛矿发光二极管中添加剂筛选的深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综述：牙周病学和口腔种植学中的深度学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙周病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牙科与口腔科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于流线学习的改进的最佳表面图切割在多对比 MR 序列中的复杂颈动脉​​分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用基于深度学习的自然语言处理来确定动脉粥样硬化性心血管疾病患者未使用他汀类药物的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于智能手机的人工智能使用迁移学习算法检测和诊断中耳疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中耳疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">检测胸部 X 光片中的 COVID-19 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于深度迁移学习的中国古典园林设计情感与审美相关性分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于LSTM网络的体育用品零售价格预测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用混合学习技术和无人机早期检测森林火灾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于轻量级深度学习模型的人类体育行动与思想政治评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用经过训练的语音特征和自适应维纳滤波器的长期短期记忆进行语音增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过融合 CNN 快照的集合进行 COVID-19 胸部 X 射线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用扩展卷积原子神经网络为盲人准确生成图像说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线医疗聊天服务中的自动响应生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终末期肾病和抑郁症患者脑磁共振成像图像的分类算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾病、抑郁症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先验知识增强了放射学报告的生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用自然语言处理神经网络架构来增加对学术医疗中心自荐患者的预约请求审查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从临床记录中预测转移性癌症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用深度学习和可解释人工智能的自动牙腔检测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比深度贝叶斯线性回归中的随机特征和学习特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度神经网络泛化差距的通用平均场上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种机制是 hERG 的 p.T1019PfsX38 变体中钾电导降低的基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6499,11 +7755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866CBFFE-03AD-46A4-AA9F-318EF5E0B526}">
-  <dimension ref="A1:N623"/>
+  <dimension ref="A1:N762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I589" sqref="I589"/>
+      <pane ySplit="1" topLeftCell="A684" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I688" sqref="I688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27373,6 +28629,4810 @@
         <v>1765</v>
       </c>
     </row>
+    <row r="624" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A624" s="3">
+        <v>622</v>
+      </c>
+      <c r="B624" s="3">
+        <v>1</v>
+      </c>
+      <c r="C624" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D624" s="3">
+        <v>35849684</v>
+      </c>
+      <c r="E624" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F624" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G624" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H624" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I624" s="7" t="s">
+        <v>1931</v>
+      </c>
+      <c r="J624" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K624" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L624" s="7" t="s">
+        <v>1932</v>
+      </c>
+      <c r="M624" s="7"/>
+      <c r="N624" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A625" s="3">
+        <v>623</v>
+      </c>
+      <c r="B625" s="3">
+        <v>2</v>
+      </c>
+      <c r="C625" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D625" s="3">
+        <v>35849680</v>
+      </c>
+      <c r="E625" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F625" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G625" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H625" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I625" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="J625" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K625" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L625" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M625" s="7"/>
+      <c r="N625" s="7" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A626" s="3">
+        <v>624</v>
+      </c>
+      <c r="B626" s="3">
+        <v>3</v>
+      </c>
+      <c r="C626" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D626" s="3">
+        <v>35849679</v>
+      </c>
+      <c r="E626" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F626" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G626" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H626" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I626" s="7"/>
+      <c r="J626" s="9"/>
+      <c r="K626" s="7"/>
+      <c r="L626" s="7"/>
+      <c r="M626" s="7"/>
+      <c r="N626" s="7"/>
+    </row>
+    <row r="627" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A627" s="3">
+        <v>625</v>
+      </c>
+      <c r="B627" s="3">
+        <v>4</v>
+      </c>
+      <c r="C627" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D627" s="3">
+        <v>35849678</v>
+      </c>
+      <c r="E627" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F627" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G627" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H627" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I627" s="7"/>
+      <c r="J627" s="9"/>
+      <c r="K627" s="7"/>
+      <c r="L627" s="7"/>
+      <c r="M627" s="7"/>
+      <c r="N627" s="7"/>
+    </row>
+    <row r="628" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A628" s="3">
+        <v>626</v>
+      </c>
+      <c r="B628" s="3">
+        <v>5</v>
+      </c>
+      <c r="C628" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D628" s="3">
+        <v>35849666</v>
+      </c>
+      <c r="E628" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F628" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G628" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H628" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I628" s="7"/>
+      <c r="J628" s="9"/>
+      <c r="K628" s="7"/>
+      <c r="L628" s="7"/>
+      <c r="M628" s="7"/>
+      <c r="N628" s="7"/>
+    </row>
+    <row r="629" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A629" s="3">
+        <v>627</v>
+      </c>
+      <c r="B629" s="3">
+        <v>6</v>
+      </c>
+      <c r="C629" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D629" s="3">
+        <v>35849665</v>
+      </c>
+      <c r="E629" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F629" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G629" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H629" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I629" s="7"/>
+      <c r="J629" s="9"/>
+      <c r="K629" s="7"/>
+      <c r="L629" s="7"/>
+      <c r="M629" s="7"/>
+      <c r="N629" s="7"/>
+    </row>
+    <row r="630" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A630" s="3">
+        <v>628</v>
+      </c>
+      <c r="B630" s="3">
+        <v>7</v>
+      </c>
+      <c r="C630" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D630" s="3">
+        <v>35849664</v>
+      </c>
+      <c r="E630" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F630" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G630" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H630" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I630" s="7"/>
+      <c r="J630" s="9"/>
+      <c r="K630" s="7"/>
+      <c r="L630" s="7"/>
+      <c r="M630" s="7"/>
+      <c r="N630" s="7"/>
+    </row>
+    <row r="631" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A631" s="3">
+        <v>629</v>
+      </c>
+      <c r="B631" s="3">
+        <v>8</v>
+      </c>
+      <c r="C631" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D631" s="3">
+        <v>35849663</v>
+      </c>
+      <c r="E631" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F631" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G631" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H631" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I631" s="7"/>
+      <c r="J631" s="9"/>
+      <c r="K631" s="7"/>
+      <c r="L631" s="7"/>
+      <c r="M631" s="7"/>
+      <c r="N631" s="7"/>
+    </row>
+    <row r="632" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A632" s="3">
+        <v>630</v>
+      </c>
+      <c r="B632" s="3">
+        <v>9</v>
+      </c>
+      <c r="C632" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D632" s="3">
+        <v>35849628</v>
+      </c>
+      <c r="E632" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F632" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G632" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H632" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I632" s="7"/>
+      <c r="J632" s="9"/>
+      <c r="K632" s="7"/>
+      <c r="L632" s="7"/>
+      <c r="M632" s="7"/>
+      <c r="N632" s="7"/>
+    </row>
+    <row r="633" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A633" s="3">
+        <v>631</v>
+      </c>
+      <c r="B633" s="3">
+        <v>10</v>
+      </c>
+      <c r="C633" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D633" s="3">
+        <v>35849321</v>
+      </c>
+      <c r="E633" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F633" s="7" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G633" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H633" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I633" s="7"/>
+      <c r="J633" s="9"/>
+      <c r="K633" s="7"/>
+      <c r="L633" s="7"/>
+      <c r="M633" s="7"/>
+      <c r="N633" s="7"/>
+    </row>
+    <row r="634" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A634" s="3">
+        <v>632</v>
+      </c>
+      <c r="B634" s="3">
+        <v>11</v>
+      </c>
+      <c r="C634" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D634" s="3">
+        <v>35849101</v>
+      </c>
+      <c r="E634" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F634" s="7" t="s">
+        <v>1802</v>
+      </c>
+      <c r="G634" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H634" s="5">
+        <v>44759</v>
+      </c>
+      <c r="I634" s="7"/>
+      <c r="J634" s="9"/>
+      <c r="K634" s="7"/>
+      <c r="L634" s="7"/>
+      <c r="M634" s="7"/>
+      <c r="N634" s="7"/>
+    </row>
+    <row r="635" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A635" s="3">
+        <v>633</v>
+      </c>
+      <c r="B635" s="3">
+        <v>12</v>
+      </c>
+      <c r="C635" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D635" s="3">
+        <v>35849097</v>
+      </c>
+      <c r="E635" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F635" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G635" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H635" s="5">
+        <v>44759</v>
+      </c>
+      <c r="I635" s="7"/>
+      <c r="J635" s="9"/>
+      <c r="K635" s="7"/>
+      <c r="L635" s="7"/>
+      <c r="M635" s="7"/>
+      <c r="N635" s="7"/>
+    </row>
+    <row r="636" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A636" s="3">
+        <v>634</v>
+      </c>
+      <c r="B636" s="3">
+        <v>13</v>
+      </c>
+      <c r="C636" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D636" s="3">
+        <v>35849066</v>
+      </c>
+      <c r="E636" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F636" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G636" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H636" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I636" s="7"/>
+      <c r="J636" s="9"/>
+      <c r="K636" s="7"/>
+      <c r="L636" s="7"/>
+      <c r="M636" s="7"/>
+      <c r="N636" s="7"/>
+    </row>
+    <row r="637" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A637" s="3">
+        <v>635</v>
+      </c>
+      <c r="B637" s="3">
+        <v>14</v>
+      </c>
+      <c r="C637" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D637" s="3">
+        <v>35848999</v>
+      </c>
+      <c r="E637" s="7" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F637" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G637" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H637" s="5">
+        <v>44739</v>
+      </c>
+      <c r="I637" s="7"/>
+      <c r="J637" s="9"/>
+      <c r="K637" s="7"/>
+      <c r="L637" s="7"/>
+      <c r="M637" s="7"/>
+      <c r="N637" s="7"/>
+    </row>
+    <row r="638" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A638" s="3">
+        <v>636</v>
+      </c>
+      <c r="B638" s="3">
+        <v>15</v>
+      </c>
+      <c r="C638" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D638" s="3">
+        <v>35848851</v>
+      </c>
+      <c r="E638" s="7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F638" s="7" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G638" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H638" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I638" s="7"/>
+      <c r="J638" s="9"/>
+      <c r="K638" s="7"/>
+      <c r="L638" s="7"/>
+      <c r="M638" s="7"/>
+      <c r="N638" s="7"/>
+    </row>
+    <row r="639" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A639" s="3">
+        <v>637</v>
+      </c>
+      <c r="B639" s="3">
+        <v>16</v>
+      </c>
+      <c r="C639" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D639" s="3">
+        <v>35848005</v>
+      </c>
+      <c r="E639" s="7" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F639" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="G639" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H639" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I639" s="7"/>
+      <c r="J639" s="9"/>
+      <c r="K639" s="7"/>
+      <c r="L639" s="7"/>
+      <c r="M639" s="7"/>
+      <c r="N639" s="7"/>
+    </row>
+    <row r="640" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A640" s="3">
+        <v>638</v>
+      </c>
+      <c r="B640" s="3">
+        <v>17</v>
+      </c>
+      <c r="C640" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D640" s="3">
+        <v>35847991</v>
+      </c>
+      <c r="E640" s="7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="F640" s="7" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G640" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H640" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I640" s="7"/>
+      <c r="J640" s="9"/>
+      <c r="K640" s="7"/>
+      <c r="L640" s="7"/>
+      <c r="M640" s="7"/>
+      <c r="N640" s="7"/>
+    </row>
+    <row r="641" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A641" s="3">
+        <v>639</v>
+      </c>
+      <c r="B641" s="3">
+        <v>18</v>
+      </c>
+      <c r="C641" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D641" s="3">
+        <v>35847966</v>
+      </c>
+      <c r="E641" s="7" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F641" s="7" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G641" s="7" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H641" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I641" s="7"/>
+      <c r="J641" s="9"/>
+      <c r="K641" s="7"/>
+      <c r="L641" s="7"/>
+      <c r="M641" s="7"/>
+      <c r="N641" s="7"/>
+    </row>
+    <row r="642" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A642" s="3">
+        <v>640</v>
+      </c>
+      <c r="B642" s="3">
+        <v>19</v>
+      </c>
+      <c r="C642" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D642" s="3">
+        <v>35847931</v>
+      </c>
+      <c r="E642" s="7" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F642" s="7" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G642" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H642" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I642" s="7"/>
+      <c r="J642" s="9"/>
+      <c r="K642" s="7"/>
+      <c r="L642" s="7"/>
+      <c r="M642" s="7"/>
+      <c r="N642" s="7"/>
+    </row>
+    <row r="643" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A643" s="3">
+        <v>641</v>
+      </c>
+      <c r="B643" s="3">
+        <v>20</v>
+      </c>
+      <c r="C643" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D643" s="3">
+        <v>35847879</v>
+      </c>
+      <c r="E643" s="7" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F643" s="7" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G643" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H643" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I643" s="7"/>
+      <c r="J643" s="9"/>
+      <c r="K643" s="7"/>
+      <c r="L643" s="7"/>
+      <c r="M643" s="7"/>
+      <c r="N643" s="7"/>
+    </row>
+    <row r="644" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A644" s="3">
+        <v>642</v>
+      </c>
+      <c r="B644" s="3">
+        <v>21</v>
+      </c>
+      <c r="C644" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D644" s="3">
+        <v>35847874</v>
+      </c>
+      <c r="E644" s="7" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F644" s="7" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G644" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H644" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I644" s="7"/>
+      <c r="J644" s="9"/>
+      <c r="K644" s="7"/>
+      <c r="L644" s="7"/>
+      <c r="M644" s="7"/>
+      <c r="N644" s="7"/>
+    </row>
+    <row r="645" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A645" s="3">
+        <v>643</v>
+      </c>
+      <c r="B645" s="3">
+        <v>22</v>
+      </c>
+      <c r="C645" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D645" s="3">
+        <v>35847818</v>
+      </c>
+      <c r="E645" s="7" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F645" s="7" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G645" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H645" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I645" s="7"/>
+      <c r="J645" s="9"/>
+      <c r="K645" s="7"/>
+      <c r="L645" s="7"/>
+      <c r="M645" s="7"/>
+      <c r="N645" s="7"/>
+    </row>
+    <row r="646" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A646" s="3">
+        <v>644</v>
+      </c>
+      <c r="B646" s="3">
+        <v>23</v>
+      </c>
+      <c r="C646" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D646" s="3">
+        <v>35847781</v>
+      </c>
+      <c r="E646" s="7" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F646" s="7" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G646" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H646" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I646" s="7"/>
+      <c r="J646" s="9"/>
+      <c r="K646" s="7"/>
+      <c r="L646" s="7"/>
+      <c r="M646" s="7"/>
+      <c r="N646" s="7"/>
+    </row>
+    <row r="647" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A647" s="3">
+        <v>645</v>
+      </c>
+      <c r="B647" s="3">
+        <v>24</v>
+      </c>
+      <c r="C647" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D647" s="3">
+        <v>35847603</v>
+      </c>
+      <c r="E647" s="7" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F647" s="7" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G647" s="7" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H647" s="5">
+        <v>44738</v>
+      </c>
+      <c r="I647" s="7"/>
+      <c r="J647" s="9"/>
+      <c r="K647" s="7"/>
+      <c r="L647" s="7"/>
+      <c r="M647" s="7"/>
+      <c r="N647" s="7"/>
+    </row>
+    <row r="648" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A648" s="3">
+        <v>646</v>
+      </c>
+      <c r="B648" s="3">
+        <v>25</v>
+      </c>
+      <c r="C648" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D648" s="3">
+        <v>35847549</v>
+      </c>
+      <c r="E648" s="7" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F648" s="7" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G648" s="7" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H648" s="5">
+        <v>44671</v>
+      </c>
+      <c r="I648" s="7"/>
+      <c r="J648" s="9"/>
+      <c r="K648" s="7"/>
+      <c r="L648" s="7"/>
+      <c r="M648" s="7"/>
+      <c r="N648" s="7"/>
+    </row>
+    <row r="649" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A649" s="3">
+        <v>647</v>
+      </c>
+      <c r="B649" s="3">
+        <v>26</v>
+      </c>
+      <c r="C649" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D649" s="3">
+        <v>35847538</v>
+      </c>
+      <c r="E649" s="7" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F649" s="7" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G649" s="7" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H649" s="5">
+        <v>44564</v>
+      </c>
+      <c r="I649" s="7"/>
+      <c r="J649" s="9"/>
+      <c r="K649" s="7"/>
+      <c r="L649" s="7"/>
+      <c r="M649" s="7"/>
+      <c r="N649" s="7"/>
+    </row>
+    <row r="650" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A650" s="3">
+        <v>648</v>
+      </c>
+      <c r="B650" s="3">
+        <v>27</v>
+      </c>
+      <c r="C650" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D650" s="3">
+        <v>35847481</v>
+      </c>
+      <c r="E650" s="7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F650" s="7" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G650" s="7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H650" s="5">
+        <v>44655</v>
+      </c>
+      <c r="I650" s="7"/>
+      <c r="J650" s="9"/>
+      <c r="K650" s="7"/>
+      <c r="L650" s="7"/>
+      <c r="M650" s="7"/>
+      <c r="N650" s="7"/>
+    </row>
+    <row r="651" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A651" s="3">
+        <v>649</v>
+      </c>
+      <c r="B651" s="3">
+        <v>28</v>
+      </c>
+      <c r="C651" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D651" s="3">
+        <v>35847264</v>
+      </c>
+      <c r="E651" s="7" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F651" s="7" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G651" s="7" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H651" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I651" s="7"/>
+      <c r="J651" s="9"/>
+      <c r="K651" s="7"/>
+      <c r="L651" s="7"/>
+      <c r="M651" s="7"/>
+      <c r="N651" s="7"/>
+    </row>
+    <row r="652" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A652" s="3">
+        <v>650</v>
+      </c>
+      <c r="B652" s="3">
+        <v>29</v>
+      </c>
+      <c r="C652" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D652" s="3">
+        <v>35847201</v>
+      </c>
+      <c r="E652" s="7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F652" s="7" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G652" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H652" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I652" s="7"/>
+      <c r="J652" s="9"/>
+      <c r="K652" s="7"/>
+      <c r="L652" s="7"/>
+      <c r="M652" s="7"/>
+      <c r="N652" s="7"/>
+    </row>
+    <row r="653" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A653" s="3">
+        <v>651</v>
+      </c>
+      <c r="B653" s="3">
+        <v>30</v>
+      </c>
+      <c r="C653" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D653" s="3">
+        <v>35847178</v>
+      </c>
+      <c r="E653" s="7" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F653" s="7" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G653" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H653" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I653" s="7"/>
+      <c r="J653" s="9"/>
+      <c r="K653" s="7"/>
+      <c r="L653" s="7"/>
+      <c r="M653" s="7"/>
+      <c r="N653" s="7"/>
+    </row>
+    <row r="654" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A654" s="3">
+        <v>652</v>
+      </c>
+      <c r="B654" s="3">
+        <v>31</v>
+      </c>
+      <c r="C654" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D654" s="3">
+        <v>35846621</v>
+      </c>
+      <c r="E654" s="7" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F654" s="7" t="s">
+        <v>1852</v>
+      </c>
+      <c r="G654" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H654" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I654" s="7"/>
+      <c r="J654" s="9"/>
+      <c r="K654" s="7"/>
+      <c r="L654" s="7"/>
+      <c r="M654" s="7"/>
+      <c r="N654" s="7"/>
+    </row>
+    <row r="655" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A655" s="3">
+        <v>653</v>
+      </c>
+      <c r="B655" s="3">
+        <v>32</v>
+      </c>
+      <c r="C655" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D655" s="3">
+        <v>35846596</v>
+      </c>
+      <c r="E655" s="7" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F655" s="7" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G655" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H655" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I655" s="7"/>
+      <c r="J655" s="9"/>
+      <c r="K655" s="7"/>
+      <c r="L655" s="7"/>
+      <c r="M655" s="7"/>
+      <c r="N655" s="7"/>
+    </row>
+    <row r="656" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A656" s="3">
+        <v>654</v>
+      </c>
+      <c r="B656" s="3">
+        <v>33</v>
+      </c>
+      <c r="C656" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D656" s="3">
+        <v>35846479</v>
+      </c>
+      <c r="E656" s="7" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F656" s="7" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G656" s="7" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H656" s="5">
+        <v>44648</v>
+      </c>
+      <c r="I656" s="7"/>
+      <c r="J656" s="9"/>
+      <c r="K656" s="7"/>
+      <c r="L656" s="7"/>
+      <c r="M656" s="7"/>
+      <c r="N656" s="7"/>
+    </row>
+    <row r="657" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A657" s="3">
+        <v>655</v>
+      </c>
+      <c r="B657" s="3">
+        <v>34</v>
+      </c>
+      <c r="C657" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D657" s="3">
+        <v>35846444</v>
+      </c>
+      <c r="E657" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F657" s="7" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G657" s="7" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H657" s="5">
+        <v>44642</v>
+      </c>
+      <c r="I657" s="7"/>
+      <c r="J657" s="9"/>
+      <c r="K657" s="7"/>
+      <c r="L657" s="7"/>
+      <c r="M657" s="7"/>
+      <c r="N657" s="7"/>
+    </row>
+    <row r="658" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A658" s="3">
+        <v>656</v>
+      </c>
+      <c r="B658" s="3">
+        <v>35</v>
+      </c>
+      <c r="C658" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D658" s="3">
+        <v>35846287</v>
+      </c>
+      <c r="E658" s="7" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F658" s="7" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G658" s="7" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H658" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I658" s="7"/>
+      <c r="J658" s="9"/>
+      <c r="K658" s="7"/>
+      <c r="L658" s="7"/>
+      <c r="M658" s="7"/>
+      <c r="N658" s="7"/>
+    </row>
+    <row r="659" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A659" s="3">
+        <v>657</v>
+      </c>
+      <c r="B659" s="3">
+        <v>36</v>
+      </c>
+      <c r="C659" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D659" s="3">
+        <v>35846171</v>
+      </c>
+      <c r="E659" s="7" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F659" s="7" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G659" s="7" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H659" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I659" s="7"/>
+      <c r="J659" s="9"/>
+      <c r="K659" s="7"/>
+      <c r="L659" s="7"/>
+      <c r="M659" s="7"/>
+      <c r="N659" s="7"/>
+    </row>
+    <row r="660" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A660" s="3">
+        <v>658</v>
+      </c>
+      <c r="B660" s="3">
+        <v>37</v>
+      </c>
+      <c r="C660" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D660" s="3">
+        <v>35846151</v>
+      </c>
+      <c r="E660" s="7" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F660" s="7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G660" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H660" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I660" s="7"/>
+      <c r="J660" s="9"/>
+      <c r="K660" s="7"/>
+      <c r="L660" s="7"/>
+      <c r="M660" s="7"/>
+      <c r="N660" s="7"/>
+    </row>
+    <row r="661" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A661" s="3">
+        <v>659</v>
+      </c>
+      <c r="B661" s="3">
+        <v>38</v>
+      </c>
+      <c r="C661" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D661" s="3">
+        <v>35846006</v>
+      </c>
+      <c r="E661" s="7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F661" s="7" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G661" s="7" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H661" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I661" s="7"/>
+      <c r="J661" s="9"/>
+      <c r="K661" s="7"/>
+      <c r="L661" s="7"/>
+      <c r="M661" s="7"/>
+      <c r="N661" s="7"/>
+    </row>
+    <row r="662" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A662" s="3">
+        <v>660</v>
+      </c>
+      <c r="B662" s="3">
+        <v>39</v>
+      </c>
+      <c r="C662" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D662" s="3">
+        <v>35845987</v>
+      </c>
+      <c r="E662" s="7" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F662" s="7" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G662" s="7" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H662" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I662" s="7"/>
+      <c r="J662" s="9"/>
+      <c r="K662" s="7"/>
+      <c r="L662" s="7"/>
+      <c r="M662" s="7"/>
+      <c r="N662" s="7"/>
+    </row>
+    <row r="663" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A663" s="3">
+        <v>661</v>
+      </c>
+      <c r="B663" s="3">
+        <v>40</v>
+      </c>
+      <c r="C663" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D663" s="3">
+        <v>35845913</v>
+      </c>
+      <c r="E663" s="7" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F663" s="7" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G663" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H663" s="5">
+        <v>44750</v>
+      </c>
+      <c r="I663" s="7"/>
+      <c r="J663" s="9"/>
+      <c r="K663" s="7"/>
+      <c r="L663" s="7"/>
+      <c r="M663" s="7"/>
+      <c r="N663" s="7"/>
+    </row>
+    <row r="664" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A664" s="3">
+        <v>662</v>
+      </c>
+      <c r="B664" s="3">
+        <v>41</v>
+      </c>
+      <c r="C664" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D664" s="3">
+        <v>35845911</v>
+      </c>
+      <c r="E664" s="7" t="s">
+        <v>1875</v>
+      </c>
+      <c r="F664" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G664" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H664" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I664" s="7"/>
+      <c r="J664" s="9"/>
+      <c r="K664" s="7"/>
+      <c r="L664" s="7"/>
+      <c r="M664" s="7"/>
+      <c r="N664" s="7"/>
+    </row>
+    <row r="665" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A665" s="3">
+        <v>663</v>
+      </c>
+      <c r="B665" s="3">
+        <v>42</v>
+      </c>
+      <c r="C665" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D665" s="3">
+        <v>35845904</v>
+      </c>
+      <c r="E665" s="7" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F665" s="7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G665" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H665" s="5">
+        <v>44750</v>
+      </c>
+      <c r="I665" s="7"/>
+      <c r="J665" s="9"/>
+      <c r="K665" s="7"/>
+      <c r="L665" s="7"/>
+      <c r="M665" s="7"/>
+      <c r="N665" s="7"/>
+    </row>
+    <row r="666" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A666" s="3">
+        <v>664</v>
+      </c>
+      <c r="B666" s="3">
+        <v>43</v>
+      </c>
+      <c r="C666" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D666" s="3">
+        <v>35845898</v>
+      </c>
+      <c r="E666" s="7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F666" s="7" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G666" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H666" s="5">
+        <v>44748</v>
+      </c>
+      <c r="I666" s="7"/>
+      <c r="J666" s="9"/>
+      <c r="K666" s="7"/>
+      <c r="L666" s="7"/>
+      <c r="M666" s="7"/>
+      <c r="N666" s="7"/>
+    </row>
+    <row r="667" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A667" s="3">
+        <v>665</v>
+      </c>
+      <c r="B667" s="3">
+        <v>44</v>
+      </c>
+      <c r="C667" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D667" s="3">
+        <v>35845897</v>
+      </c>
+      <c r="E667" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F667" s="7" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G667" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H667" s="5">
+        <v>44749</v>
+      </c>
+      <c r="I667" s="7"/>
+      <c r="J667" s="9"/>
+      <c r="K667" s="7"/>
+      <c r="L667" s="7"/>
+      <c r="M667" s="7"/>
+      <c r="N667" s="7"/>
+    </row>
+    <row r="668" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A668" s="3">
+        <v>666</v>
+      </c>
+      <c r="B668" s="3">
+        <v>45</v>
+      </c>
+      <c r="C668" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D668" s="3">
+        <v>35845890</v>
+      </c>
+      <c r="E668" s="7" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F668" s="7" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G668" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H668" s="5">
+        <v>44749</v>
+      </c>
+      <c r="I668" s="7"/>
+      <c r="J668" s="9"/>
+      <c r="K668" s="7"/>
+      <c r="L668" s="7"/>
+      <c r="M668" s="7"/>
+      <c r="N668" s="7"/>
+    </row>
+    <row r="669" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A669" s="3">
+        <v>667</v>
+      </c>
+      <c r="B669" s="3">
+        <v>46</v>
+      </c>
+      <c r="C669" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D669" s="3">
+        <v>35845881</v>
+      </c>
+      <c r="E669" s="7" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F669" s="7" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G669" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H669" s="5">
+        <v>44748</v>
+      </c>
+      <c r="I669" s="7"/>
+      <c r="J669" s="9"/>
+      <c r="K669" s="7"/>
+      <c r="L669" s="7"/>
+      <c r="M669" s="7"/>
+      <c r="N669" s="7"/>
+    </row>
+    <row r="670" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A670" s="3">
+        <v>668</v>
+      </c>
+      <c r="B670" s="3">
+        <v>47</v>
+      </c>
+      <c r="C670" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D670" s="3">
+        <v>35845877</v>
+      </c>
+      <c r="E670" s="7" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F670" s="7" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G670" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H670" s="5">
+        <v>44748</v>
+      </c>
+      <c r="I670" s="7"/>
+      <c r="J670" s="9"/>
+      <c r="K670" s="7"/>
+      <c r="L670" s="7"/>
+      <c r="M670" s="7"/>
+      <c r="N670" s="7"/>
+    </row>
+    <row r="671" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A671" s="3">
+        <v>669</v>
+      </c>
+      <c r="B671" s="3">
+        <v>48</v>
+      </c>
+      <c r="C671" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D671" s="3">
+        <v>35845835</v>
+      </c>
+      <c r="E671" s="7" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F671" s="7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G671" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H671" s="5">
+        <v>44714</v>
+      </c>
+      <c r="I671" s="7"/>
+      <c r="J671" s="9"/>
+      <c r="K671" s="7"/>
+      <c r="L671" s="7"/>
+      <c r="M671" s="7"/>
+      <c r="N671" s="7"/>
+    </row>
+    <row r="672" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A672" s="3">
+        <v>670</v>
+      </c>
+      <c r="B672" s="3">
+        <v>49</v>
+      </c>
+      <c r="C672" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D672" s="3">
+        <v>35845762</v>
+      </c>
+      <c r="E672" s="7" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F672" s="7" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G672" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H672" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I672" s="7"/>
+      <c r="J672" s="9"/>
+      <c r="K672" s="7"/>
+      <c r="L672" s="7"/>
+      <c r="M672" s="7"/>
+      <c r="N672" s="7"/>
+    </row>
+    <row r="673" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A673" s="3">
+        <v>671</v>
+      </c>
+      <c r="B673" s="3">
+        <v>50</v>
+      </c>
+      <c r="C673" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D673" s="3">
+        <v>35845761</v>
+      </c>
+      <c r="E673" s="7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F673" s="7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G673" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H673" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I673" s="7"/>
+      <c r="J673" s="9"/>
+      <c r="K673" s="7"/>
+      <c r="L673" s="7"/>
+      <c r="M673" s="7"/>
+      <c r="N673" s="7"/>
+    </row>
+    <row r="674" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A674" s="3">
+        <v>672</v>
+      </c>
+      <c r="B674" s="3">
+        <v>51</v>
+      </c>
+      <c r="C674" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D674" s="3">
+        <v>35845758</v>
+      </c>
+      <c r="E674" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F674" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G674" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H674" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I674" s="7"/>
+      <c r="J674" s="9"/>
+      <c r="K674" s="7"/>
+      <c r="L674" s="7"/>
+      <c r="M674" s="7"/>
+      <c r="N674" s="7"/>
+    </row>
+    <row r="675" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A675" s="3">
+        <v>673</v>
+      </c>
+      <c r="B675" s="3">
+        <v>52</v>
+      </c>
+      <c r="C675" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D675" s="3">
+        <v>35845757</v>
+      </c>
+      <c r="E675" s="7" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F675" s="7" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G675" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H675" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I675" s="7"/>
+      <c r="J675" s="9"/>
+      <c r="K675" s="7"/>
+      <c r="L675" s="7"/>
+      <c r="M675" s="7"/>
+      <c r="N675" s="7"/>
+    </row>
+    <row r="676" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A676" s="3">
+        <v>674</v>
+      </c>
+      <c r="B676" s="3">
+        <v>53</v>
+      </c>
+      <c r="C676" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D676" s="3">
+        <v>35845657</v>
+      </c>
+      <c r="E676" s="7" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F676" s="7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G676" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H676" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I676" s="7"/>
+      <c r="J676" s="9"/>
+      <c r="K676" s="7"/>
+      <c r="L676" s="7"/>
+      <c r="M676" s="7"/>
+      <c r="N676" s="7"/>
+    </row>
+    <row r="677" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A677" s="3">
+        <v>675</v>
+      </c>
+      <c r="B677" s="3">
+        <v>54</v>
+      </c>
+      <c r="C677" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D677" s="3">
+        <v>35845543</v>
+      </c>
+      <c r="E677" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F677" s="7" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G677" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H677" s="5"/>
+      <c r="I677" s="7"/>
+      <c r="J677" s="9"/>
+      <c r="K677" s="7"/>
+      <c r="L677" s="7"/>
+      <c r="M677" s="7"/>
+      <c r="N677" s="7"/>
+    </row>
+    <row r="678" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A678" s="3">
+        <v>676</v>
+      </c>
+      <c r="B678" s="3">
+        <v>55</v>
+      </c>
+      <c r="C678" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D678" s="3">
+        <v>35845429</v>
+      </c>
+      <c r="E678" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F678" s="7" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G678" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H678" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I678" s="7"/>
+      <c r="J678" s="9"/>
+      <c r="K678" s="7"/>
+      <c r="L678" s="7"/>
+      <c r="M678" s="7"/>
+      <c r="N678" s="7"/>
+    </row>
+    <row r="679" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A679" s="3">
+        <v>677</v>
+      </c>
+      <c r="B679" s="3">
+        <v>56</v>
+      </c>
+      <c r="C679" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D679" s="3">
+        <v>35845422</v>
+      </c>
+      <c r="E679" s="7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F679" s="7" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G679" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H679" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I679" s="7"/>
+      <c r="J679" s="9"/>
+      <c r="K679" s="7"/>
+      <c r="L679" s="7"/>
+      <c r="M679" s="7"/>
+      <c r="N679" s="7"/>
+    </row>
+    <row r="680" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A680" s="3">
+        <v>678</v>
+      </c>
+      <c r="B680" s="3">
+        <v>57</v>
+      </c>
+      <c r="C680" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D680" s="3">
+        <v>35845102</v>
+      </c>
+      <c r="E680" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F680" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G680" s="7" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H680" s="5">
+        <v>44636</v>
+      </c>
+      <c r="I680" s="7"/>
+      <c r="J680" s="9"/>
+      <c r="K680" s="7"/>
+      <c r="L680" s="7"/>
+      <c r="M680" s="7"/>
+      <c r="N680" s="7"/>
+    </row>
+    <row r="681" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A681" s="3">
+        <v>679</v>
+      </c>
+      <c r="B681" s="3">
+        <v>58</v>
+      </c>
+      <c r="C681" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D681" s="3">
+        <v>35845039</v>
+      </c>
+      <c r="E681" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F681" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G681" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H681" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I681" s="7"/>
+      <c r="J681" s="9"/>
+      <c r="K681" s="7"/>
+      <c r="L681" s="7"/>
+      <c r="M681" s="7"/>
+      <c r="N681" s="7"/>
+    </row>
+    <row r="682" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A682" s="3">
+        <v>680</v>
+      </c>
+      <c r="B682" s="3">
+        <v>59</v>
+      </c>
+      <c r="C682" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D682" s="3">
+        <v>35844933</v>
+      </c>
+      <c r="E682" s="7" t="s">
+        <v>1916</v>
+      </c>
+      <c r="F682" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G682" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="H682" s="5">
+        <v>44747</v>
+      </c>
+      <c r="I682" s="7"/>
+      <c r="J682" s="9"/>
+      <c r="K682" s="7"/>
+      <c r="L682" s="7"/>
+      <c r="M682" s="7"/>
+      <c r="N682" s="7"/>
+    </row>
+    <row r="683" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A683" s="3">
+        <v>681</v>
+      </c>
+      <c r="B683" s="3">
+        <v>60</v>
+      </c>
+      <c r="C683" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D683" s="3">
+        <v>35844896</v>
+      </c>
+      <c r="E683" s="7" t="s">
+        <v>1919</v>
+      </c>
+      <c r="F683" s="7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G683" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="H683" s="5">
+        <v>44742</v>
+      </c>
+      <c r="I683" s="7"/>
+      <c r="J683" s="9"/>
+      <c r="K683" s="7"/>
+      <c r="L683" s="7"/>
+      <c r="M683" s="7"/>
+      <c r="N683" s="7"/>
+    </row>
+    <row r="684" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A684" s="3">
+        <v>682</v>
+      </c>
+      <c r="B684" s="3">
+        <v>61</v>
+      </c>
+      <c r="C684" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D684" s="3">
+        <v>35844671</v>
+      </c>
+      <c r="E684" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F684" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G684" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H684" s="5">
+        <v>44753</v>
+      </c>
+      <c r="I684" s="7"/>
+      <c r="J684" s="9"/>
+      <c r="K684" s="7"/>
+      <c r="L684" s="7"/>
+      <c r="M684" s="7"/>
+      <c r="N684" s="7"/>
+    </row>
+    <row r="685" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A685" s="3">
+        <v>683</v>
+      </c>
+      <c r="B685" s="3">
+        <v>62</v>
+      </c>
+      <c r="C685" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D685" s="3">
+        <v>35844508</v>
+      </c>
+      <c r="E685" s="7" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F685" s="7" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G685" s="7" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H685" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I685" s="7"/>
+      <c r="J685" s="9"/>
+      <c r="K685" s="7"/>
+      <c r="L685" s="7"/>
+      <c r="M685" s="7"/>
+      <c r="N685" s="7"/>
+    </row>
+    <row r="686" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A686" s="3">
+        <v>684</v>
+      </c>
+      <c r="B686" s="3">
+        <v>63</v>
+      </c>
+      <c r="C686" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D686" s="3">
+        <v>35844297</v>
+      </c>
+      <c r="E686" s="7" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F686" s="7" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G686" s="7" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H686" s="5">
+        <v>44752</v>
+      </c>
+      <c r="I686" s="7"/>
+      <c r="J686" s="9"/>
+      <c r="K686" s="7"/>
+      <c r="L686" s="7"/>
+      <c r="M686" s="7"/>
+      <c r="N686" s="7"/>
+    </row>
+    <row r="687" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A687" s="3">
+        <v>685</v>
+      </c>
+      <c r="B687" s="3">
+        <v>64</v>
+      </c>
+      <c r="C687" s="5">
+        <v>44761</v>
+      </c>
+      <c r="D687" s="3">
+        <v>35844230</v>
+      </c>
+      <c r="E687" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F687" s="7" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G687" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H687" s="5">
+        <v>44741</v>
+      </c>
+      <c r="I687" s="7"/>
+      <c r="J687" s="9"/>
+      <c r="K687" s="7"/>
+      <c r="L687" s="7"/>
+      <c r="M687" s="7"/>
+      <c r="N687" s="7"/>
+    </row>
+    <row r="688" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A688" s="3">
+        <v>686</v>
+      </c>
+      <c r="B688" s="3">
+        <v>1</v>
+      </c>
+      <c r="C688" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D688" s="3">
+        <v>35854211</v>
+      </c>
+      <c r="E688" s="7" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F688" s="7" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G688" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H688" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I688" s="7"/>
+      <c r="J688" s="9"/>
+      <c r="K688" s="7"/>
+      <c r="L688" s="7"/>
+      <c r="M688" s="7"/>
+      <c r="N688" s="7"/>
+    </row>
+    <row r="689" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A689" s="3">
+        <v>687</v>
+      </c>
+      <c r="B689" s="3">
+        <v>2</v>
+      </c>
+      <c r="C689" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D689" s="3">
+        <v>35854085</v>
+      </c>
+      <c r="E689" s="7" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F689" s="7" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G689" s="7" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H689" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I689" s="7"/>
+      <c r="J689" s="9"/>
+      <c r="K689" s="7"/>
+      <c r="L689" s="7"/>
+      <c r="M689" s="7"/>
+      <c r="N689" s="7"/>
+    </row>
+    <row r="690" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A690" s="3">
+        <v>688</v>
+      </c>
+      <c r="B690" s="3">
+        <v>3</v>
+      </c>
+      <c r="C690" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D690" s="3">
+        <v>35853777</v>
+      </c>
+      <c r="E690" s="7" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F690" s="7" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G690" s="7" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H690" s="5">
+        <v>44758</v>
+      </c>
+      <c r="I690" s="7"/>
+      <c r="J690" s="9"/>
+      <c r="K690" s="7"/>
+      <c r="L690" s="7"/>
+      <c r="M690" s="7"/>
+      <c r="N690" s="7"/>
+    </row>
+    <row r="691" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A691" s="3">
+        <v>689</v>
+      </c>
+      <c r="B691" s="3">
+        <v>4</v>
+      </c>
+      <c r="C691" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D691" s="3">
+        <v>35853448</v>
+      </c>
+      <c r="E691" s="7" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F691" s="7" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G691" s="7" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H691" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I691" s="7"/>
+      <c r="J691" s="9"/>
+      <c r="K691" s="7"/>
+      <c r="L691" s="7"/>
+      <c r="M691" s="7"/>
+      <c r="N691" s="7"/>
+    </row>
+    <row r="692" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A692" s="3">
+        <v>690</v>
+      </c>
+      <c r="B692" s="3">
+        <v>5</v>
+      </c>
+      <c r="C692" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D692" s="3">
+        <v>35853437</v>
+      </c>
+      <c r="E692" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F692" s="7" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G692" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="H692" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I692" s="7"/>
+      <c r="J692" s="9"/>
+      <c r="K692" s="7"/>
+      <c r="L692" s="7"/>
+      <c r="M692" s="7"/>
+      <c r="N692" s="7"/>
+    </row>
+    <row r="693" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A693" s="3">
+        <v>691</v>
+      </c>
+      <c r="B693" s="3">
+        <v>6</v>
+      </c>
+      <c r="C693" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D693" s="3">
+        <v>35853398</v>
+      </c>
+      <c r="E693" s="7" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F693" s="7" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G693" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H693" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I693" s="7"/>
+      <c r="J693" s="9"/>
+      <c r="K693" s="7"/>
+      <c r="L693" s="7"/>
+      <c r="M693" s="7"/>
+      <c r="N693" s="7"/>
+    </row>
+    <row r="694" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A694" s="3">
+        <v>692</v>
+      </c>
+      <c r="B694" s="3">
+        <v>7</v>
+      </c>
+      <c r="C694" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D694" s="3">
+        <v>35853397</v>
+      </c>
+      <c r="E694" s="7" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F694" s="7" t="s">
+        <v>1950</v>
+      </c>
+      <c r="G694" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H694" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I694" s="7"/>
+      <c r="J694" s="9"/>
+      <c r="K694" s="7"/>
+      <c r="L694" s="7"/>
+      <c r="M694" s="7"/>
+      <c r="N694" s="7"/>
+    </row>
+    <row r="695" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A695" s="3">
+        <v>693</v>
+      </c>
+      <c r="B695" s="3">
+        <v>8</v>
+      </c>
+      <c r="C695" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D695" s="3">
+        <v>35853229</v>
+      </c>
+      <c r="E695" s="7" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F695" s="7" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G695" s="7" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H695" s="5">
+        <v>44736</v>
+      </c>
+      <c r="I695" s="7"/>
+      <c r="J695" s="9"/>
+      <c r="K695" s="7"/>
+      <c r="L695" s="7"/>
+      <c r="M695" s="7"/>
+      <c r="N695" s="7"/>
+    </row>
+    <row r="696" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A696" s="3">
+        <v>694</v>
+      </c>
+      <c r="B696" s="3">
+        <v>9</v>
+      </c>
+      <c r="C696" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D696" s="3">
+        <v>35853075</v>
+      </c>
+      <c r="E696" s="7" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F696" s="7" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G696" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H696" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I696" s="7"/>
+      <c r="J696" s="9"/>
+      <c r="K696" s="7"/>
+      <c r="L696" s="7"/>
+      <c r="M696" s="7"/>
+      <c r="N696" s="7"/>
+    </row>
+    <row r="697" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A697" s="3">
+        <v>695</v>
+      </c>
+      <c r="B697" s="3">
+        <v>10</v>
+      </c>
+      <c r="C697" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D697" s="3">
+        <v>35853071</v>
+      </c>
+      <c r="E697" s="7" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F697" s="7" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G697" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H697" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I697" s="7"/>
+      <c r="J697" s="9"/>
+      <c r="K697" s="7"/>
+      <c r="L697" s="7"/>
+      <c r="M697" s="7"/>
+      <c r="N697" s="7"/>
+    </row>
+    <row r="698" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A698" s="3">
+        <v>696</v>
+      </c>
+      <c r="B698" s="3">
+        <v>11</v>
+      </c>
+      <c r="C698" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D698" s="3">
+        <v>35853070</v>
+      </c>
+      <c r="E698" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F698" s="7" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G698" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H698" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I698" s="7"/>
+      <c r="J698" s="9"/>
+      <c r="K698" s="7"/>
+      <c r="L698" s="7"/>
+      <c r="M698" s="7"/>
+      <c r="N698" s="7"/>
+    </row>
+    <row r="699" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A699" s="3">
+        <v>697</v>
+      </c>
+      <c r="B699" s="3">
+        <v>12</v>
+      </c>
+      <c r="C699" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D699" s="3">
+        <v>35853066</v>
+      </c>
+      <c r="E699" s="7" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F699" s="7" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G699" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H699" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I699" s="7"/>
+      <c r="J699" s="9"/>
+      <c r="K699" s="7"/>
+      <c r="L699" s="7"/>
+      <c r="M699" s="7"/>
+      <c r="N699" s="7"/>
+    </row>
+    <row r="700" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A700" s="3">
+        <v>698</v>
+      </c>
+      <c r="B700" s="3">
+        <v>13</v>
+      </c>
+      <c r="C700" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D700" s="3">
+        <v>35853064</v>
+      </c>
+      <c r="E700" s="7" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F700" s="7" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G700" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H700" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I700" s="7"/>
+      <c r="J700" s="9"/>
+      <c r="K700" s="7"/>
+      <c r="L700" s="7"/>
+      <c r="M700" s="7"/>
+      <c r="N700" s="7"/>
+    </row>
+    <row r="701" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A701" s="3">
+        <v>699</v>
+      </c>
+      <c r="B701" s="3">
+        <v>14</v>
+      </c>
+      <c r="C701" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D701" s="3">
+        <v>35853048</v>
+      </c>
+      <c r="E701" s="7" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F701" s="7" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G701" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H701" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I701" s="7"/>
+      <c r="J701" s="9"/>
+      <c r="K701" s="7"/>
+      <c r="L701" s="7"/>
+      <c r="M701" s="7"/>
+      <c r="N701" s="7"/>
+    </row>
+    <row r="702" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A702" s="3">
+        <v>700</v>
+      </c>
+      <c r="B702" s="3">
+        <v>15</v>
+      </c>
+      <c r="C702" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D702" s="3">
+        <v>35852829</v>
+      </c>
+      <c r="E702" s="7" t="s">
+        <v>1966</v>
+      </c>
+      <c r="F702" s="7" t="s">
+        <v>1967</v>
+      </c>
+      <c r="G702" s="7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H702" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I702" s="7"/>
+      <c r="J702" s="9"/>
+      <c r="K702" s="7"/>
+      <c r="L702" s="7"/>
+      <c r="M702" s="7"/>
+      <c r="N702" s="7"/>
+    </row>
+    <row r="703" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A703" s="3">
+        <v>701</v>
+      </c>
+      <c r="B703" s="3">
+        <v>16</v>
+      </c>
+      <c r="C703" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D703" s="3">
+        <v>35852738</v>
+      </c>
+      <c r="E703" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F703" s="7" t="s">
+        <v>1970</v>
+      </c>
+      <c r="G703" s="7" t="s">
+        <v>1971</v>
+      </c>
+      <c r="H703" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I703" s="7"/>
+      <c r="J703" s="9"/>
+      <c r="K703" s="7"/>
+      <c r="L703" s="7"/>
+      <c r="M703" s="7"/>
+      <c r="N703" s="7"/>
+    </row>
+    <row r="704" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A704" s="3">
+        <v>702</v>
+      </c>
+      <c r="B704" s="3">
+        <v>17</v>
+      </c>
+      <c r="C704" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D704" s="3">
+        <v>35852673</v>
+      </c>
+      <c r="E704" s="7" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F704" s="7" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G704" s="7" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H704" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I704" s="7"/>
+      <c r="J704" s="9"/>
+      <c r="K704" s="7"/>
+      <c r="L704" s="7"/>
+      <c r="M704" s="7"/>
+      <c r="N704" s="7"/>
+    </row>
+    <row r="705" spans="1:14" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A705" s="3">
+        <v>703</v>
+      </c>
+      <c r="B705" s="3">
+        <v>18</v>
+      </c>
+      <c r="C705" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D705" s="3">
+        <v>35852607</v>
+      </c>
+      <c r="E705" s="7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F705" s="7" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G705" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="H705" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I705" s="7"/>
+      <c r="J705" s="9"/>
+      <c r="K705" s="7"/>
+      <c r="L705" s="7"/>
+      <c r="M705" s="7"/>
+      <c r="N705" s="7"/>
+    </row>
+    <row r="706" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A706" s="3">
+        <v>704</v>
+      </c>
+      <c r="B706" s="3">
+        <v>19</v>
+      </c>
+      <c r="C706" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D706" s="3">
+        <v>35852574</v>
+      </c>
+      <c r="E706" s="7" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F706" s="7" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G706" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H706" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I706" s="7"/>
+      <c r="J706" s="9"/>
+      <c r="K706" s="7"/>
+      <c r="L706" s="7"/>
+      <c r="M706" s="7"/>
+      <c r="N706" s="7"/>
+    </row>
+    <row r="707" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A707" s="3">
+        <v>705</v>
+      </c>
+      <c r="B707" s="3">
+        <v>20</v>
+      </c>
+      <c r="C707" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D707" s="3">
+        <v>35852557</v>
+      </c>
+      <c r="E707" s="7" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F707" s="7" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G707" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H707" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I707" s="7"/>
+      <c r="J707" s="9"/>
+      <c r="K707" s="7"/>
+      <c r="L707" s="7"/>
+      <c r="M707" s="7"/>
+      <c r="N707" s="7"/>
+    </row>
+    <row r="708" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A708" s="3">
+        <v>706</v>
+      </c>
+      <c r="B708" s="3">
+        <v>21</v>
+      </c>
+      <c r="C708" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D708" s="3">
+        <v>35852498</v>
+      </c>
+      <c r="E708" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F708" s="7" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G708" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H708" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I708" s="7"/>
+      <c r="J708" s="9"/>
+      <c r="K708" s="7"/>
+      <c r="L708" s="7"/>
+      <c r="M708" s="7"/>
+      <c r="N708" s="7"/>
+    </row>
+    <row r="709" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A709" s="3">
+        <v>707</v>
+      </c>
+      <c r="B709" s="3">
+        <v>22</v>
+      </c>
+      <c r="C709" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D709" s="3">
+        <v>35852484</v>
+      </c>
+      <c r="E709" s="7" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F709" s="7" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G709" s="7" t="s">
+        <v>1986</v>
+      </c>
+      <c r="H709" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I709" s="7"/>
+      <c r="J709" s="9"/>
+      <c r="K709" s="7"/>
+      <c r="L709" s="7"/>
+      <c r="M709" s="7"/>
+      <c r="N709" s="7"/>
+    </row>
+    <row r="710" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A710" s="3">
+        <v>708</v>
+      </c>
+      <c r="B710" s="3">
+        <v>23</v>
+      </c>
+      <c r="C710" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D710" s="3">
+        <v>35852429</v>
+      </c>
+      <c r="E710" s="7" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F710" s="7" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G710" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H710" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I710" s="7"/>
+      <c r="J710" s="9"/>
+      <c r="K710" s="7"/>
+      <c r="L710" s="7"/>
+      <c r="M710" s="7"/>
+      <c r="N710" s="7"/>
+    </row>
+    <row r="711" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A711" s="3">
+        <v>709</v>
+      </c>
+      <c r="B711" s="3">
+        <v>24</v>
+      </c>
+      <c r="C711" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D711" s="3">
+        <v>35852426</v>
+      </c>
+      <c r="E711" s="7" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F711" s="7" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G711" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H711" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I711" s="7"/>
+      <c r="J711" s="9"/>
+      <c r="K711" s="7"/>
+      <c r="L711" s="7"/>
+      <c r="M711" s="7"/>
+      <c r="N711" s="7"/>
+    </row>
+    <row r="712" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A712" s="3">
+        <v>710</v>
+      </c>
+      <c r="B712" s="3">
+        <v>25</v>
+      </c>
+      <c r="C712" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D712" s="3">
+        <v>35852311</v>
+      </c>
+      <c r="E712" s="7" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F712" s="7" t="s">
+        <v>1992</v>
+      </c>
+      <c r="G712" s="7" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H712" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I712" s="7"/>
+      <c r="J712" s="9"/>
+      <c r="K712" s="7"/>
+      <c r="L712" s="7"/>
+      <c r="M712" s="7"/>
+      <c r="N712" s="7"/>
+    </row>
+    <row r="713" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A713" s="3">
+        <v>711</v>
+      </c>
+      <c r="B713" s="3">
+        <v>26</v>
+      </c>
+      <c r="C713" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D713" s="3">
+        <v>35852212</v>
+      </c>
+      <c r="E713" s="7" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F713" s="7" t="s">
+        <v>1995</v>
+      </c>
+      <c r="G713" s="7" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H713" s="5"/>
+      <c r="I713" s="7"/>
+      <c r="J713" s="9"/>
+      <c r="K713" s="7"/>
+      <c r="L713" s="7"/>
+      <c r="M713" s="7"/>
+      <c r="N713" s="7"/>
+    </row>
+    <row r="714" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A714" s="3">
+        <v>712</v>
+      </c>
+      <c r="B714" s="3">
+        <v>27</v>
+      </c>
+      <c r="C714" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D714" s="3">
+        <v>35851958</v>
+      </c>
+      <c r="E714" s="7" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F714" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G714" s="7" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H714" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I714" s="7"/>
+      <c r="J714" s="9"/>
+      <c r="K714" s="7"/>
+      <c r="L714" s="7"/>
+      <c r="M714" s="7"/>
+      <c r="N714" s="7"/>
+    </row>
+    <row r="715" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A715" s="3">
+        <v>713</v>
+      </c>
+      <c r="B715" s="3">
+        <v>28</v>
+      </c>
+      <c r="C715" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D715" s="3">
+        <v>35851944</v>
+      </c>
+      <c r="E715" s="7" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F715" s="7" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G715" s="7" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H715" s="5">
+        <v>44761</v>
+      </c>
+      <c r="I715" s="7"/>
+      <c r="J715" s="9"/>
+      <c r="K715" s="7"/>
+      <c r="L715" s="7"/>
+      <c r="M715" s="7"/>
+      <c r="N715" s="7"/>
+    </row>
+    <row r="716" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A716" s="3">
+        <v>714</v>
+      </c>
+      <c r="B716" s="3">
+        <v>29</v>
+      </c>
+      <c r="C716" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D716" s="3">
+        <v>35851940</v>
+      </c>
+      <c r="E716" s="7" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F716" s="7" t="s">
+        <v>2004</v>
+      </c>
+      <c r="G716" s="7" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H716" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I716" s="7"/>
+      <c r="J716" s="9"/>
+      <c r="K716" s="7"/>
+      <c r="L716" s="7"/>
+      <c r="M716" s="7"/>
+      <c r="N716" s="7"/>
+    </row>
+    <row r="717" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A717" s="3">
+        <v>715</v>
+      </c>
+      <c r="B717" s="3">
+        <v>30</v>
+      </c>
+      <c r="C717" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D717" s="3">
+        <v>35851592</v>
+      </c>
+      <c r="E717" s="7" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F717" s="7" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G717" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H717" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I717" s="7"/>
+      <c r="J717" s="9"/>
+      <c r="K717" s="7"/>
+      <c r="L717" s="7"/>
+      <c r="M717" s="7"/>
+      <c r="N717" s="7"/>
+    </row>
+    <row r="718" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A718" s="3">
+        <v>716</v>
+      </c>
+      <c r="B718" s="3">
+        <v>31</v>
+      </c>
+      <c r="C718" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D718" s="3">
+        <v>35851322</v>
+      </c>
+      <c r="E718" s="7" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F718" s="7" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G718" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H718" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I718" s="7"/>
+      <c r="J718" s="9"/>
+      <c r="K718" s="7"/>
+      <c r="L718" s="7"/>
+      <c r="M718" s="7"/>
+      <c r="N718" s="7"/>
+    </row>
+    <row r="719" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A719" s="3">
+        <v>717</v>
+      </c>
+      <c r="B719" s="3">
+        <v>32</v>
+      </c>
+      <c r="C719" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D719" s="3">
+        <v>35851285</v>
+      </c>
+      <c r="E719" s="7" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F719" s="7" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G719" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H719" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I719" s="7"/>
+      <c r="J719" s="9"/>
+      <c r="K719" s="7"/>
+      <c r="L719" s="7"/>
+      <c r="M719" s="7"/>
+      <c r="N719" s="7"/>
+    </row>
+    <row r="720" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A720" s="3">
+        <v>718</v>
+      </c>
+      <c r="B720" s="3">
+        <v>33</v>
+      </c>
+      <c r="C720" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D720" s="3">
+        <v>35851136</v>
+      </c>
+      <c r="E720" s="7" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F720" s="7" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G720" s="7" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H720" s="5"/>
+      <c r="I720" s="7"/>
+      <c r="J720" s="9"/>
+      <c r="K720" s="7"/>
+      <c r="L720" s="7"/>
+      <c r="M720" s="7"/>
+      <c r="N720" s="7"/>
+    </row>
+    <row r="721" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A721" s="3">
+        <v>719</v>
+      </c>
+      <c r="B721" s="3">
+        <v>34</v>
+      </c>
+      <c r="C721" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D721" s="3">
+        <v>35851016</v>
+      </c>
+      <c r="E721" s="7" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F721" s="7" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G721" s="7" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H721" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I721" s="7"/>
+      <c r="J721" s="9"/>
+      <c r="K721" s="7"/>
+      <c r="L721" s="7"/>
+      <c r="M721" s="7"/>
+      <c r="N721" s="7"/>
+    </row>
+    <row r="722" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A722" s="3">
+        <v>720</v>
+      </c>
+      <c r="B722" s="3">
+        <v>35</v>
+      </c>
+      <c r="C722" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D722" s="3">
+        <v>35850868</v>
+      </c>
+      <c r="E722" s="7" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F722" s="7" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G722" s="7" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H722" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I722" s="7"/>
+      <c r="J722" s="9"/>
+      <c r="K722" s="7"/>
+      <c r="L722" s="7"/>
+      <c r="M722" s="7"/>
+      <c r="N722" s="7"/>
+    </row>
+    <row r="723" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A723" s="3">
+        <v>721</v>
+      </c>
+      <c r="B723" s="3">
+        <v>36</v>
+      </c>
+      <c r="C723" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D723" s="3">
+        <v>35850482</v>
+      </c>
+      <c r="E723" s="7" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F723" s="7" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G723" s="7" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H723" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I723" s="7"/>
+      <c r="J723" s="9"/>
+      <c r="K723" s="7"/>
+      <c r="L723" s="7"/>
+      <c r="M723" s="7"/>
+      <c r="N723" s="7"/>
+    </row>
+    <row r="724" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A724" s="3">
+        <v>722</v>
+      </c>
+      <c r="B724" s="3">
+        <v>37</v>
+      </c>
+      <c r="C724" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D724" s="3">
+        <v>35849950</v>
+      </c>
+      <c r="E724" s="7" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F724" s="7" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G724" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H724" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I724" s="7"/>
+      <c r="J724" s="9"/>
+      <c r="K724" s="7"/>
+      <c r="L724" s="7"/>
+      <c r="M724" s="7"/>
+      <c r="N724" s="7"/>
+    </row>
+    <row r="725" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A725" s="3">
+        <v>723</v>
+      </c>
+      <c r="B725" s="3">
+        <v>38</v>
+      </c>
+      <c r="C725" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D725" s="3">
+        <v>35849947</v>
+      </c>
+      <c r="E725" s="7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F725" s="7" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G725" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H725" s="5">
+        <v>44747</v>
+      </c>
+      <c r="I725" s="7"/>
+      <c r="J725" s="9"/>
+      <c r="K725" s="7"/>
+      <c r="L725" s="7"/>
+      <c r="M725" s="7"/>
+      <c r="N725" s="7"/>
+    </row>
+    <row r="726" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A726" s="3">
+        <v>724</v>
+      </c>
+      <c r="B726" s="3">
+        <v>39</v>
+      </c>
+      <c r="C726" s="5">
+        <v>44762</v>
+      </c>
+      <c r="D726" s="3">
+        <v>35849939</v>
+      </c>
+      <c r="E726" s="7" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F726" s="7" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G726" s="7" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H726" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I726" s="7"/>
+      <c r="J726" s="9"/>
+      <c r="K726" s="7"/>
+      <c r="L726" s="7"/>
+      <c r="M726" s="7"/>
+      <c r="N726" s="7"/>
+    </row>
+    <row r="727" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A727" s="3">
+        <v>725</v>
+      </c>
+      <c r="B727" s="3">
+        <v>1</v>
+      </c>
+      <c r="C727" s="5">
+        <v>44763</v>
+      </c>
+      <c r="D727" s="3">
+        <v>35859144</v>
+      </c>
+      <c r="E727" s="7" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F727" s="7" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G727" s="7" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H727" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I727" s="7" t="s">
+        <v>2114</v>
+      </c>
+      <c r="J727" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K727" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L727" s="7" t="s">
+        <v>2115</v>
+      </c>
+      <c r="M727" s="7"/>
+      <c r="N727" s="7" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A728" s="3">
+        <v>726</v>
+      </c>
+      <c r="B728" s="3">
+        <v>2</v>
+      </c>
+      <c r="C728" s="5">
+        <v>44764</v>
+      </c>
+      <c r="D728" s="3">
+        <v>35859015</v>
+      </c>
+      <c r="E728" s="7" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F728" s="7" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G728" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H728" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I728" s="7" t="s">
+        <v>2118</v>
+      </c>
+      <c r="J728" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K728" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L728" s="7" t="s">
+        <v>2119</v>
+      </c>
+      <c r="M728" s="7"/>
+      <c r="N728" s="7" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A729" s="3">
+        <v>727</v>
+      </c>
+      <c r="B729" s="3">
+        <v>3</v>
+      </c>
+      <c r="C729" s="5">
+        <v>44765</v>
+      </c>
+      <c r="D729" s="3">
+        <v>35858986</v>
+      </c>
+      <c r="E729" s="7" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F729" s="7" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G729" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H729" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I729" s="7" t="s">
+        <v>2120</v>
+      </c>
+      <c r="J729" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K729" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L729" s="7" t="s">
+        <v>2121</v>
+      </c>
+      <c r="M729" s="7"/>
+      <c r="N729" s="7" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A730" s="3">
+        <v>728</v>
+      </c>
+      <c r="B730" s="3">
+        <v>4</v>
+      </c>
+      <c r="C730" s="5">
+        <v>44766</v>
+      </c>
+      <c r="D730" s="3">
+        <v>35858839</v>
+      </c>
+      <c r="E730" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F730" s="7" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G730" s="7" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H730" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I730" s="7" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J730" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K730" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L730" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M730" s="7"/>
+      <c r="N730" s="7" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="731" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A731" s="3">
+        <v>729</v>
+      </c>
+      <c r="B731" s="3">
+        <v>5</v>
+      </c>
+      <c r="C731" s="5">
+        <v>44767</v>
+      </c>
+      <c r="D731" s="3">
+        <v>35858496</v>
+      </c>
+      <c r="E731" s="7" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F731" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G731" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H731" s="5">
+        <v>44743</v>
+      </c>
+      <c r="I731" s="7" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J731" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K731" s="7" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L731" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M731" s="7"/>
+      <c r="N731" s="7" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="732" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A732" s="3">
+        <v>730</v>
+      </c>
+      <c r="B732" s="3">
+        <v>6</v>
+      </c>
+      <c r="C732" s="5">
+        <v>44768</v>
+      </c>
+      <c r="D732" s="3">
+        <v>35858171</v>
+      </c>
+      <c r="E732" s="7" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F732" s="7" t="s">
+        <v>2043</v>
+      </c>
+      <c r="G732" s="7" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H732" s="5"/>
+      <c r="I732" s="7" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J732" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K732" s="7" t="s">
+        <v>2129</v>
+      </c>
+      <c r="L732" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M732" s="7"/>
+      <c r="N732" s="7" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="733" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A733" s="3">
+        <v>731</v>
+      </c>
+      <c r="B733" s="3">
+        <v>7</v>
+      </c>
+      <c r="C733" s="5">
+        <v>44769</v>
+      </c>
+      <c r="D733" s="3">
+        <v>35857865</v>
+      </c>
+      <c r="E733" s="7" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F733" s="7" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G733" s="7" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H733" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I733" s="7" t="s">
+        <v>2130</v>
+      </c>
+      <c r="J733" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K733" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L733" s="7" t="s">
+        <v>2131</v>
+      </c>
+      <c r="M733" s="7"/>
+      <c r="N733" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="734" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A734" s="3">
+        <v>732</v>
+      </c>
+      <c r="B734" s="3">
+        <v>8</v>
+      </c>
+      <c r="C734" s="5">
+        <v>44770</v>
+      </c>
+      <c r="D734" s="3">
+        <v>35857804</v>
+      </c>
+      <c r="E734" s="7" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F734" s="7" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G734" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H734" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I734" s="7" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J734" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K734" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L734" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M734" s="7"/>
+      <c r="N734" s="7" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="735" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A735" s="3">
+        <v>733</v>
+      </c>
+      <c r="B735" s="3">
+        <v>9</v>
+      </c>
+      <c r="C735" s="5">
+        <v>44771</v>
+      </c>
+      <c r="D735" s="3">
+        <v>35857733</v>
+      </c>
+      <c r="E735" s="7" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F735" s="7" t="s">
+        <v>2050</v>
+      </c>
+      <c r="G735" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H735" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I735" s="7" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J735" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K735" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L735" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M735" s="7"/>
+      <c r="N735" s="7"/>
+    </row>
+    <row r="736" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A736" s="3">
+        <v>734</v>
+      </c>
+      <c r="B736" s="3">
+        <v>10</v>
+      </c>
+      <c r="C736" s="5">
+        <v>44772</v>
+      </c>
+      <c r="D736" s="3">
+        <v>35857731</v>
+      </c>
+      <c r="E736" s="7" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F736" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G736" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H736" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I736" s="7" t="s">
+        <v>2134</v>
+      </c>
+      <c r="J736" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K736" s="7" t="s">
+        <v>2135</v>
+      </c>
+      <c r="L736" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M736" s="7"/>
+      <c r="N736" s="7" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="737" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A737" s="3">
+        <v>735</v>
+      </c>
+      <c r="B737" s="3">
+        <v>11</v>
+      </c>
+      <c r="C737" s="5">
+        <v>44773</v>
+      </c>
+      <c r="D737" s="3">
+        <v>35857625</v>
+      </c>
+      <c r="E737" s="7" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F737" s="7" t="s">
+        <v>2054</v>
+      </c>
+      <c r="G737" s="7" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H737" s="5">
+        <v>44748</v>
+      </c>
+      <c r="I737" s="7" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J737" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K737" s="7" t="s">
+        <v>2138</v>
+      </c>
+      <c r="L737" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M737" s="7"/>
+      <c r="N737" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="738" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A738" s="3">
+        <v>736</v>
+      </c>
+      <c r="B738" s="3">
+        <v>12</v>
+      </c>
+      <c r="C738" s="5">
+        <v>44774</v>
+      </c>
+      <c r="D738" s="3">
+        <v>35857493</v>
+      </c>
+      <c r="E738" s="7" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F738" s="7" t="s">
+        <v>2057</v>
+      </c>
+      <c r="G738" s="7" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H738" s="5">
+        <v>44755</v>
+      </c>
+      <c r="I738" s="7" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J738" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K738" s="7" t="s">
+        <v>2140</v>
+      </c>
+      <c r="L738" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M738" s="7"/>
+      <c r="N738" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="739" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A739" s="3">
+        <v>737</v>
+      </c>
+      <c r="B739" s="3">
+        <v>13</v>
+      </c>
+      <c r="C739" s="5">
+        <v>44775</v>
+      </c>
+      <c r="D739" s="3">
+        <v>35857461</v>
+      </c>
+      <c r="E739" s="7" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F739" s="7" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G739" s="7" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H739" s="5">
+        <v>44748</v>
+      </c>
+      <c r="I739" s="7" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J739" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K739" s="7" t="s">
+        <v>2142</v>
+      </c>
+      <c r="L739" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M739" s="7"/>
+      <c r="N739" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="740" spans="1:14" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A740" s="3">
+        <v>738</v>
+      </c>
+      <c r="B740" s="3">
+        <v>14</v>
+      </c>
+      <c r="C740" s="5">
+        <v>44776</v>
+      </c>
+      <c r="D740" s="3">
+        <v>35857087</v>
+      </c>
+      <c r="E740" s="7" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F740" s="7" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G740" s="7" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H740" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I740" s="7" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J740" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K740" s="7" t="s">
+        <v>2144</v>
+      </c>
+      <c r="L740" s="7"/>
+      <c r="M740" s="7"/>
+      <c r="N740" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="741" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A741" s="3">
+        <v>739</v>
+      </c>
+      <c r="B741" s="3">
+        <v>15</v>
+      </c>
+      <c r="C741" s="5">
+        <v>44777</v>
+      </c>
+      <c r="D741" s="3">
+        <v>35856900</v>
+      </c>
+      <c r="E741" s="7" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F741" s="7" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G741" s="7" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H741" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I741" s="7" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J741" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K741" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L741" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M741" s="7"/>
+      <c r="N741" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="742" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A742" s="3">
+        <v>740</v>
+      </c>
+      <c r="B742" s="3">
+        <v>16</v>
+      </c>
+      <c r="C742" s="5">
+        <v>44778</v>
+      </c>
+      <c r="D742" s="3">
+        <v>35856183</v>
+      </c>
+      <c r="E742" s="7" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F742" s="7" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G742" s="7" t="s">
+        <v>2069</v>
+      </c>
+      <c r="H742" s="5">
+        <v>44762</v>
+      </c>
+      <c r="I742" s="7" t="s">
+        <v>2146</v>
+      </c>
+      <c r="J742" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K742" s="7" t="s">
+        <v>2148</v>
+      </c>
+      <c r="L742" s="7" t="s">
+        <v>2147</v>
+      </c>
+      <c r="M742" s="7"/>
+      <c r="N742" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="743" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A743" s="3">
+        <v>741</v>
+      </c>
+      <c r="B743" s="3">
+        <v>17</v>
+      </c>
+      <c r="C743" s="5">
+        <v>44779</v>
+      </c>
+      <c r="D743" s="3">
+        <v>35856128</v>
+      </c>
+      <c r="E743" s="7" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F743" s="7" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G743" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H743" s="5">
+        <v>44760</v>
+      </c>
+      <c r="I743" s="7" t="s">
+        <v>2149</v>
+      </c>
+      <c r="J743" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K743" s="7" t="s">
+        <v>2116</v>
+      </c>
+      <c r="L743" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M743" s="7"/>
+      <c r="N743" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="744" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A744" s="3">
+        <v>742</v>
+      </c>
+      <c r="B744" s="3">
+        <v>18</v>
+      </c>
+      <c r="C744" s="5">
+        <v>44780</v>
+      </c>
+      <c r="D744" s="3">
+        <v>35856080</v>
+      </c>
+      <c r="E744" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F744" s="7" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G744" s="7" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H744" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I744" s="7" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J744" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K744" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L744" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="M744" s="7"/>
+      <c r="N744" s="7" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="745" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A745" s="3">
+        <v>743</v>
+      </c>
+      <c r="B745" s="3">
+        <v>19</v>
+      </c>
+      <c r="C745" s="5">
+        <v>44781</v>
+      </c>
+      <c r="D745" s="3">
+        <v>35856040</v>
+      </c>
+      <c r="E745" s="7" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F745" s="7" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G745" s="7" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H745" s="5">
+        <v>44754</v>
+      </c>
+      <c r="I745" s="7" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J745" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K745" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L745" s="7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="M745" s="7"/>
+      <c r="N745" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="746" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A746" s="3">
+        <v>744</v>
+      </c>
+      <c r="B746" s="3">
+        <v>20</v>
+      </c>
+      <c r="C746" s="5">
+        <v>44782</v>
+      </c>
+      <c r="D746" s="3">
+        <v>35855833</v>
+      </c>
+      <c r="E746" s="7" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F746" s="7" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G746" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="H746" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I746" s="7" t="s">
+        <v>2154</v>
+      </c>
+      <c r="J746" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K746" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L746" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M746" s="7"/>
+      <c r="N746" s="7" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="747" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A747" s="3">
+        <v>745</v>
+      </c>
+      <c r="B747" s="3">
+        <v>21</v>
+      </c>
+      <c r="C747" s="5">
+        <v>44783</v>
+      </c>
+      <c r="D747" s="3">
+        <v>35855813</v>
+      </c>
+      <c r="E747" s="7" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F747" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G747" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="H747" s="5">
+        <v>44751</v>
+      </c>
+      <c r="I747" s="7" t="s">
+        <v>2155</v>
+      </c>
+      <c r="J747" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K747" s="7" t="s">
+        <v>2156</v>
+      </c>
+      <c r="L747" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M747" s="7"/>
+      <c r="N747" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="748" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A748" s="3">
+        <v>746</v>
+      </c>
+      <c r="B748" s="3">
+        <v>22</v>
+      </c>
+      <c r="C748" s="5">
+        <v>44784</v>
+      </c>
+      <c r="D748" s="3">
+        <v>35855800</v>
+      </c>
+      <c r="E748" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F748" s="7" t="s">
+        <v>2084</v>
+      </c>
+      <c r="G748" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H748" s="5">
+        <v>44751</v>
+      </c>
+      <c r="I748" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J748" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K748" s="7" t="s">
+        <v>2158</v>
+      </c>
+      <c r="L748" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M748" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="N748" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="749" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A749" s="3">
+        <v>747</v>
+      </c>
+      <c r="B749" s="3">
+        <v>23</v>
+      </c>
+      <c r="C749" s="5">
+        <v>44785</v>
+      </c>
+      <c r="D749" s="3">
+        <v>35855796</v>
+      </c>
+      <c r="E749" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F749" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G749" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H749" s="5">
+        <v>44751</v>
+      </c>
+      <c r="I749" s="7" t="s">
+        <v>2159</v>
+      </c>
+      <c r="J749" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K749" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L749" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M749" s="7"/>
+      <c r="N749" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="750" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A750" s="3">
+        <v>748</v>
+      </c>
+      <c r="B750" s="3">
+        <v>24</v>
+      </c>
+      <c r="C750" s="5">
+        <v>44786</v>
+      </c>
+      <c r="D750" s="3">
+        <v>35855791</v>
+      </c>
+      <c r="E750" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F750" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="G750" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H750" s="5">
+        <v>44751</v>
+      </c>
+      <c r="I750" s="7" t="s">
+        <v>2160</v>
+      </c>
+      <c r="J750" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K750" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L750" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M750" s="7"/>
+      <c r="N750" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="751" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A751" s="3">
+        <v>749</v>
+      </c>
+      <c r="B751" s="3">
+        <v>25</v>
+      </c>
+      <c r="C751" s="5">
+        <v>44787</v>
+      </c>
+      <c r="D751" s="3">
+        <v>35855772</v>
+      </c>
+      <c r="E751" s="7" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F751" s="7" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G751" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H751" s="5">
+        <v>44756</v>
+      </c>
+      <c r="I751" s="7" t="s">
+        <v>2161</v>
+      </c>
+      <c r="J751" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K751" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L751" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M751" s="7"/>
+      <c r="N751" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="752" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A752" s="3">
+        <v>750</v>
+      </c>
+      <c r="B752" s="3">
+        <v>26</v>
+      </c>
+      <c r="C752" s="5">
+        <v>44788</v>
+      </c>
+      <c r="D752" s="3">
+        <v>35855489</v>
+      </c>
+      <c r="E752" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F752" s="7" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G752" s="7" t="s">
+        <v>2080</v>
+      </c>
+      <c r="H752" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I752" s="7" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J752" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K752" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L752" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M752" s="7"/>
+      <c r="N752" s="7" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="753" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A753" s="3">
+        <v>751</v>
+      </c>
+      <c r="B753" s="3">
+        <v>27</v>
+      </c>
+      <c r="C753" s="5">
+        <v>44789</v>
+      </c>
+      <c r="D753" s="3">
+        <v>35855372</v>
+      </c>
+      <c r="E753" s="7" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F753" s="7" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G753" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="H753" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I753" s="7" t="s">
+        <v>2163</v>
+      </c>
+      <c r="J753" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K753" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L753" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M753" s="7"/>
+      <c r="N753" s="7" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="754" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A754" s="3">
+        <v>752</v>
+      </c>
+      <c r="B754" s="3">
+        <v>28</v>
+      </c>
+      <c r="C754" s="5">
+        <v>44790</v>
+      </c>
+      <c r="D754" s="3">
+        <v>35854816</v>
+      </c>
+      <c r="E754" s="7" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F754" s="7" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G754" s="7" t="s">
+        <v>2098</v>
+      </c>
+      <c r="H754" s="5">
+        <v>44757</v>
+      </c>
+      <c r="I754" s="7" t="s">
+        <v>2165</v>
+      </c>
+      <c r="J754" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K754" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L754" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M754" s="7"/>
+      <c r="N754" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="755" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A755" s="3">
+        <v>753</v>
+      </c>
+      <c r="B755" s="3">
+        <v>29</v>
+      </c>
+      <c r="C755" s="5">
+        <v>44791</v>
+      </c>
+      <c r="D755" s="3">
+        <v>35854766</v>
+      </c>
+      <c r="E755" s="7" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F755" s="7" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G755" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="H755" s="5">
+        <v>44748</v>
+      </c>
+      <c r="I755" s="7" t="s">
+        <v>2166</v>
+      </c>
+      <c r="J755" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K755" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L755" s="7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="M755" s="7"/>
+      <c r="N755" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="756" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A756" s="3">
+        <v>754</v>
+      </c>
+      <c r="B756" s="3">
+        <v>30</v>
+      </c>
+      <c r="C756" s="5">
+        <v>44792</v>
+      </c>
+      <c r="D756" s="3">
+        <v>35854760</v>
+      </c>
+      <c r="E756" s="7"/>
+      <c r="F756" s="7" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G756" s="7" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H756" s="5">
+        <v>44704</v>
+      </c>
+      <c r="I756" s="7" t="s">
+        <v>2168</v>
+      </c>
+      <c r="J756" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K756" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L756" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M756" s="7"/>
+      <c r="N756" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="757" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A757" s="3">
+        <v>755</v>
+      </c>
+      <c r="B757" s="3">
+        <v>31</v>
+      </c>
+      <c r="C757" s="5">
+        <v>44793</v>
+      </c>
+      <c r="D757" s="3">
+        <v>35854757</v>
+      </c>
+      <c r="E757" s="7"/>
+      <c r="F757" s="7" t="s">
+        <v>2103</v>
+      </c>
+      <c r="G757" s="7" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H757" s="5">
+        <v>44704</v>
+      </c>
+      <c r="I757" s="7" t="s">
+        <v>2169</v>
+      </c>
+      <c r="J757" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K757" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L757" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M757" s="7"/>
+      <c r="N757" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="758" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A758" s="3">
+        <v>756</v>
+      </c>
+      <c r="B758" s="3">
+        <v>32</v>
+      </c>
+      <c r="C758" s="5">
+        <v>44794</v>
+      </c>
+      <c r="D758" s="3">
+        <v>35854741</v>
+      </c>
+      <c r="E758" s="7"/>
+      <c r="F758" s="7" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G758" s="7" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H758" s="5">
+        <v>44704</v>
+      </c>
+      <c r="I758" s="7" t="s">
+        <v>2170</v>
+      </c>
+      <c r="J758" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K758" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L758" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M758" s="7"/>
+      <c r="N758" s="7" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="759" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A759" s="3">
+        <v>757</v>
+      </c>
+      <c r="B759" s="3">
+        <v>33</v>
+      </c>
+      <c r="C759" s="5">
+        <v>44795</v>
+      </c>
+      <c r="D759" s="3">
+        <v>35854730</v>
+      </c>
+      <c r="E759" s="7"/>
+      <c r="F759" s="7" t="s">
+        <v>2105</v>
+      </c>
+      <c r="G759" s="7" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H759" s="5">
+        <v>44704</v>
+      </c>
+      <c r="I759" s="7" t="s">
+        <v>2172</v>
+      </c>
+      <c r="J759" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K759" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L759" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M759" s="7"/>
+      <c r="N759" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="760" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A760" s="3">
+        <v>758</v>
+      </c>
+      <c r="B760" s="3">
+        <v>34</v>
+      </c>
+      <c r="C760" s="5">
+        <v>44796</v>
+      </c>
+      <c r="D760" s="3">
+        <v>35854590</v>
+      </c>
+      <c r="E760" s="7" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F760" s="7" t="s">
+        <v>2107</v>
+      </c>
+      <c r="G760" s="7" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H760" s="5"/>
+      <c r="I760" s="7" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J760" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K760" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L760" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M760" s="7"/>
+      <c r="N760" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="761" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A761" s="3">
+        <v>759</v>
+      </c>
+      <c r="B761" s="3">
+        <v>35</v>
+      </c>
+      <c r="C761" s="5">
+        <v>44797</v>
+      </c>
+      <c r="D761" s="3">
+        <v>35854557</v>
+      </c>
+      <c r="E761" s="7" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F761" s="7" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G761" s="7" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H761" s="5"/>
+      <c r="I761" s="7" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J761" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K761" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L761" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M761" s="7"/>
+      <c r="N761" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="762" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A762" s="3">
+        <v>760</v>
+      </c>
+      <c r="B762" s="3">
+        <v>36</v>
+      </c>
+      <c r="C762" s="5">
+        <v>44798</v>
+      </c>
+      <c r="D762" s="3">
+        <v>35854468</v>
+      </c>
+      <c r="E762" s="7" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F762" s="7" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G762" s="7" t="s">
+        <v>2113</v>
+      </c>
+      <c r="H762" s="5"/>
+      <c r="I762" s="7" t="s">
+        <v>2175</v>
+      </c>
+      <c r="J762" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K762" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L762" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M762" s="7"/>
+      <c r="N762" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
